--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu Kolse\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>1 mg</t>
   </si>
@@ -594,19 +599,31 @@
   </si>
   <si>
     <t>zzi} congrats</t>
+  </si>
+  <si>
+    <t>Rivian</t>
+  </si>
+  <si>
+    <t>Ericsson</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>P&amp;G</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Verizon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -659,159 +676,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,194 +702,8 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1031,253 +711,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1304,62 +742,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1557,27 +954,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5740740740741" customWidth="1"/>
-    <col min="2" max="26" width="35.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1"/>
+    <col min="2" max="26" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:26">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1738,12 +1136,18 @@
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E3" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="K3" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1762,9 +1166,12 @@
       <c r="U3" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="V3" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" customHeight="1" spans="1:26">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1826,7 +1233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:26">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -1885,7 +1292,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:21">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -1932,7 +1339,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:21">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1964,7 +1371,9 @@
       <c r="P7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="S7" s="1" t="s">
         <v>124</v>
       </c>
@@ -1975,7 +1384,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:21">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
@@ -2014,7 +1423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:19">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
@@ -2044,8 +1453,11 @@
       <c r="S9" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:19">
+      <c r="T9" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -2076,7 +1488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:19">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -2099,7 +1511,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:19">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>163</v>
       </c>
@@ -2112,11 +1524,14 @@
       <c r="F12" s="1"/>
       <c r="J12" s="1"/>
       <c r="N12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="S12" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:19">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>167</v>
       </c>
@@ -2133,7 +1548,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:19">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>171</v>
       </c>
@@ -2146,7 +1561,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:19">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
@@ -2159,7 +1574,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:14">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
@@ -2168,8 +1583,9 @@
       <c r="F16" s="1"/>
       <c r="J16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:14">
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>176</v>
       </c>
@@ -2179,7 +1595,7 @@
       <c r="J17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" customHeight="1" spans="1:14">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>177</v>
       </c>
@@ -2189,7 +1605,7 @@
       <c r="J18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" customHeight="1" spans="1:14">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
@@ -2199,7 +1615,7 @@
       <c r="J19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" customHeight="1" spans="1:14">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -2209,7 +1625,7 @@
       <c r="J20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" customHeight="1" spans="1:14">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>180</v>
       </c>
@@ -2219,7 +1635,7 @@
       <c r="J21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" customHeight="1" spans="1:14">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>181</v>
       </c>
@@ -2229,7 +1645,7 @@
       <c r="J22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" customHeight="1" spans="1:14">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>182</v>
       </c>
@@ -2239,7 +1655,7 @@
       <c r="J23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" customHeight="1" spans="1:14">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>183</v>
       </c>
@@ -2249,7 +1665,7 @@
       <c r="J24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" customHeight="1" spans="1:14">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>184</v>
       </c>
@@ -2259,7 +1675,7 @@
       <c r="J25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" customHeight="1" spans="1:14">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>185</v>
       </c>
@@ -2269,7 +1685,7 @@
       <c r="J26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" customHeight="1" spans="1:14">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>186</v>
       </c>
@@ -2279,7 +1695,7 @@
       <c r="J27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" customHeight="1" spans="1:14">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>187</v>
       </c>
@@ -2289,7 +1705,7 @@
       <c r="J28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" customHeight="1" spans="1:14">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>188</v>
       </c>
@@ -2299,7 +1715,7 @@
       <c r="J29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" customHeight="1" spans="1:14">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>189</v>
       </c>
@@ -2309,7 +1725,7 @@
       <c r="J30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" customHeight="1" spans="1:14">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>190</v>
       </c>
@@ -2319,7 +1735,7 @@
       <c r="J31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" customHeight="1" spans="1:14">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>191</v>
       </c>
@@ -2329,7 +1745,7 @@
       <c r="J32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" customHeight="1" spans="1:14">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
@@ -2337,7 +1753,7 @@
       <c r="J33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" customHeight="1" spans="1:14">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
@@ -2345,7 +1761,7 @@
       <c r="J34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" customHeight="1" spans="1:14">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
@@ -2353,7 +1769,7 @@
       <c r="J35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" customHeight="1" spans="1:14">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
@@ -2361,7 +1777,7 @@
       <c r="J36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" customHeight="1" spans="1:14">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
@@ -2369,7 +1785,7 @@
       <c r="J37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" customHeight="1" spans="1:14">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="7"/>
@@ -2377,7 +1793,7 @@
       <c r="J38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" customHeight="1" spans="1:14">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
@@ -2385,7 +1801,7 @@
       <c r="J39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" customHeight="1" spans="1:14">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6"/>
@@ -2393,7 +1809,7 @@
       <c r="J40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" customHeight="1" spans="1:14">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="6"/>
@@ -2401,7 +1817,7 @@
       <c r="J41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" customHeight="1" spans="1:14">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="6"/>
@@ -2409,7 +1825,7 @@
       <c r="J42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" customHeight="1" spans="1:14">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
@@ -2417,7 +1833,7 @@
       <c r="J43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" customHeight="1" spans="1:14">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
@@ -2425,7 +1841,7 @@
       <c r="J44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" customHeight="1" spans="1:14">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
@@ -2433,7 +1849,7 @@
       <c r="J45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" customHeight="1" spans="1:14">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
@@ -2441,7 +1857,7 @@
       <c r="J46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" customHeight="1" spans="1:14">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
@@ -2449,7 +1865,7 @@
       <c r="J47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" customHeight="1" spans="1:14">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
@@ -2457,7 +1873,7 @@
       <c r="J48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" customHeight="1" spans="1:14">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
@@ -2465,7 +1881,7 @@
       <c r="J49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" customHeight="1" spans="1:14">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
@@ -2473,7 +1889,7 @@
       <c r="J50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" customHeight="1" spans="1:14">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
@@ -2481,7 +1897,7 @@
       <c r="J51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" customHeight="1" spans="1:14">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -2489,7 +1905,7 @@
       <c r="J52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" customHeight="1" spans="1:14">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
@@ -2497,7 +1913,7 @@
       <c r="J53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" customHeight="1" spans="1:14">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
@@ -2505,7 +1921,7 @@
       <c r="J54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" customHeight="1" spans="1:14">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
@@ -2513,7 +1929,7 @@
       <c r="J55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" customHeight="1" spans="1:14">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
@@ -2521,7 +1937,7 @@
       <c r="J56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" customHeight="1" spans="1:14">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
@@ -2529,7 +1945,7 @@
       <c r="J57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" customHeight="1" spans="1:14">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
@@ -2537,7 +1953,7 @@
       <c r="J58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" customHeight="1" spans="1:14">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
@@ -2545,7 +1961,7 @@
       <c r="J59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" customHeight="1" spans="1:14">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>
@@ -2553,7 +1969,7 @@
       <c r="J60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" customHeight="1" spans="1:14">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="6"/>
@@ -2561,7 +1977,7 @@
       <c r="J61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" customHeight="1" spans="1:14">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="6"/>
@@ -2569,7 +1985,7 @@
       <c r="J62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" customHeight="1" spans="1:14">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="6"/>
@@ -2577,7 +1993,7 @@
       <c r="J63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" customHeight="1" spans="1:14">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="6"/>
@@ -2585,7 +2001,7 @@
       <c r="J64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" customHeight="1" spans="1:14">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
@@ -2593,7 +2009,7 @@
       <c r="J65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" customHeight="1" spans="1:14">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
@@ -2601,7 +2017,7 @@
       <c r="J66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" customHeight="1" spans="1:14">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
@@ -2609,7 +2025,7 @@
       <c r="J67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" customHeight="1" spans="1:14">
+    <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="6"/>
@@ -2617,7 +2033,7 @@
       <c r="J68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" customHeight="1" spans="1:14">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="6"/>
@@ -2625,7 +2041,7 @@
       <c r="J69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" customHeight="1" spans="1:14">
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="6"/>
@@ -2633,7 +2049,7 @@
       <c r="J70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" customHeight="1" spans="1:14">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="6"/>
@@ -2641,7 +2057,7 @@
       <c r="J71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" customHeight="1" spans="1:14">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
@@ -2649,7 +2065,7 @@
       <c r="J72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" customHeight="1" spans="1:14">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
@@ -2657,7 +2073,7 @@
       <c r="J73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" customHeight="1" spans="1:14">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="6"/>
@@ -2665,7 +2081,7 @@
       <c r="J74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" customHeight="1" spans="1:14">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="6"/>
@@ -2673,7 +2089,7 @@
       <c r="J75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" customHeight="1" spans="1:14">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="6"/>
@@ -2681,7 +2097,7 @@
       <c r="J76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" customHeight="1" spans="1:14">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="6"/>
@@ -2689,7 +2105,7 @@
       <c r="J77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" customHeight="1" spans="1:14">
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
@@ -2697,7 +2113,7 @@
       <c r="J78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" customHeight="1" spans="1:14">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="6"/>
@@ -2705,7 +2121,7 @@
       <c r="J79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" customHeight="1" spans="1:14">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="6"/>
@@ -2713,7 +2129,7 @@
       <c r="J80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" customHeight="1" spans="1:14">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="6"/>
@@ -2721,7 +2137,7 @@
       <c r="J81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" customHeight="1" spans="1:14">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="6"/>
@@ -2729,7 +2145,7 @@
       <c r="J82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" customHeight="1" spans="1:14">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="6"/>
@@ -2737,7 +2153,7 @@
       <c r="J83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" customHeight="1" spans="1:14">
+    <row r="84" spans="1:14" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="6"/>
@@ -2745,7 +2161,7 @@
       <c r="J84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" customHeight="1" spans="1:14">
+    <row r="85" spans="1:14" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="6"/>
@@ -2753,7 +2169,7 @@
       <c r="J85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" customHeight="1" spans="1:14">
+    <row r="86" spans="1:14" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -2761,7 +2177,7 @@
       <c r="J86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" customHeight="1" spans="1:14">
+    <row r="87" spans="1:14" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
@@ -2769,7 +2185,7 @@
       <c r="J87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" customHeight="1" spans="1:14">
+    <row r="88" spans="1:14" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
@@ -2777,7 +2193,7 @@
       <c r="J88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" customHeight="1" spans="1:14">
+    <row r="89" spans="1:14" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
@@ -2785,7 +2201,7 @@
       <c r="J89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" customHeight="1" spans="1:14">
+    <row r="90" spans="1:14" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
@@ -2793,7 +2209,7 @@
       <c r="J90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" customHeight="1" spans="1:14">
+    <row r="91" spans="1:14" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
@@ -2801,7 +2217,7 @@
       <c r="J91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" customHeight="1" spans="1:14">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -2809,7 +2225,7 @@
       <c r="J92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" customHeight="1" spans="1:14">
+    <row r="93" spans="1:14" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="7"/>
@@ -2817,7 +2233,7 @@
       <c r="J93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" customHeight="1" spans="1:14">
+    <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
@@ -2825,7 +2241,7 @@
       <c r="J94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" customHeight="1" spans="1:14">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="6"/>
@@ -2833,7 +2249,7 @@
       <c r="J95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" customHeight="1" spans="1:14">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
@@ -2841,7 +2257,7 @@
       <c r="J96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" customHeight="1" spans="1:14">
+    <row r="97" spans="1:14" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
@@ -2849,7 +2265,7 @@
       <c r="J97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" customHeight="1" spans="1:14">
+    <row r="98" spans="1:14" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
@@ -2857,7 +2273,7 @@
       <c r="J98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" customHeight="1" spans="1:14">
+    <row r="99" spans="1:14" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="6"/>
@@ -2865,7 +2281,7 @@
       <c r="J99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" customHeight="1" spans="1:14">
+    <row r="100" spans="1:14" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="6"/>
@@ -2873,7 +2289,7 @@
       <c r="J100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" customHeight="1" spans="1:14">
+    <row r="101" spans="1:14" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6"/>
@@ -2881,7 +2297,7 @@
       <c r="J101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" customHeight="1" spans="1:14">
+    <row r="102" spans="1:14" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="6"/>
@@ -2889,7 +2305,7 @@
       <c r="J102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" customHeight="1" spans="1:14">
+    <row r="103" spans="1:14" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="6"/>
@@ -2897,7 +2313,7 @@
       <c r="J103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" customHeight="1" spans="1:14">
+    <row r="104" spans="1:14" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="6"/>
@@ -2905,7 +2321,7 @@
       <c r="J104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" customHeight="1" spans="1:14">
+    <row r="105" spans="1:14" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="7"/>
@@ -2913,7 +2329,7 @@
       <c r="J105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" customHeight="1" spans="1:14">
+    <row r="106" spans="1:14" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="6"/>
@@ -2921,7 +2337,7 @@
       <c r="J106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" customHeight="1" spans="1:14">
+    <row r="107" spans="1:14" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="6"/>
@@ -2929,7 +2345,7 @@
       <c r="J107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" customHeight="1" spans="1:14">
+    <row r="108" spans="1:14" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="6"/>
@@ -2937,7 +2353,7 @@
       <c r="J108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" customHeight="1" spans="1:14">
+    <row r="109" spans="1:14" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="6"/>
@@ -2945,7 +2361,7 @@
       <c r="J109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" customHeight="1" spans="1:14">
+    <row r="110" spans="1:14" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
@@ -2953,7 +2369,7 @@
       <c r="J110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" customHeight="1" spans="1:14">
+    <row r="111" spans="1:14" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="6"/>
@@ -2961,7 +2377,7 @@
       <c r="J111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" customHeight="1" spans="1:14">
+    <row r="112" spans="1:14" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="6"/>
@@ -2969,7 +2385,7 @@
       <c r="J112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" customHeight="1" spans="1:14">
+    <row r="113" spans="1:14" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6"/>
@@ -2977,7 +2393,7 @@
       <c r="J113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" customHeight="1" spans="1:14">
+    <row r="114" spans="1:14" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="6"/>
@@ -2985,7 +2401,7 @@
       <c r="J114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" customHeight="1" spans="1:14">
+    <row r="115" spans="1:14" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6"/>
@@ -2993,7 +2409,7 @@
       <c r="J115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" customHeight="1" spans="1:14">
+    <row r="116" spans="1:14" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6"/>
@@ -3001,7 +2417,7 @@
       <c r="J116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" customHeight="1" spans="1:14">
+    <row r="117" spans="1:14" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="6"/>
@@ -3009,7 +2425,7 @@
       <c r="J117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" customHeight="1" spans="1:14">
+    <row r="118" spans="1:14" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="7"/>
@@ -3017,7 +2433,7 @@
       <c r="J118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" customHeight="1" spans="1:14">
+    <row r="119" spans="1:14" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="6"/>
@@ -3025,7 +2441,7 @@
       <c r="J119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" customHeight="1" spans="1:14">
+    <row r="120" spans="1:14" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="6"/>
@@ -3033,7 +2449,7 @@
       <c r="J120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" customHeight="1" spans="1:14">
+    <row r="121" spans="1:14" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6"/>
@@ -3041,7 +2457,7 @@
       <c r="J121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" customHeight="1" spans="1:14">
+    <row r="122" spans="1:14" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="6"/>
@@ -3049,7 +2465,7 @@
       <c r="J122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" customHeight="1" spans="1:14">
+    <row r="123" spans="1:14" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="7"/>
@@ -3057,7 +2473,7 @@
       <c r="J123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" customHeight="1" spans="1:14">
+    <row r="124" spans="1:14" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="6"/>
@@ -3065,7 +2481,7 @@
       <c r="J124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" customHeight="1" spans="1:14">
+    <row r="125" spans="1:14" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="6"/>
@@ -3073,7 +2489,7 @@
       <c r="J125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" customHeight="1" spans="1:14">
+    <row r="126" spans="1:14" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="6"/>
@@ -3081,7 +2497,7 @@
       <c r="J126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" customHeight="1" spans="1:14">
+    <row r="127" spans="1:14" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="6"/>
@@ -3089,7 +2505,7 @@
       <c r="J127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" customHeight="1" spans="1:14">
+    <row r="128" spans="1:14" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="6"/>
@@ -3097,7 +2513,7 @@
       <c r="J128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" customHeight="1" spans="1:14">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="6"/>
@@ -3105,7 +2521,7 @@
       <c r="J129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" customHeight="1" spans="1:14">
+    <row r="130" spans="1:14" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="6"/>
@@ -3113,7 +2529,7 @@
       <c r="J130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" customHeight="1" spans="1:14">
+    <row r="131" spans="1:14" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="6"/>
@@ -3121,7 +2537,7 @@
       <c r="J131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" customHeight="1" spans="1:14">
+    <row r="132" spans="1:14" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="6"/>
@@ -3129,7 +2545,7 @@
       <c r="J132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" customHeight="1" spans="1:14">
+    <row r="133" spans="1:14" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="6"/>
@@ -3137,7 +2553,7 @@
       <c r="J133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" customHeight="1" spans="1:14">
+    <row r="134" spans="1:14" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="6"/>
@@ -3145,7 +2561,7 @@
       <c r="J134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" customHeight="1" spans="1:14">
+    <row r="135" spans="1:14" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="6"/>
@@ -3153,7 +2569,7 @@
       <c r="J135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" customHeight="1" spans="1:14">
+    <row r="136" spans="1:14" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="6"/>
@@ -3161,7 +2577,7 @@
       <c r="J136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" customHeight="1" spans="1:14">
+    <row r="137" spans="1:14" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="6"/>
@@ -3169,7 +2585,7 @@
       <c r="J137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" customHeight="1" spans="1:14">
+    <row r="138" spans="1:14" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="6"/>
@@ -3177,7 +2593,7 @@
       <c r="J138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" customHeight="1" spans="1:14">
+    <row r="139" spans="1:14" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="7"/>
@@ -3185,7 +2601,7 @@
       <c r="J139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" customHeight="1" spans="1:14">
+    <row r="140" spans="1:14" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="6"/>
@@ -3193,7 +2609,7 @@
       <c r="J140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" customHeight="1" spans="1:14">
+    <row r="141" spans="1:14" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="6"/>
@@ -3201,7 +2617,7 @@
       <c r="J141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" customHeight="1" spans="1:14">
+    <row r="142" spans="1:14" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="6"/>
@@ -3209,7 +2625,7 @@
       <c r="J142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" customHeight="1" spans="1:14">
+    <row r="143" spans="1:14" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="6"/>
@@ -3217,7 +2633,7 @@
       <c r="J143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" customHeight="1" spans="1:14">
+    <row r="144" spans="1:14" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="6"/>
@@ -3225,7 +2641,7 @@
       <c r="J144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" customHeight="1" spans="1:14">
+    <row r="145" spans="1:14" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="6"/>
@@ -3233,7 +2649,7 @@
       <c r="J145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" customHeight="1" spans="1:14">
+    <row r="146" spans="1:14" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="7"/>
@@ -3241,7 +2657,7 @@
       <c r="J146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" customHeight="1" spans="1:14">
+    <row r="147" spans="1:14" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="7"/>
@@ -3249,7 +2665,7 @@
       <c r="J147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" customHeight="1" spans="1:14">
+    <row r="148" spans="1:14" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="7"/>
@@ -3257,7 +2673,7 @@
       <c r="J148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" customHeight="1" spans="1:14">
+    <row r="149" spans="1:14" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="7"/>
@@ -3265,7 +2681,7 @@
       <c r="J149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" customHeight="1" spans="1:14">
+    <row r="150" spans="1:14" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="7"/>
@@ -3273,7 +2689,7 @@
       <c r="J150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" customHeight="1" spans="1:14">
+    <row r="151" spans="1:14" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="7"/>
@@ -3281,7 +2697,7 @@
       <c r="J151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" customHeight="1" spans="1:14">
+    <row r="152" spans="1:14" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="7"/>
@@ -3289,7 +2705,7 @@
       <c r="J152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" customHeight="1" spans="1:14">
+    <row r="153" spans="1:14" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="7"/>
@@ -3297,7 +2713,7 @@
       <c r="J153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" customHeight="1" spans="1:14">
+    <row r="154" spans="1:14" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="7"/>
@@ -3305,7 +2721,7 @@
       <c r="J154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" customHeight="1" spans="1:14">
+    <row r="155" spans="1:14" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="7"/>
@@ -3313,7 +2729,7 @@
       <c r="J155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" customHeight="1" spans="1:14">
+    <row r="156" spans="1:14" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="7"/>
@@ -3321,7 +2737,7 @@
       <c r="J156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" customHeight="1" spans="1:14">
+    <row r="157" spans="1:14" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="7"/>
@@ -3329,7 +2745,7 @@
       <c r="J157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" customHeight="1" spans="1:14">
+    <row r="158" spans="1:14" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="7"/>
@@ -3337,7 +2753,7 @@
       <c r="J158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" customHeight="1" spans="1:14">
+    <row r="159" spans="1:14" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="7"/>
@@ -3345,7 +2761,7 @@
       <c r="J159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" customHeight="1" spans="1:14">
+    <row r="160" spans="1:14" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="7"/>
@@ -3353,7 +2769,7 @@
       <c r="J160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" customHeight="1" spans="1:14">
+    <row r="161" spans="1:14" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="7"/>
@@ -3361,7 +2777,7 @@
       <c r="J161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" customHeight="1" spans="1:14">
+    <row r="162" spans="1:14" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="7"/>
@@ -3369,7 +2785,7 @@
       <c r="J162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" customHeight="1" spans="1:14">
+    <row r="163" spans="1:14" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="7"/>
@@ -3377,7 +2793,7 @@
       <c r="J163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" customHeight="1" spans="1:14">
+    <row r="164" spans="1:14" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="7"/>
@@ -3385,7 +2801,7 @@
       <c r="J164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" customHeight="1" spans="1:14">
+    <row r="165" spans="1:14" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="7"/>
@@ -3393,7 +2809,7 @@
       <c r="J165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" customHeight="1" spans="1:14">
+    <row r="166" spans="1:14" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="7"/>
@@ -3401,7 +2817,7 @@
       <c r="J166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" customHeight="1" spans="1:14">
+    <row r="167" spans="1:14" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="7"/>
@@ -3409,7 +2825,7 @@
       <c r="J167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" customHeight="1" spans="1:14">
+    <row r="168" spans="1:14" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="7"/>
@@ -3417,7 +2833,7 @@
       <c r="J168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" customHeight="1" spans="1:14">
+    <row r="169" spans="1:14" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="7"/>
@@ -3425,7 +2841,7 @@
       <c r="J169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" customHeight="1" spans="1:14">
+    <row r="170" spans="1:14" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="7"/>
@@ -3433,7 +2849,7 @@
       <c r="J170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" customHeight="1" spans="1:14">
+    <row r="171" spans="1:14" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="7"/>
@@ -3441,7 +2857,7 @@
       <c r="J171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" customHeight="1" spans="1:14">
+    <row r="172" spans="1:14" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="7"/>
@@ -3449,7 +2865,7 @@
       <c r="J172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" customHeight="1" spans="1:14">
+    <row r="173" spans="1:14" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="7"/>
@@ -3457,7 +2873,7 @@
       <c r="J173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" customHeight="1" spans="1:14">
+    <row r="174" spans="1:14" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="7"/>
@@ -3465,7 +2881,7 @@
       <c r="J174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" customHeight="1" spans="1:14">
+    <row r="175" spans="1:14" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="7"/>
@@ -3473,7 +2889,7 @@
       <c r="J175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" customHeight="1" spans="1:14">
+    <row r="176" spans="1:14" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="7"/>
@@ -3481,7 +2897,7 @@
       <c r="J176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" customHeight="1" spans="1:14">
+    <row r="177" spans="1:14" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="7"/>
@@ -3489,7 +2905,7 @@
       <c r="J177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" customHeight="1" spans="1:14">
+    <row r="178" spans="1:14" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="7"/>
@@ -3497,7 +2913,7 @@
       <c r="J178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" customHeight="1" spans="1:14">
+    <row r="179" spans="1:14" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="7"/>
@@ -3505,7 +2921,7 @@
       <c r="J179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" customHeight="1" spans="1:14">
+    <row r="180" spans="1:14" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="7"/>
@@ -3513,7 +2929,7 @@
       <c r="J180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" customHeight="1" spans="1:14">
+    <row r="181" spans="1:14" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="7"/>
@@ -3521,7 +2937,7 @@
       <c r="J181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" customHeight="1" spans="1:14">
+    <row r="182" spans="1:14" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="7"/>
@@ -3529,7 +2945,7 @@
       <c r="J182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" customHeight="1" spans="1:14">
+    <row r="183" spans="1:14" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="7"/>
@@ -3537,7 +2953,7 @@
       <c r="J183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" customHeight="1" spans="1:14">
+    <row r="184" spans="1:14" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="7"/>
@@ -3545,7 +2961,7 @@
       <c r="J184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" customHeight="1" spans="1:14">
+    <row r="185" spans="1:14" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="7"/>
@@ -3553,7 +2969,7 @@
       <c r="J185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" customHeight="1" spans="1:14">
+    <row r="186" spans="1:14" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="7"/>
@@ -3561,7 +2977,7 @@
       <c r="J186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" customHeight="1" spans="1:14">
+    <row r="187" spans="1:14" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="7"/>
@@ -3569,7 +2985,7 @@
       <c r="J187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" customHeight="1" spans="1:14">
+    <row r="188" spans="1:14" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="7"/>
@@ -3577,7 +2993,7 @@
       <c r="J188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" customHeight="1" spans="1:14">
+    <row r="189" spans="1:14" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="7"/>
@@ -3585,7 +3001,7 @@
       <c r="J189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" customHeight="1" spans="1:14">
+    <row r="190" spans="1:14" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="7"/>
@@ -3593,7 +3009,7 @@
       <c r="J190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" customHeight="1" spans="1:14">
+    <row r="191" spans="1:14" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="7"/>
@@ -3601,7 +3017,7 @@
       <c r="J191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" customHeight="1" spans="1:14">
+    <row r="192" spans="1:14" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="7"/>
@@ -3609,7 +3025,7 @@
       <c r="J192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" customHeight="1" spans="1:14">
+    <row r="193" spans="1:14" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="7"/>
@@ -3617,7 +3033,7 @@
       <c r="J193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" customHeight="1" spans="1:14">
+    <row r="194" spans="1:14" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="7"/>
@@ -3625,7 +3041,7 @@
       <c r="J194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" customHeight="1" spans="1:14">
+    <row r="195" spans="1:14" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="7"/>
@@ -3633,7 +3049,7 @@
       <c r="J195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" customHeight="1" spans="1:14">
+    <row r="196" spans="1:14" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="7"/>
@@ -3641,7 +3057,7 @@
       <c r="J196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" customHeight="1" spans="1:14">
+    <row r="197" spans="1:14" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="7"/>
@@ -3649,7 +3065,7 @@
       <c r="J197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" customHeight="1" spans="1:14">
+    <row r="198" spans="1:14" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="7"/>
@@ -3657,7 +3073,7 @@
       <c r="J198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" customHeight="1" spans="1:14">
+    <row r="199" spans="1:14" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="7"/>
@@ -3665,7 +3081,7 @@
       <c r="J199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" customHeight="1" spans="1:14">
+    <row r="200" spans="1:14" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="7"/>
@@ -3673,7 +3089,7 @@
       <c r="J200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" customHeight="1" spans="1:14">
+    <row r="201" spans="1:14" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="7"/>
@@ -3681,7 +3097,7 @@
       <c r="J201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" customHeight="1" spans="1:14">
+    <row r="202" spans="1:14" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="7"/>
@@ -3689,7 +3105,7 @@
       <c r="J202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" customHeight="1" spans="1:14">
+    <row r="203" spans="1:14" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="7"/>
@@ -3697,7 +3113,7 @@
       <c r="J203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" customHeight="1" spans="1:14">
+    <row r="204" spans="1:14" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="7"/>
@@ -3705,7 +3121,7 @@
       <c r="J204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" customHeight="1" spans="1:14">
+    <row r="205" spans="1:14" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="7"/>
@@ -3713,7 +3129,7 @@
       <c r="J205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" customHeight="1" spans="1:14">
+    <row r="206" spans="1:14" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="7"/>
@@ -3721,7 +3137,7 @@
       <c r="J206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" customHeight="1" spans="1:14">
+    <row r="207" spans="1:14" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="7"/>
@@ -3729,7 +3145,7 @@
       <c r="J207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" customHeight="1" spans="1:14">
+    <row r="208" spans="1:14" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="7"/>
@@ -3737,7 +3153,7 @@
       <c r="J208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" customHeight="1" spans="1:14">
+    <row r="209" spans="1:14" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="7"/>
@@ -3745,7 +3161,7 @@
       <c r="J209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" customHeight="1" spans="1:14">
+    <row r="210" spans="1:14" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="7"/>
@@ -3753,7 +3169,7 @@
       <c r="J210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" customHeight="1" spans="1:14">
+    <row r="211" spans="1:14" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="7"/>
@@ -3761,7 +3177,7 @@
       <c r="J211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" customHeight="1" spans="1:14">
+    <row r="212" spans="1:14" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="7"/>
@@ -3769,7 +3185,7 @@
       <c r="J212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" customHeight="1" spans="1:14">
+    <row r="213" spans="1:14" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="7"/>
@@ -3777,7 +3193,7 @@
       <c r="J213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" customHeight="1" spans="1:14">
+    <row r="214" spans="1:14" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="7"/>
@@ -3785,7 +3201,7 @@
       <c r="J214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" customHeight="1" spans="1:14">
+    <row r="215" spans="1:14" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="7"/>
@@ -3793,7 +3209,7 @@
       <c r="J215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" customHeight="1" spans="1:14">
+    <row r="216" spans="1:14" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="7"/>
@@ -3801,7 +3217,7 @@
       <c r="J216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" customHeight="1" spans="1:14">
+    <row r="217" spans="1:14" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="7"/>
@@ -3809,7 +3225,7 @@
       <c r="J217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" customHeight="1" spans="1:14">
+    <row r="218" spans="1:14" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="7"/>
@@ -3817,7 +3233,7 @@
       <c r="J218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" customHeight="1" spans="1:14">
+    <row r="219" spans="1:14" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="7"/>
@@ -3825,7 +3241,7 @@
       <c r="J219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" customHeight="1" spans="1:14">
+    <row r="220" spans="1:14" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="7"/>
@@ -3833,7 +3249,7 @@
       <c r="J220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" customHeight="1" spans="1:14">
+    <row r="221" spans="1:14" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="7"/>
@@ -3841,7 +3257,7 @@
       <c r="J221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" customHeight="1" spans="1:14">
+    <row r="222" spans="1:14" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="7"/>
@@ -3849,7 +3265,7 @@
       <c r="J222" s="1"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" customHeight="1" spans="1:14">
+    <row r="223" spans="1:14" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="7"/>
@@ -3857,7 +3273,7 @@
       <c r="J223" s="1"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" customHeight="1" spans="1:14">
+    <row r="224" spans="1:14" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="7"/>
@@ -3865,7 +3281,7 @@
       <c r="J224" s="1"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" customHeight="1" spans="1:14">
+    <row r="225" spans="1:14" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="7"/>
@@ -3873,7 +3289,7 @@
       <c r="J225" s="1"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" customHeight="1" spans="1:14">
+    <row r="226" spans="1:14" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="7"/>
@@ -3881,7 +3297,7 @@
       <c r="J226" s="1"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" customHeight="1" spans="1:14">
+    <row r="227" spans="1:14" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="7"/>
@@ -3889,7 +3305,7 @@
       <c r="J227" s="1"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" customHeight="1" spans="1:14">
+    <row r="228" spans="1:14" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="7"/>
@@ -3897,7 +3313,7 @@
       <c r="J228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" customHeight="1" spans="1:14">
+    <row r="229" spans="1:14" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="7"/>
@@ -3905,7 +3321,7 @@
       <c r="J229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" customHeight="1" spans="1:14">
+    <row r="230" spans="1:14" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="7"/>
@@ -3913,7 +3329,7 @@
       <c r="J230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" customHeight="1" spans="1:14">
+    <row r="231" spans="1:14" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="7"/>
@@ -3921,7 +3337,7 @@
       <c r="J231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" customHeight="1" spans="1:14">
+    <row r="232" spans="1:14" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="7"/>
@@ -3929,7 +3345,7 @@
       <c r="J232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" customHeight="1" spans="1:14">
+    <row r="233" spans="1:14" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="7"/>
@@ -3937,7 +3353,7 @@
       <c r="J233" s="1"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" customHeight="1" spans="1:14">
+    <row r="234" spans="1:14" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="7"/>
@@ -3945,7 +3361,7 @@
       <c r="J234" s="1"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" customHeight="1" spans="1:14">
+    <row r="235" spans="1:14" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="7"/>
@@ -3953,7 +3369,7 @@
       <c r="J235" s="1"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" customHeight="1" spans="1:14">
+    <row r="236" spans="1:14" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="7"/>
@@ -3961,7 +3377,7 @@
       <c r="J236" s="1"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" customHeight="1" spans="1:14">
+    <row r="237" spans="1:14" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="7"/>
@@ -3969,7 +3385,7 @@
       <c r="J237" s="1"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" customHeight="1" spans="1:14">
+    <row r="238" spans="1:14" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="7"/>
@@ -3977,7 +3393,7 @@
       <c r="J238" s="1"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" customHeight="1" spans="1:14">
+    <row r="239" spans="1:14" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="7"/>
@@ -3985,7 +3401,7 @@
       <c r="J239" s="1"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" customHeight="1" spans="1:14">
+    <row r="240" spans="1:14" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="7"/>
@@ -3993,7 +3409,7 @@
       <c r="J240" s="1"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" customHeight="1" spans="1:14">
+    <row r="241" spans="1:14" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="7"/>
@@ -4001,7 +3417,7 @@
       <c r="J241" s="1"/>
       <c r="N241" s="1"/>
     </row>
-    <row r="242" customHeight="1" spans="1:14">
+    <row r="242" spans="1:14" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="7"/>
@@ -4009,7 +3425,7 @@
       <c r="J242" s="1"/>
       <c r="N242" s="1"/>
     </row>
-    <row r="243" customHeight="1" spans="1:14">
+    <row r="243" spans="1:14" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="7"/>
@@ -4017,7 +3433,7 @@
       <c r="J243" s="1"/>
       <c r="N243" s="1"/>
     </row>
-    <row r="244" customHeight="1" spans="1:14">
+    <row r="244" spans="1:14" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="7"/>
@@ -4025,7 +3441,7 @@
       <c r="J244" s="1"/>
       <c r="N244" s="1"/>
     </row>
-    <row r="245" customHeight="1" spans="1:14">
+    <row r="245" spans="1:14" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="7"/>
@@ -4033,7 +3449,7 @@
       <c r="J245" s="1"/>
       <c r="N245" s="1"/>
     </row>
-    <row r="246" customHeight="1" spans="1:14">
+    <row r="246" spans="1:14" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="7"/>
@@ -4041,7 +3457,7 @@
       <c r="J246" s="1"/>
       <c r="N246" s="1"/>
     </row>
-    <row r="247" customHeight="1" spans="1:14">
+    <row r="247" spans="1:14" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="7"/>
@@ -4049,7 +3465,7 @@
       <c r="J247" s="1"/>
       <c r="N247" s="1"/>
     </row>
-    <row r="248" customHeight="1" spans="1:14">
+    <row r="248" spans="1:14" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="7"/>
@@ -4057,7 +3473,7 @@
       <c r="J248" s="1"/>
       <c r="N248" s="1"/>
     </row>
-    <row r="249" customHeight="1" spans="1:14">
+    <row r="249" spans="1:14" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="7"/>
@@ -4065,7 +3481,7 @@
       <c r="J249" s="1"/>
       <c r="N249" s="1"/>
     </row>
-    <row r="250" customHeight="1" spans="1:14">
+    <row r="250" spans="1:14" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="7"/>
@@ -4073,7 +3489,7 @@
       <c r="J250" s="1"/>
       <c r="N250" s="1"/>
     </row>
-    <row r="251" customHeight="1" spans="1:14">
+    <row r="251" spans="1:14" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="7"/>
@@ -4081,7 +3497,7 @@
       <c r="J251" s="1"/>
       <c r="N251" s="1"/>
     </row>
-    <row r="252" customHeight="1" spans="1:14">
+    <row r="252" spans="1:14" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="7"/>
@@ -4089,7 +3505,7 @@
       <c r="J252" s="1"/>
       <c r="N252" s="1"/>
     </row>
-    <row r="253" customHeight="1" spans="1:14">
+    <row r="253" spans="1:14" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="7"/>
@@ -4097,7 +3513,7 @@
       <c r="J253" s="1"/>
       <c r="N253" s="1"/>
     </row>
-    <row r="254" customHeight="1" spans="1:14">
+    <row r="254" spans="1:14" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="7"/>
@@ -4105,7 +3521,7 @@
       <c r="J254" s="1"/>
       <c r="N254" s="1"/>
     </row>
-    <row r="255" customHeight="1" spans="1:14">
+    <row r="255" spans="1:14" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="7"/>
@@ -4113,7 +3529,7 @@
       <c r="J255" s="1"/>
       <c r="N255" s="1"/>
     </row>
-    <row r="256" customHeight="1" spans="1:14">
+    <row r="256" spans="1:14" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="7"/>
@@ -4121,7 +3537,7 @@
       <c r="J256" s="1"/>
       <c r="N256" s="1"/>
     </row>
-    <row r="257" customHeight="1" spans="1:14">
+    <row r="257" spans="1:14" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="7"/>
@@ -4129,7 +3545,7 @@
       <c r="J257" s="1"/>
       <c r="N257" s="1"/>
     </row>
-    <row r="258" customHeight="1" spans="1:14">
+    <row r="258" spans="1:14" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="7"/>
@@ -4137,7 +3553,7 @@
       <c r="J258" s="1"/>
       <c r="N258" s="1"/>
     </row>
-    <row r="259" customHeight="1" spans="1:14">
+    <row r="259" spans="1:14" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="7"/>
@@ -4145,7 +3561,7 @@
       <c r="J259" s="1"/>
       <c r="N259" s="1"/>
     </row>
-    <row r="260" customHeight="1" spans="1:14">
+    <row r="260" spans="1:14" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="7"/>
@@ -4153,7 +3569,7 @@
       <c r="J260" s="1"/>
       <c r="N260" s="1"/>
     </row>
-    <row r="261" customHeight="1" spans="1:14">
+    <row r="261" spans="1:14" ht="15.75" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="7"/>
@@ -4161,7 +3577,7 @@
       <c r="J261" s="1"/>
       <c r="N261" s="1"/>
     </row>
-    <row r="262" customHeight="1" spans="1:14">
+    <row r="262" spans="1:14" ht="15.75" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="7"/>
@@ -4169,7 +3585,7 @@
       <c r="J262" s="1"/>
       <c r="N262" s="1"/>
     </row>
-    <row r="263" customHeight="1" spans="1:14">
+    <row r="263" spans="1:14" ht="15.75" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="7"/>
@@ -4177,7 +3593,7 @@
       <c r="J263" s="1"/>
       <c r="N263" s="1"/>
     </row>
-    <row r="264" customHeight="1" spans="1:14">
+    <row r="264" spans="1:14" ht="15.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="7"/>
@@ -4185,7 +3601,7 @@
       <c r="J264" s="1"/>
       <c r="N264" s="1"/>
     </row>
-    <row r="265" customHeight="1" spans="1:14">
+    <row r="265" spans="1:14" ht="15.75" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="7"/>
@@ -4193,7 +3609,7 @@
       <c r="J265" s="1"/>
       <c r="N265" s="1"/>
     </row>
-    <row r="266" customHeight="1" spans="1:14">
+    <row r="266" spans="1:14" ht="15.75" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="7"/>
@@ -4201,7 +3617,7 @@
       <c r="J266" s="1"/>
       <c r="N266" s="1"/>
     </row>
-    <row r="267" customHeight="1" spans="1:14">
+    <row r="267" spans="1:14" ht="15.75" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="7"/>
@@ -4209,7 +3625,7 @@
       <c r="J267" s="1"/>
       <c r="N267" s="1"/>
     </row>
-    <row r="268" customHeight="1" spans="1:14">
+    <row r="268" spans="1:14" ht="15.75" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="7"/>
@@ -4217,7 +3633,7 @@
       <c r="J268" s="1"/>
       <c r="N268" s="1"/>
     </row>
-    <row r="269" customHeight="1" spans="1:14">
+    <row r="269" spans="1:14" ht="15.75" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="7"/>
@@ -4225,7 +3641,7 @@
       <c r="J269" s="1"/>
       <c r="N269" s="1"/>
     </row>
-    <row r="270" customHeight="1" spans="1:14">
+    <row r="270" spans="1:14" ht="15.75" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="7"/>
@@ -4233,7 +3649,7 @@
       <c r="J270" s="1"/>
       <c r="N270" s="1"/>
     </row>
-    <row r="271" customHeight="1" spans="1:14">
+    <row r="271" spans="1:14" ht="15.75" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="7"/>
@@ -4241,7 +3657,7 @@
       <c r="J271" s="1"/>
       <c r="N271" s="1"/>
     </row>
-    <row r="272" customHeight="1" spans="1:14">
+    <row r="272" spans="1:14" ht="15.75" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="7"/>
@@ -4249,7 +3665,7 @@
       <c r="J272" s="1"/>
       <c r="N272" s="1"/>
     </row>
-    <row r="273" customHeight="1" spans="1:14">
+    <row r="273" spans="1:14" ht="15.75" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="7"/>
@@ -4257,7 +3673,7 @@
       <c r="J273" s="1"/>
       <c r="N273" s="1"/>
     </row>
-    <row r="274" customHeight="1" spans="1:14">
+    <row r="274" spans="1:14" ht="15.75" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="7"/>
@@ -4265,7 +3681,7 @@
       <c r="J274" s="1"/>
       <c r="N274" s="1"/>
     </row>
-    <row r="275" customHeight="1" spans="1:14">
+    <row r="275" spans="1:14" ht="15.75" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="7"/>
@@ -4273,7 +3689,7 @@
       <c r="J275" s="1"/>
       <c r="N275" s="1"/>
     </row>
-    <row r="276" customHeight="1" spans="1:14">
+    <row r="276" spans="1:14" ht="15.75" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="7"/>
@@ -4281,7 +3697,7 @@
       <c r="J276" s="1"/>
       <c r="N276" s="1"/>
     </row>
-    <row r="277" customHeight="1" spans="1:14">
+    <row r="277" spans="1:14" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="7"/>
@@ -4289,7 +3705,7 @@
       <c r="J277" s="1"/>
       <c r="N277" s="1"/>
     </row>
-    <row r="278" customHeight="1" spans="1:14">
+    <row r="278" spans="1:14" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="7"/>
@@ -4297,7 +3713,7 @@
       <c r="J278" s="1"/>
       <c r="N278" s="1"/>
     </row>
-    <row r="279" customHeight="1" spans="1:14">
+    <row r="279" spans="1:14" ht="15.75" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="7"/>
@@ -4305,7 +3721,7 @@
       <c r="J279" s="1"/>
       <c r="N279" s="1"/>
     </row>
-    <row r="280" customHeight="1" spans="1:14">
+    <row r="280" spans="1:14" ht="15.75" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="7"/>
@@ -4313,7 +3729,7 @@
       <c r="J280" s="1"/>
       <c r="N280" s="1"/>
     </row>
-    <row r="281" customHeight="1" spans="1:14">
+    <row r="281" spans="1:14" ht="15.75" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="7"/>
@@ -4321,7 +3737,7 @@
       <c r="J281" s="1"/>
       <c r="N281" s="1"/>
     </row>
-    <row r="282" customHeight="1" spans="1:14">
+    <row r="282" spans="1:14" ht="15.75" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="7"/>
@@ -4329,7 +3745,7 @@
       <c r="J282" s="1"/>
       <c r="N282" s="1"/>
     </row>
-    <row r="283" customHeight="1" spans="1:14">
+    <row r="283" spans="1:14" ht="15.75" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="7"/>
@@ -4337,7 +3753,7 @@
       <c r="J283" s="1"/>
       <c r="N283" s="1"/>
     </row>
-    <row r="284" customHeight="1" spans="1:14">
+    <row r="284" spans="1:14" ht="15.75" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="7"/>
@@ -4345,7 +3761,7 @@
       <c r="J284" s="1"/>
       <c r="N284" s="1"/>
     </row>
-    <row r="285" customHeight="1" spans="1:14">
+    <row r="285" spans="1:14" ht="15.75" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="7"/>
@@ -4353,7 +3769,7 @@
       <c r="J285" s="1"/>
       <c r="N285" s="1"/>
     </row>
-    <row r="286" customHeight="1" spans="1:14">
+    <row r="286" spans="1:14" ht="15.75" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="7"/>
@@ -4361,7 +3777,7 @@
       <c r="J286" s="1"/>
       <c r="N286" s="1"/>
     </row>
-    <row r="287" customHeight="1" spans="1:14">
+    <row r="287" spans="1:14" ht="15.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="7"/>
@@ -4369,7 +3785,7 @@
       <c r="J287" s="1"/>
       <c r="N287" s="1"/>
     </row>
-    <row r="288" customHeight="1" spans="1:14">
+    <row r="288" spans="1:14" ht="15.75" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="7"/>
@@ -4377,7 +3793,7 @@
       <c r="J288" s="1"/>
       <c r="N288" s="1"/>
     </row>
-    <row r="289" customHeight="1" spans="1:14">
+    <row r="289" spans="1:14" ht="15.75" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="7"/>
@@ -4385,7 +3801,7 @@
       <c r="J289" s="1"/>
       <c r="N289" s="1"/>
     </row>
-    <row r="290" customHeight="1" spans="1:14">
+    <row r="290" spans="1:14" ht="15.75" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="7"/>
@@ -4393,7 +3809,7 @@
       <c r="J290" s="1"/>
       <c r="N290" s="1"/>
     </row>
-    <row r="291" customHeight="1" spans="1:14">
+    <row r="291" spans="1:14" ht="15.75" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="7"/>
@@ -4401,7 +3817,7 @@
       <c r="J291" s="1"/>
       <c r="N291" s="1"/>
     </row>
-    <row r="292" customHeight="1" spans="1:14">
+    <row r="292" spans="1:14" ht="15.75" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="7"/>
@@ -4409,7 +3825,7 @@
       <c r="J292" s="1"/>
       <c r="N292" s="1"/>
     </row>
-    <row r="293" customHeight="1" spans="1:14">
+    <row r="293" spans="1:14" ht="15.75" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="7"/>
@@ -4417,7 +3833,7 @@
       <c r="J293" s="1"/>
       <c r="N293" s="1"/>
     </row>
-    <row r="294" customHeight="1" spans="1:14">
+    <row r="294" spans="1:14" ht="15.75" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="7"/>
@@ -4425,7 +3841,7 @@
       <c r="J294" s="1"/>
       <c r="N294" s="1"/>
     </row>
-    <row r="295" customHeight="1" spans="1:14">
+    <row r="295" spans="1:14" ht="15.75" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="7"/>
@@ -4433,7 +3849,7 @@
       <c r="J295" s="1"/>
       <c r="N295" s="1"/>
     </row>
-    <row r="296" customHeight="1" spans="1:14">
+    <row r="296" spans="1:14" ht="15.75" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="7"/>
@@ -4441,7 +3857,7 @@
       <c r="J296" s="1"/>
       <c r="N296" s="1"/>
     </row>
-    <row r="297" customHeight="1" spans="1:14">
+    <row r="297" spans="1:14" ht="15.75" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="7"/>
@@ -4449,7 +3865,7 @@
       <c r="J297" s="1"/>
       <c r="N297" s="1"/>
     </row>
-    <row r="298" customHeight="1" spans="1:14">
+    <row r="298" spans="1:14" ht="15.75" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="7"/>
@@ -4457,7 +3873,7 @@
       <c r="J298" s="1"/>
       <c r="N298" s="1"/>
     </row>
-    <row r="299" customHeight="1" spans="1:14">
+    <row r="299" spans="1:14" ht="15.75" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="7"/>
@@ -4465,7 +3881,7 @@
       <c r="J299" s="1"/>
       <c r="N299" s="1"/>
     </row>
-    <row r="300" customHeight="1" spans="1:14">
+    <row r="300" spans="1:14" ht="15.75" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="7"/>
@@ -4473,7 +3889,7 @@
       <c r="J300" s="1"/>
       <c r="N300" s="1"/>
     </row>
-    <row r="301" customHeight="1" spans="1:14">
+    <row r="301" spans="1:14" ht="15.75" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="7"/>
@@ -4481,7 +3897,7 @@
       <c r="J301" s="1"/>
       <c r="N301" s="1"/>
     </row>
-    <row r="302" customHeight="1" spans="1:14">
+    <row r="302" spans="1:14" ht="15.75" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="7"/>
@@ -4489,7 +3905,7 @@
       <c r="J302" s="1"/>
       <c r="N302" s="1"/>
     </row>
-    <row r="303" customHeight="1" spans="1:14">
+    <row r="303" spans="1:14" ht="15.75" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="7"/>
@@ -4497,7 +3913,7 @@
       <c r="J303" s="1"/>
       <c r="N303" s="1"/>
     </row>
-    <row r="304" customHeight="1" spans="1:14">
+    <row r="304" spans="1:14" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="7"/>
@@ -4505,7 +3921,7 @@
       <c r="J304" s="1"/>
       <c r="N304" s="1"/>
     </row>
-    <row r="305" customHeight="1" spans="1:14">
+    <row r="305" spans="1:14" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="7"/>
@@ -4513,7 +3929,7 @@
       <c r="J305" s="1"/>
       <c r="N305" s="1"/>
     </row>
-    <row r="306" customHeight="1" spans="1:14">
+    <row r="306" spans="1:14" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="7"/>
@@ -4521,7 +3937,7 @@
       <c r="J306" s="1"/>
       <c r="N306" s="1"/>
     </row>
-    <row r="307" customHeight="1" spans="1:14">
+    <row r="307" spans="1:14" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="7"/>
@@ -4529,7 +3945,7 @@
       <c r="J307" s="1"/>
       <c r="N307" s="1"/>
     </row>
-    <row r="308" customHeight="1" spans="1:14">
+    <row r="308" spans="1:14" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="7"/>
@@ -4537,7 +3953,7 @@
       <c r="J308" s="1"/>
       <c r="N308" s="1"/>
     </row>
-    <row r="309" customHeight="1" spans="1:14">
+    <row r="309" spans="1:14" ht="15.75" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="7"/>
@@ -4545,7 +3961,7 @@
       <c r="J309" s="1"/>
       <c r="N309" s="1"/>
     </row>
-    <row r="310" customHeight="1" spans="1:14">
+    <row r="310" spans="1:14" ht="15.75" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="7"/>
@@ -4553,7 +3969,7 @@
       <c r="J310" s="1"/>
       <c r="N310" s="1"/>
     </row>
-    <row r="311" customHeight="1" spans="1:14">
+    <row r="311" spans="1:14" ht="15.75" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="7"/>
@@ -4561,7 +3977,7 @@
       <c r="J311" s="1"/>
       <c r="N311" s="1"/>
     </row>
-    <row r="312" customHeight="1" spans="1:14">
+    <row r="312" spans="1:14" ht="15.75" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="7"/>
@@ -4569,7 +3985,7 @@
       <c r="J312" s="1"/>
       <c r="N312" s="1"/>
     </row>
-    <row r="313" customHeight="1" spans="1:14">
+    <row r="313" spans="1:14" ht="15.75" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="7"/>
@@ -4577,7 +3993,7 @@
       <c r="J313" s="1"/>
       <c r="N313" s="1"/>
     </row>
-    <row r="314" customHeight="1" spans="1:14">
+    <row r="314" spans="1:14" ht="15.75" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="7"/>
@@ -4585,7 +4001,7 @@
       <c r="J314" s="1"/>
       <c r="N314" s="1"/>
     </row>
-    <row r="315" customHeight="1" spans="1:14">
+    <row r="315" spans="1:14" ht="15.75" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="7"/>
@@ -4593,7 +4009,7 @@
       <c r="J315" s="1"/>
       <c r="N315" s="1"/>
     </row>
-    <row r="316" customHeight="1" spans="1:14">
+    <row r="316" spans="1:14" ht="15.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="7"/>
@@ -4601,7 +4017,7 @@
       <c r="J316" s="1"/>
       <c r="N316" s="1"/>
     </row>
-    <row r="317" customHeight="1" spans="1:14">
+    <row r="317" spans="1:14" ht="15.75" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="7"/>
@@ -4609,7 +4025,7 @@
       <c r="J317" s="1"/>
       <c r="N317" s="1"/>
     </row>
-    <row r="318" customHeight="1" spans="1:14">
+    <row r="318" spans="1:14" ht="15.75" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="7"/>
@@ -4617,7 +4033,7 @@
       <c r="J318" s="1"/>
       <c r="N318" s="1"/>
     </row>
-    <row r="319" customHeight="1" spans="1:14">
+    <row r="319" spans="1:14" ht="15.75" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="7"/>
@@ -4625,7 +4041,7 @@
       <c r="J319" s="1"/>
       <c r="N319" s="1"/>
     </row>
-    <row r="320" customHeight="1" spans="1:14">
+    <row r="320" spans="1:14" ht="15.75" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="7"/>
@@ -4633,7 +4049,7 @@
       <c r="J320" s="1"/>
       <c r="N320" s="1"/>
     </row>
-    <row r="321" customHeight="1" spans="1:14">
+    <row r="321" spans="1:14" ht="15.75" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="7"/>
@@ -4641,7 +4057,7 @@
       <c r="J321" s="1"/>
       <c r="N321" s="1"/>
     </row>
-    <row r="322" customHeight="1" spans="1:14">
+    <row r="322" spans="1:14" ht="15.75" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="7"/>
@@ -4649,7 +4065,7 @@
       <c r="J322" s="1"/>
       <c r="N322" s="1"/>
     </row>
-    <row r="323" customHeight="1" spans="1:14">
+    <row r="323" spans="1:14" ht="15.75" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="7"/>
@@ -4657,7 +4073,7 @@
       <c r="J323" s="1"/>
       <c r="N323" s="1"/>
     </row>
-    <row r="324" customHeight="1" spans="1:14">
+    <row r="324" spans="1:14" ht="15.75" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="7"/>
@@ -4665,7 +4081,7 @@
       <c r="J324" s="1"/>
       <c r="N324" s="1"/>
     </row>
-    <row r="325" customHeight="1" spans="1:14">
+    <row r="325" spans="1:14" ht="15.75" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="7"/>
@@ -4673,7 +4089,7 @@
       <c r="J325" s="1"/>
       <c r="N325" s="1"/>
     </row>
-    <row r="326" customHeight="1" spans="1:14">
+    <row r="326" spans="1:14" ht="15.75" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="7"/>
@@ -4681,7 +4097,7 @@
       <c r="J326" s="1"/>
       <c r="N326" s="1"/>
     </row>
-    <row r="327" customHeight="1" spans="1:14">
+    <row r="327" spans="1:14" ht="15.75" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="7"/>
@@ -4689,7 +4105,7 @@
       <c r="J327" s="1"/>
       <c r="N327" s="1"/>
     </row>
-    <row r="328" customHeight="1" spans="1:14">
+    <row r="328" spans="1:14" ht="15.75" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="7"/>
@@ -4697,7 +4113,7 @@
       <c r="J328" s="1"/>
       <c r="N328" s="1"/>
     </row>
-    <row r="329" customHeight="1" spans="1:14">
+    <row r="329" spans="1:14" ht="15.75" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="7"/>
@@ -4705,7 +4121,7 @@
       <c r="J329" s="1"/>
       <c r="N329" s="1"/>
     </row>
-    <row r="330" customHeight="1" spans="1:14">
+    <row r="330" spans="1:14" ht="15.75" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="7"/>
@@ -4713,7 +4129,7 @@
       <c r="J330" s="1"/>
       <c r="N330" s="1"/>
     </row>
-    <row r="331" customHeight="1" spans="1:14">
+    <row r="331" spans="1:14" ht="15.75" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="7"/>
@@ -4721,7 +4137,7 @@
       <c r="J331" s="1"/>
       <c r="N331" s="1"/>
     </row>
-    <row r="332" customHeight="1" spans="1:14">
+    <row r="332" spans="1:14" ht="15.75" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="7"/>
@@ -4729,7 +4145,7 @@
       <c r="J332" s="1"/>
       <c r="N332" s="1"/>
     </row>
-    <row r="333" customHeight="1" spans="1:14">
+    <row r="333" spans="1:14" ht="15.75" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="7"/>
@@ -4737,7 +4153,7 @@
       <c r="J333" s="1"/>
       <c r="N333" s="1"/>
     </row>
-    <row r="334" customHeight="1" spans="1:14">
+    <row r="334" spans="1:14" ht="15.75" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="7"/>
@@ -4745,7 +4161,7 @@
       <c r="J334" s="1"/>
       <c r="N334" s="1"/>
     </row>
-    <row r="335" customHeight="1" spans="1:14">
+    <row r="335" spans="1:14" ht="15.75" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="7"/>
@@ -4753,7 +4169,7 @@
       <c r="J335" s="1"/>
       <c r="N335" s="1"/>
     </row>
-    <row r="336" customHeight="1" spans="1:14">
+    <row r="336" spans="1:14" ht="15.75" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="7"/>
@@ -4761,7 +4177,7 @@
       <c r="J336" s="1"/>
       <c r="N336" s="1"/>
     </row>
-    <row r="337" customHeight="1" spans="1:14">
+    <row r="337" spans="1:14" ht="15.75" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="7"/>
@@ -4769,7 +4185,7 @@
       <c r="J337" s="1"/>
       <c r="N337" s="1"/>
     </row>
-    <row r="338" customHeight="1" spans="1:14">
+    <row r="338" spans="1:14" ht="15.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="7"/>
@@ -4777,7 +4193,7 @@
       <c r="J338" s="1"/>
       <c r="N338" s="1"/>
     </row>
-    <row r="339" customHeight="1" spans="1:14">
+    <row r="339" spans="1:14" ht="15.75" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="7"/>
@@ -4785,7 +4201,7 @@
       <c r="J339" s="1"/>
       <c r="N339" s="1"/>
     </row>
-    <row r="340" customHeight="1" spans="1:14">
+    <row r="340" spans="1:14" ht="15.75" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="7"/>
@@ -4793,7 +4209,7 @@
       <c r="J340" s="1"/>
       <c r="N340" s="1"/>
     </row>
-    <row r="341" customHeight="1" spans="1:14">
+    <row r="341" spans="1:14" ht="15.75" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="7"/>
@@ -4801,7 +4217,7 @@
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
     </row>
-    <row r="342" customHeight="1" spans="1:14">
+    <row r="342" spans="1:14" ht="15.75" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="7"/>
@@ -4809,7 +4225,7 @@
       <c r="J342" s="1"/>
       <c r="N342" s="1"/>
     </row>
-    <row r="343" customHeight="1" spans="1:14">
+    <row r="343" spans="1:14" ht="15.75" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="7"/>
@@ -4817,7 +4233,7 @@
       <c r="J343" s="1"/>
       <c r="N343" s="1"/>
     </row>
-    <row r="344" customHeight="1" spans="1:14">
+    <row r="344" spans="1:14" ht="15.75" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="7"/>
@@ -4825,7 +4241,7 @@
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
     </row>
-    <row r="345" customHeight="1" spans="1:14">
+    <row r="345" spans="1:14" ht="15.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="7"/>
@@ -4833,7 +4249,7 @@
       <c r="J345" s="1"/>
       <c r="N345" s="1"/>
     </row>
-    <row r="346" customHeight="1" spans="1:14">
+    <row r="346" spans="1:14" ht="15.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="7"/>
@@ -4841,7 +4257,7 @@
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
     </row>
-    <row r="347" customHeight="1" spans="1:14">
+    <row r="347" spans="1:14" ht="15.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="7"/>
@@ -4849,7 +4265,7 @@
       <c r="J347" s="1"/>
       <c r="N347" s="1"/>
     </row>
-    <row r="348" customHeight="1" spans="1:14">
+    <row r="348" spans="1:14" ht="15.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="7"/>
@@ -4857,7 +4273,7 @@
       <c r="J348" s="1"/>
       <c r="N348" s="1"/>
     </row>
-    <row r="349" customHeight="1" spans="1:14">
+    <row r="349" spans="1:14" ht="15.75" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="7"/>
@@ -4865,7 +4281,7 @@
       <c r="J349" s="1"/>
       <c r="N349" s="1"/>
     </row>
-    <row r="350" customHeight="1" spans="1:14">
+    <row r="350" spans="1:14" ht="15.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="7"/>
@@ -4873,7 +4289,7 @@
       <c r="J350" s="1"/>
       <c r="N350" s="1"/>
     </row>
-    <row r="351" customHeight="1" spans="1:14">
+    <row r="351" spans="1:14" ht="15.75" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="7"/>
@@ -4881,7 +4297,7 @@
       <c r="J351" s="1"/>
       <c r="N351" s="1"/>
     </row>
-    <row r="352" customHeight="1" spans="1:14">
+    <row r="352" spans="1:14" ht="15.75" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="7"/>
@@ -4889,7 +4305,7 @@
       <c r="J352" s="1"/>
       <c r="N352" s="1"/>
     </row>
-    <row r="353" customHeight="1" spans="1:14">
+    <row r="353" spans="1:14" ht="15.75" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="7"/>
@@ -4897,7 +4313,7 @@
       <c r="J353" s="1"/>
       <c r="N353" s="1"/>
     </row>
-    <row r="354" customHeight="1" spans="1:14">
+    <row r="354" spans="1:14" ht="15.75" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="7"/>
@@ -4905,7 +4321,7 @@
       <c r="J354" s="1"/>
       <c r="N354" s="1"/>
     </row>
-    <row r="355" customHeight="1" spans="1:14">
+    <row r="355" spans="1:14" ht="15.75" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="7"/>
@@ -4913,7 +4329,7 @@
       <c r="J355" s="1"/>
       <c r="N355" s="1"/>
     </row>
-    <row r="356" customHeight="1" spans="1:14">
+    <row r="356" spans="1:14" ht="15.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="7"/>
@@ -4921,7 +4337,7 @@
       <c r="J356" s="1"/>
       <c r="N356" s="1"/>
     </row>
-    <row r="357" customHeight="1" spans="1:14">
+    <row r="357" spans="1:14" ht="15.75" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="7"/>
@@ -4929,7 +4345,7 @@
       <c r="J357" s="1"/>
       <c r="N357" s="1"/>
     </row>
-    <row r="358" customHeight="1" spans="1:14">
+    <row r="358" spans="1:14" ht="15.75" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="7"/>
@@ -4937,7 +4353,7 @@
       <c r="J358" s="1"/>
       <c r="N358" s="1"/>
     </row>
-    <row r="359" customHeight="1" spans="1:14">
+    <row r="359" spans="1:14" ht="15.75" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="7"/>
@@ -4945,7 +4361,7 @@
       <c r="J359" s="1"/>
       <c r="N359" s="1"/>
     </row>
-    <row r="360" customHeight="1" spans="1:14">
+    <row r="360" spans="1:14" ht="15.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="7"/>
@@ -4953,7 +4369,7 @@
       <c r="J360" s="1"/>
       <c r="N360" s="1"/>
     </row>
-    <row r="361" customHeight="1" spans="1:14">
+    <row r="361" spans="1:14" ht="15.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="7"/>
@@ -4961,7 +4377,7 @@
       <c r="J361" s="1"/>
       <c r="N361" s="1"/>
     </row>
-    <row r="362" customHeight="1" spans="1:14">
+    <row r="362" spans="1:14" ht="15.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="7"/>
@@ -4969,7 +4385,7 @@
       <c r="J362" s="1"/>
       <c r="N362" s="1"/>
     </row>
-    <row r="363" customHeight="1" spans="1:14">
+    <row r="363" spans="1:14" ht="15.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="7"/>
@@ -4977,7 +4393,7 @@
       <c r="J363" s="1"/>
       <c r="N363" s="1"/>
     </row>
-    <row r="364" customHeight="1" spans="1:14">
+    <row r="364" spans="1:14" ht="15.75" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="7"/>
@@ -4985,7 +4401,7 @@
       <c r="J364" s="1"/>
       <c r="N364" s="1"/>
     </row>
-    <row r="365" customHeight="1" spans="1:14">
+    <row r="365" spans="1:14" ht="15.75" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="7"/>
@@ -4993,7 +4409,7 @@
       <c r="J365" s="1"/>
       <c r="N365" s="1"/>
     </row>
-    <row r="366" customHeight="1" spans="1:14">
+    <row r="366" spans="1:14" ht="15.75" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="7"/>
@@ -5001,7 +4417,7 @@
       <c r="J366" s="1"/>
       <c r="N366" s="1"/>
     </row>
-    <row r="367" customHeight="1" spans="1:14">
+    <row r="367" spans="1:14" ht="15.75" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="7"/>
@@ -5009,7 +4425,7 @@
       <c r="J367" s="1"/>
       <c r="N367" s="1"/>
     </row>
-    <row r="368" customHeight="1" spans="1:14">
+    <row r="368" spans="1:14" ht="15.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="7"/>
@@ -5017,7 +4433,7 @@
       <c r="J368" s="1"/>
       <c r="N368" s="1"/>
     </row>
-    <row r="369" customHeight="1" spans="1:14">
+    <row r="369" spans="1:14" ht="15.75" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="7"/>
@@ -5025,7 +4441,7 @@
       <c r="J369" s="1"/>
       <c r="N369" s="1"/>
     </row>
-    <row r="370" customHeight="1" spans="1:14">
+    <row r="370" spans="1:14" ht="15.75" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="7"/>
@@ -5033,7 +4449,7 @@
       <c r="J370" s="1"/>
       <c r="N370" s="1"/>
     </row>
-    <row r="371" customHeight="1" spans="1:14">
+    <row r="371" spans="1:14" ht="15.75" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="7"/>
@@ -5041,7 +4457,7 @@
       <c r="J371" s="1"/>
       <c r="N371" s="1"/>
     </row>
-    <row r="372" customHeight="1" spans="1:14">
+    <row r="372" spans="1:14" ht="15.75" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="7"/>
@@ -5049,7 +4465,7 @@
       <c r="J372" s="1"/>
       <c r="N372" s="1"/>
     </row>
-    <row r="373" customHeight="1" spans="1:14">
+    <row r="373" spans="1:14" ht="15.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="7"/>
@@ -5057,7 +4473,7 @@
       <c r="J373" s="1"/>
       <c r="N373" s="1"/>
     </row>
-    <row r="374" customHeight="1" spans="1:14">
+    <row r="374" spans="1:14" ht="15.75" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="7"/>
@@ -5065,7 +4481,7 @@
       <c r="J374" s="1"/>
       <c r="N374" s="1"/>
     </row>
-    <row r="375" customHeight="1" spans="1:14">
+    <row r="375" spans="1:14" ht="15.75" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="7"/>
@@ -5073,7 +4489,7 @@
       <c r="J375" s="1"/>
       <c r="N375" s="1"/>
     </row>
-    <row r="376" customHeight="1" spans="1:14">
+    <row r="376" spans="1:14" ht="15.75" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="7"/>
@@ -5081,7 +4497,7 @@
       <c r="J376" s="1"/>
       <c r="N376" s="1"/>
     </row>
-    <row r="377" customHeight="1" spans="1:14">
+    <row r="377" spans="1:14" ht="15.75" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="7"/>
@@ -5089,7 +4505,7 @@
       <c r="J377" s="1"/>
       <c r="N377" s="1"/>
     </row>
-    <row r="378" customHeight="1" spans="1:14">
+    <row r="378" spans="1:14" ht="15.75" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="7"/>
@@ -5097,7 +4513,7 @@
       <c r="J378" s="1"/>
       <c r="N378" s="1"/>
     </row>
-    <row r="379" customHeight="1" spans="1:14">
+    <row r="379" spans="1:14" ht="15.75" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="7"/>
@@ -5105,7 +4521,7 @@
       <c r="J379" s="1"/>
       <c r="N379" s="1"/>
     </row>
-    <row r="380" customHeight="1" spans="1:14">
+    <row r="380" spans="1:14" ht="15.75" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="7"/>
@@ -5113,7 +4529,7 @@
       <c r="J380" s="1"/>
       <c r="N380" s="1"/>
     </row>
-    <row r="381" customHeight="1" spans="1:14">
+    <row r="381" spans="1:14" ht="15.75" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="7"/>
@@ -5121,7 +4537,7 @@
       <c r="J381" s="1"/>
       <c r="N381" s="1"/>
     </row>
-    <row r="382" customHeight="1" spans="1:14">
+    <row r="382" spans="1:14" ht="15.75" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="7"/>
@@ -5129,7 +4545,7 @@
       <c r="J382" s="1"/>
       <c r="N382" s="1"/>
     </row>
-    <row r="383" customHeight="1" spans="1:14">
+    <row r="383" spans="1:14" ht="15.75" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="7"/>
@@ -5137,7 +4553,7 @@
       <c r="J383" s="1"/>
       <c r="N383" s="1"/>
     </row>
-    <row r="384" customHeight="1" spans="1:14">
+    <row r="384" spans="1:14" ht="15.75" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="7"/>
@@ -5145,7 +4561,7 @@
       <c r="J384" s="1"/>
       <c r="N384" s="1"/>
     </row>
-    <row r="385" customHeight="1" spans="1:14">
+    <row r="385" spans="1:14" ht="15.75" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="7"/>
@@ -5153,7 +4569,7 @@
       <c r="J385" s="1"/>
       <c r="N385" s="1"/>
     </row>
-    <row r="386" customHeight="1" spans="1:14">
+    <row r="386" spans="1:14" ht="15.75" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="7"/>
@@ -5161,7 +4577,7 @@
       <c r="J386" s="1"/>
       <c r="N386" s="1"/>
     </row>
-    <row r="387" customHeight="1" spans="1:14">
+    <row r="387" spans="1:14" ht="15.75" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="7"/>
@@ -5169,7 +4585,7 @@
       <c r="J387" s="1"/>
       <c r="N387" s="1"/>
     </row>
-    <row r="388" customHeight="1" spans="1:14">
+    <row r="388" spans="1:14" ht="15.75" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="7"/>
@@ -5177,7 +4593,7 @@
       <c r="J388" s="1"/>
       <c r="N388" s="1"/>
     </row>
-    <row r="389" customHeight="1" spans="1:14">
+    <row r="389" spans="1:14" ht="15.75" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="7"/>
@@ -5185,7 +4601,7 @@
       <c r="J389" s="1"/>
       <c r="N389" s="1"/>
     </row>
-    <row r="390" customHeight="1" spans="1:14">
+    <row r="390" spans="1:14" ht="15.75" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="7"/>
@@ -5193,7 +4609,7 @@
       <c r="J390" s="1"/>
       <c r="N390" s="1"/>
     </row>
-    <row r="391" customHeight="1" spans="1:14">
+    <row r="391" spans="1:14" ht="15.75" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="7"/>
@@ -5201,7 +4617,7 @@
       <c r="J391" s="1"/>
       <c r="N391" s="1"/>
     </row>
-    <row r="392" customHeight="1" spans="1:14">
+    <row r="392" spans="1:14" ht="15.75" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="7"/>
@@ -5209,7 +4625,7 @@
       <c r="J392" s="1"/>
       <c r="N392" s="1"/>
     </row>
-    <row r="393" customHeight="1" spans="1:14">
+    <row r="393" spans="1:14" ht="15.75" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="7"/>
@@ -5217,7 +4633,7 @@
       <c r="J393" s="1"/>
       <c r="N393" s="1"/>
     </row>
-    <row r="394" customHeight="1" spans="1:14">
+    <row r="394" spans="1:14" ht="15.75" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="7"/>
@@ -5225,7 +4641,7 @@
       <c r="J394" s="1"/>
       <c r="N394" s="1"/>
     </row>
-    <row r="395" customHeight="1" spans="1:14">
+    <row r="395" spans="1:14" ht="15.75" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="7"/>
@@ -5233,7 +4649,7 @@
       <c r="J395" s="1"/>
       <c r="N395" s="1"/>
     </row>
-    <row r="396" customHeight="1" spans="1:14">
+    <row r="396" spans="1:14" ht="15.75" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="7"/>
@@ -5241,7 +4657,7 @@
       <c r="J396" s="1"/>
       <c r="N396" s="1"/>
     </row>
-    <row r="397" customHeight="1" spans="1:14">
+    <row r="397" spans="1:14" ht="15.75" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="7"/>
@@ -5249,7 +4665,7 @@
       <c r="J397" s="1"/>
       <c r="N397" s="1"/>
     </row>
-    <row r="398" customHeight="1" spans="1:14">
+    <row r="398" spans="1:14" ht="15.75" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="7"/>
@@ -5257,7 +4673,7 @@
       <c r="J398" s="1"/>
       <c r="N398" s="1"/>
     </row>
-    <row r="399" customHeight="1" spans="1:14">
+    <row r="399" spans="1:14" ht="15.75" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="7"/>
@@ -5265,7 +4681,7 @@
       <c r="J399" s="1"/>
       <c r="N399" s="1"/>
     </row>
-    <row r="400" customHeight="1" spans="1:14">
+    <row r="400" spans="1:14" ht="15.75" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="7"/>
@@ -5273,7 +4689,7 @@
       <c r="J400" s="1"/>
       <c r="N400" s="1"/>
     </row>
-    <row r="401" customHeight="1" spans="1:14">
+    <row r="401" spans="1:14" ht="15.75" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="7"/>
@@ -5281,7 +4697,7 @@
       <c r="J401" s="1"/>
       <c r="N401" s="1"/>
     </row>
-    <row r="402" customHeight="1" spans="1:14">
+    <row r="402" spans="1:14" ht="15.75" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="7"/>
@@ -5289,7 +4705,7 @@
       <c r="J402" s="1"/>
       <c r="N402" s="1"/>
     </row>
-    <row r="403" customHeight="1" spans="1:14">
+    <row r="403" spans="1:14" ht="15.75" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="7"/>
@@ -5297,7 +4713,7 @@
       <c r="J403" s="1"/>
       <c r="N403" s="1"/>
     </row>
-    <row r="404" customHeight="1" spans="1:14">
+    <row r="404" spans="1:14" ht="15.75" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="7"/>
@@ -5305,7 +4721,7 @@
       <c r="J404" s="1"/>
       <c r="N404" s="1"/>
     </row>
-    <row r="405" customHeight="1" spans="1:14">
+    <row r="405" spans="1:14" ht="15.75" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="7"/>
@@ -5313,7 +4729,7 @@
       <c r="J405" s="1"/>
       <c r="N405" s="1"/>
     </row>
-    <row r="406" customHeight="1" spans="1:14">
+    <row r="406" spans="1:14" ht="15.75" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="7"/>
@@ -5321,7 +4737,7 @@
       <c r="J406" s="1"/>
       <c r="N406" s="1"/>
     </row>
-    <row r="407" customHeight="1" spans="1:14">
+    <row r="407" spans="1:14" ht="15.75" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="7"/>
@@ -5329,7 +4745,7 @@
       <c r="J407" s="1"/>
       <c r="N407" s="1"/>
     </row>
-    <row r="408" customHeight="1" spans="1:14">
+    <row r="408" spans="1:14" ht="15.75" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="7"/>
@@ -5337,7 +4753,7 @@
       <c r="J408" s="1"/>
       <c r="N408" s="1"/>
     </row>
-    <row r="409" customHeight="1" spans="1:14">
+    <row r="409" spans="1:14" ht="15.75" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="7"/>
@@ -5345,7 +4761,7 @@
       <c r="J409" s="1"/>
       <c r="N409" s="1"/>
     </row>
-    <row r="410" customHeight="1" spans="1:14">
+    <row r="410" spans="1:14" ht="15.75" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="7"/>
@@ -5353,7 +4769,7 @@
       <c r="J410" s="1"/>
       <c r="N410" s="1"/>
     </row>
-    <row r="411" customHeight="1" spans="1:14">
+    <row r="411" spans="1:14" ht="15.75" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="7"/>
@@ -5361,7 +4777,7 @@
       <c r="J411" s="1"/>
       <c r="N411" s="1"/>
     </row>
-    <row r="412" customHeight="1" spans="1:14">
+    <row r="412" spans="1:14" ht="15.75" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="7"/>
@@ -5369,7 +4785,7 @@
       <c r="J412" s="1"/>
       <c r="N412" s="1"/>
     </row>
-    <row r="413" customHeight="1" spans="1:14">
+    <row r="413" spans="1:14" ht="15.75" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="7"/>
@@ -5377,7 +4793,7 @@
       <c r="J413" s="1"/>
       <c r="N413" s="1"/>
     </row>
-    <row r="414" customHeight="1" spans="1:14">
+    <row r="414" spans="1:14" ht="15.75" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="7"/>
@@ -5385,7 +4801,7 @@
       <c r="J414" s="1"/>
       <c r="N414" s="1"/>
     </row>
-    <row r="415" customHeight="1" spans="1:14">
+    <row r="415" spans="1:14" ht="15.75" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="7"/>
@@ -5393,7 +4809,7 @@
       <c r="J415" s="1"/>
       <c r="N415" s="1"/>
     </row>
-    <row r="416" customHeight="1" spans="1:14">
+    <row r="416" spans="1:14" ht="15.75" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="7"/>
@@ -5401,7 +4817,7 @@
       <c r="J416" s="1"/>
       <c r="N416" s="1"/>
     </row>
-    <row r="417" customHeight="1" spans="1:14">
+    <row r="417" spans="1:14" ht="15.75" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="7"/>
@@ -5409,7 +4825,7 @@
       <c r="J417" s="1"/>
       <c r="N417" s="1"/>
     </row>
-    <row r="418" customHeight="1" spans="1:14">
+    <row r="418" spans="1:14" ht="15.75" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="7"/>
@@ -5417,7 +4833,7 @@
       <c r="J418" s="1"/>
       <c r="N418" s="1"/>
     </row>
-    <row r="419" customHeight="1" spans="1:14">
+    <row r="419" spans="1:14" ht="15.75" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="7"/>
@@ -5425,7 +4841,7 @@
       <c r="J419" s="1"/>
       <c r="N419" s="1"/>
     </row>
-    <row r="420" customHeight="1" spans="1:14">
+    <row r="420" spans="1:14" ht="15.75" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="7"/>
@@ -5433,7 +4849,7 @@
       <c r="J420" s="1"/>
       <c r="N420" s="1"/>
     </row>
-    <row r="421" customHeight="1" spans="1:14">
+    <row r="421" spans="1:14" ht="15.75" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="7"/>
@@ -5441,7 +4857,7 @@
       <c r="J421" s="1"/>
       <c r="N421" s="1"/>
     </row>
-    <row r="422" customHeight="1" spans="1:14">
+    <row r="422" spans="1:14" ht="15.75" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="7"/>
@@ -5449,7 +4865,7 @@
       <c r="J422" s="1"/>
       <c r="N422" s="1"/>
     </row>
-    <row r="423" customHeight="1" spans="1:14">
+    <row r="423" spans="1:14" ht="15.75" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="7"/>
@@ -5457,7 +4873,7 @@
       <c r="J423" s="1"/>
       <c r="N423" s="1"/>
     </row>
-    <row r="424" customHeight="1" spans="1:14">
+    <row r="424" spans="1:14" ht="15.75" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="7"/>
@@ -5465,7 +4881,7 @@
       <c r="J424" s="1"/>
       <c r="N424" s="1"/>
     </row>
-    <row r="425" customHeight="1" spans="1:14">
+    <row r="425" spans="1:14" ht="15.75" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="7"/>
@@ -5473,7 +4889,7 @@
       <c r="J425" s="1"/>
       <c r="N425" s="1"/>
     </row>
-    <row r="426" customHeight="1" spans="1:14">
+    <row r="426" spans="1:14" ht="15.75" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="7"/>
@@ -5481,7 +4897,7 @@
       <c r="J426" s="1"/>
       <c r="N426" s="1"/>
     </row>
-    <row r="427" customHeight="1" spans="1:14">
+    <row r="427" spans="1:14" ht="15.75" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="7"/>
@@ -5489,7 +4905,7 @@
       <c r="J427" s="1"/>
       <c r="N427" s="1"/>
     </row>
-    <row r="428" customHeight="1" spans="1:14">
+    <row r="428" spans="1:14" ht="15.75" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="7"/>
@@ -5497,7 +4913,7 @@
       <c r="J428" s="1"/>
       <c r="N428" s="1"/>
     </row>
-    <row r="429" customHeight="1" spans="1:14">
+    <row r="429" spans="1:14" ht="15.75" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="7"/>
@@ -5505,7 +4921,7 @@
       <c r="J429" s="1"/>
       <c r="N429" s="1"/>
     </row>
-    <row r="430" customHeight="1" spans="1:14">
+    <row r="430" spans="1:14" ht="15.75" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="7"/>
@@ -5513,7 +4929,7 @@
       <c r="J430" s="1"/>
       <c r="N430" s="1"/>
     </row>
-    <row r="431" customHeight="1" spans="1:14">
+    <row r="431" spans="1:14" ht="15.75" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="7"/>
@@ -5521,7 +4937,7 @@
       <c r="J431" s="1"/>
       <c r="N431" s="1"/>
     </row>
-    <row r="432" customHeight="1" spans="1:14">
+    <row r="432" spans="1:14" ht="15.75" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="7"/>
@@ -5529,7 +4945,7 @@
       <c r="J432" s="1"/>
       <c r="N432" s="1"/>
     </row>
-    <row r="433" customHeight="1" spans="1:14">
+    <row r="433" spans="1:14" ht="15.75" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="7"/>
@@ -5537,7 +4953,7 @@
       <c r="J433" s="1"/>
       <c r="N433" s="1"/>
     </row>
-    <row r="434" customHeight="1" spans="1:14">
+    <row r="434" spans="1:14" ht="15.75" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="7"/>
@@ -5545,7 +4961,7 @@
       <c r="J434" s="1"/>
       <c r="N434" s="1"/>
     </row>
-    <row r="435" customHeight="1" spans="1:14">
+    <row r="435" spans="1:14" ht="15.75" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="7"/>
@@ -5553,7 +4969,7 @@
       <c r="J435" s="1"/>
       <c r="N435" s="1"/>
     </row>
-    <row r="436" customHeight="1" spans="1:14">
+    <row r="436" spans="1:14" ht="15.75" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="7"/>
@@ -5561,7 +4977,7 @@
       <c r="J436" s="1"/>
       <c r="N436" s="1"/>
     </row>
-    <row r="437" customHeight="1" spans="1:14">
+    <row r="437" spans="1:14" ht="15.75" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="7"/>
@@ -5569,7 +4985,7 @@
       <c r="J437" s="1"/>
       <c r="N437" s="1"/>
     </row>
-    <row r="438" customHeight="1" spans="1:14">
+    <row r="438" spans="1:14" ht="15.75" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="7"/>
@@ -5577,7 +4993,7 @@
       <c r="J438" s="1"/>
       <c r="N438" s="1"/>
     </row>
-    <row r="439" customHeight="1" spans="1:14">
+    <row r="439" spans="1:14" ht="15.75" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="7"/>
@@ -5585,7 +5001,7 @@
       <c r="J439" s="1"/>
       <c r="N439" s="1"/>
     </row>
-    <row r="440" customHeight="1" spans="1:14">
+    <row r="440" spans="1:14" ht="15.75" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="7"/>
@@ -5593,7 +5009,7 @@
       <c r="J440" s="1"/>
       <c r="N440" s="1"/>
     </row>
-    <row r="441" customHeight="1" spans="1:14">
+    <row r="441" spans="1:14" ht="15.75" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="7"/>
@@ -5601,7 +5017,7 @@
       <c r="J441" s="1"/>
       <c r="N441" s="1"/>
     </row>
-    <row r="442" customHeight="1" spans="1:14">
+    <row r="442" spans="1:14" ht="15.75" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="7"/>
@@ -5609,7 +5025,7 @@
       <c r="J442" s="1"/>
       <c r="N442" s="1"/>
     </row>
-    <row r="443" customHeight="1" spans="1:14">
+    <row r="443" spans="1:14" ht="15.75" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="7"/>
@@ -5617,7 +5033,7 @@
       <c r="J443" s="1"/>
       <c r="N443" s="1"/>
     </row>
-    <row r="444" customHeight="1" spans="1:14">
+    <row r="444" spans="1:14" ht="15.75" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="7"/>
@@ -5625,7 +5041,7 @@
       <c r="J444" s="1"/>
       <c r="N444" s="1"/>
     </row>
-    <row r="445" customHeight="1" spans="1:14">
+    <row r="445" spans="1:14" ht="15.75" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="7"/>
@@ -5633,7 +5049,7 @@
       <c r="J445" s="1"/>
       <c r="N445" s="1"/>
     </row>
-    <row r="446" customHeight="1" spans="1:14">
+    <row r="446" spans="1:14" ht="15.75" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="7"/>
@@ -5641,7 +5057,7 @@
       <c r="J446" s="1"/>
       <c r="N446" s="1"/>
     </row>
-    <row r="447" customHeight="1" spans="1:14">
+    <row r="447" spans="1:14" ht="15.75" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="7"/>
@@ -5649,7 +5065,7 @@
       <c r="J447" s="1"/>
       <c r="N447" s="1"/>
     </row>
-    <row r="448" customHeight="1" spans="1:14">
+    <row r="448" spans="1:14" ht="15.75" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="7"/>
@@ -5657,7 +5073,7 @@
       <c r="J448" s="1"/>
       <c r="N448" s="1"/>
     </row>
-    <row r="449" customHeight="1" spans="1:14">
+    <row r="449" spans="1:14" ht="15.75" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="7"/>
@@ -5665,7 +5081,7 @@
       <c r="J449" s="1"/>
       <c r="N449" s="1"/>
     </row>
-    <row r="450" customHeight="1" spans="1:14">
+    <row r="450" spans="1:14" ht="15.75" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="7"/>
@@ -5673,7 +5089,7 @@
       <c r="J450" s="1"/>
       <c r="N450" s="1"/>
     </row>
-    <row r="451" customHeight="1" spans="1:14">
+    <row r="451" spans="1:14" ht="15.75" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="7"/>
@@ -5681,7 +5097,7 @@
       <c r="J451" s="1"/>
       <c r="N451" s="1"/>
     </row>
-    <row r="452" customHeight="1" spans="1:14">
+    <row r="452" spans="1:14" ht="15.75" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="7"/>
@@ -5689,7 +5105,7 @@
       <c r="J452" s="1"/>
       <c r="N452" s="1"/>
     </row>
-    <row r="453" customHeight="1" spans="1:14">
+    <row r="453" spans="1:14" ht="15.75" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="7"/>
@@ -5697,7 +5113,7 @@
       <c r="J453" s="1"/>
       <c r="N453" s="1"/>
     </row>
-    <row r="454" customHeight="1" spans="1:14">
+    <row r="454" spans="1:14" ht="15.75" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="7"/>
@@ -5705,7 +5121,7 @@
       <c r="J454" s="1"/>
       <c r="N454" s="1"/>
     </row>
-    <row r="455" customHeight="1" spans="1:14">
+    <row r="455" spans="1:14" ht="15.75" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="7"/>
@@ -5713,7 +5129,7 @@
       <c r="J455" s="1"/>
       <c r="N455" s="1"/>
     </row>
-    <row r="456" customHeight="1" spans="1:14">
+    <row r="456" spans="1:14" ht="15.75" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="7"/>
@@ -5721,7 +5137,7 @@
       <c r="J456" s="1"/>
       <c r="N456" s="1"/>
     </row>
-    <row r="457" customHeight="1" spans="1:14">
+    <row r="457" spans="1:14" ht="15.75" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="7"/>
@@ -5729,7 +5145,7 @@
       <c r="J457" s="1"/>
       <c r="N457" s="1"/>
     </row>
-    <row r="458" customHeight="1" spans="1:14">
+    <row r="458" spans="1:14" ht="15.75" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="7"/>
@@ -5737,7 +5153,7 @@
       <c r="J458" s="1"/>
       <c r="N458" s="1"/>
     </row>
-    <row r="459" customHeight="1" spans="1:14">
+    <row r="459" spans="1:14" ht="15.75" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="7"/>
@@ -5745,7 +5161,7 @@
       <c r="J459" s="1"/>
       <c r="N459" s="1"/>
     </row>
-    <row r="460" customHeight="1" spans="1:14">
+    <row r="460" spans="1:14" ht="15.75" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="7"/>
@@ -5753,7 +5169,7 @@
       <c r="J460" s="1"/>
       <c r="N460" s="1"/>
     </row>
-    <row r="461" customHeight="1" spans="1:14">
+    <row r="461" spans="1:14" ht="15.75" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="7"/>
@@ -5761,7 +5177,7 @@
       <c r="J461" s="1"/>
       <c r="N461" s="1"/>
     </row>
-    <row r="462" customHeight="1" spans="1:14">
+    <row r="462" spans="1:14" ht="15.75" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="7"/>
@@ -5769,7 +5185,7 @@
       <c r="J462" s="1"/>
       <c r="N462" s="1"/>
     </row>
-    <row r="463" customHeight="1" spans="1:14">
+    <row r="463" spans="1:14" ht="15.75" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="7"/>
@@ -5777,7 +5193,7 @@
       <c r="J463" s="1"/>
       <c r="N463" s="1"/>
     </row>
-    <row r="464" customHeight="1" spans="1:14">
+    <row r="464" spans="1:14" ht="15.75" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="7"/>
@@ -5785,7 +5201,7 @@
       <c r="J464" s="1"/>
       <c r="N464" s="1"/>
     </row>
-    <row r="465" customHeight="1" spans="1:14">
+    <row r="465" spans="1:14" ht="15.75" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="7"/>
@@ -5793,7 +5209,7 @@
       <c r="J465" s="1"/>
       <c r="N465" s="1"/>
     </row>
-    <row r="466" customHeight="1" spans="1:14">
+    <row r="466" spans="1:14" ht="15.75" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="7"/>
@@ -5801,7 +5217,7 @@
       <c r="J466" s="1"/>
       <c r="N466" s="1"/>
     </row>
-    <row r="467" customHeight="1" spans="1:14">
+    <row r="467" spans="1:14" ht="15.75" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="7"/>
@@ -5809,7 +5225,7 @@
       <c r="J467" s="1"/>
       <c r="N467" s="1"/>
     </row>
-    <row r="468" customHeight="1" spans="1:14">
+    <row r="468" spans="1:14" ht="15.75" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="7"/>
@@ -5817,7 +5233,7 @@
       <c r="J468" s="1"/>
       <c r="N468" s="1"/>
     </row>
-    <row r="469" customHeight="1" spans="1:14">
+    <row r="469" spans="1:14" ht="15.75" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="7"/>
@@ -5825,7 +5241,7 @@
       <c r="J469" s="1"/>
       <c r="N469" s="1"/>
     </row>
-    <row r="470" customHeight="1" spans="1:14">
+    <row r="470" spans="1:14" ht="15.75" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="7"/>
@@ -5833,7 +5249,7 @@
       <c r="J470" s="1"/>
       <c r="N470" s="1"/>
     </row>
-    <row r="471" customHeight="1" spans="1:14">
+    <row r="471" spans="1:14" ht="15.75" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="7"/>
@@ -5841,7 +5257,7 @@
       <c r="J471" s="1"/>
       <c r="N471" s="1"/>
     </row>
-    <row r="472" customHeight="1" spans="1:14">
+    <row r="472" spans="1:14" ht="15.75" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="7"/>
@@ -5849,7 +5265,7 @@
       <c r="J472" s="1"/>
       <c r="N472" s="1"/>
     </row>
-    <row r="473" customHeight="1" spans="1:14">
+    <row r="473" spans="1:14" ht="15.75" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="7"/>
@@ -5857,7 +5273,7 @@
       <c r="J473" s="1"/>
       <c r="N473" s="1"/>
     </row>
-    <row r="474" customHeight="1" spans="1:14">
+    <row r="474" spans="1:14" ht="15.75" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="7"/>
@@ -5865,7 +5281,7 @@
       <c r="J474" s="1"/>
       <c r="N474" s="1"/>
     </row>
-    <row r="475" customHeight="1" spans="1:14">
+    <row r="475" spans="1:14" ht="15.75" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="7"/>
@@ -5873,7 +5289,7 @@
       <c r="J475" s="1"/>
       <c r="N475" s="1"/>
     </row>
-    <row r="476" customHeight="1" spans="1:14">
+    <row r="476" spans="1:14" ht="15.75" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="7"/>
@@ -5881,7 +5297,7 @@
       <c r="J476" s="1"/>
       <c r="N476" s="1"/>
     </row>
-    <row r="477" customHeight="1" spans="1:14">
+    <row r="477" spans="1:14" ht="15.75" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="7"/>
@@ -5889,7 +5305,7 @@
       <c r="J477" s="1"/>
       <c r="N477" s="1"/>
     </row>
-    <row r="478" customHeight="1" spans="1:14">
+    <row r="478" spans="1:14" ht="15.75" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="7"/>
@@ -5897,7 +5313,7 @@
       <c r="J478" s="1"/>
       <c r="N478" s="1"/>
     </row>
-    <row r="479" customHeight="1" spans="1:14">
+    <row r="479" spans="1:14" ht="15.75" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="7"/>
@@ -5905,7 +5321,7 @@
       <c r="J479" s="1"/>
       <c r="N479" s="1"/>
     </row>
-    <row r="480" customHeight="1" spans="1:14">
+    <row r="480" spans="1:14" ht="15.75" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="7"/>
@@ -5913,7 +5329,7 @@
       <c r="J480" s="1"/>
       <c r="N480" s="1"/>
     </row>
-    <row r="481" customHeight="1" spans="1:14">
+    <row r="481" spans="1:14" ht="15.75" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="7"/>
@@ -5921,7 +5337,7 @@
       <c r="J481" s="1"/>
       <c r="N481" s="1"/>
     </row>
-    <row r="482" customHeight="1" spans="1:14">
+    <row r="482" spans="1:14" ht="15.75" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="7"/>
@@ -5929,7 +5345,7 @@
       <c r="J482" s="1"/>
       <c r="N482" s="1"/>
     </row>
-    <row r="483" customHeight="1" spans="1:14">
+    <row r="483" spans="1:14" ht="15.75" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="7"/>
@@ -5937,7 +5353,7 @@
       <c r="J483" s="1"/>
       <c r="N483" s="1"/>
     </row>
-    <row r="484" customHeight="1" spans="1:14">
+    <row r="484" spans="1:14" ht="15.75" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="7"/>
@@ -5945,7 +5361,7 @@
       <c r="J484" s="1"/>
       <c r="N484" s="1"/>
     </row>
-    <row r="485" customHeight="1" spans="1:14">
+    <row r="485" spans="1:14" ht="15.75" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="7"/>
@@ -5953,7 +5369,7 @@
       <c r="J485" s="1"/>
       <c r="N485" s="1"/>
     </row>
-    <row r="486" customHeight="1" spans="1:14">
+    <row r="486" spans="1:14" ht="15.75" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="7"/>
@@ -5961,7 +5377,7 @@
       <c r="J486" s="1"/>
       <c r="N486" s="1"/>
     </row>
-    <row r="487" customHeight="1" spans="1:14">
+    <row r="487" spans="1:14" ht="15.75" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="7"/>
@@ -5969,7 +5385,7 @@
       <c r="J487" s="1"/>
       <c r="N487" s="1"/>
     </row>
-    <row r="488" customHeight="1" spans="1:14">
+    <row r="488" spans="1:14" ht="15.75" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="7"/>
@@ -5977,7 +5393,7 @@
       <c r="J488" s="1"/>
       <c r="N488" s="1"/>
     </row>
-    <row r="489" customHeight="1" spans="1:14">
+    <row r="489" spans="1:14" ht="15.75" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="7"/>
@@ -5985,7 +5401,7 @@
       <c r="J489" s="1"/>
       <c r="N489" s="1"/>
     </row>
-    <row r="490" customHeight="1" spans="1:14">
+    <row r="490" spans="1:14" ht="15.75" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="7"/>
@@ -5993,7 +5409,7 @@
       <c r="J490" s="1"/>
       <c r="N490" s="1"/>
     </row>
-    <row r="491" customHeight="1" spans="1:14">
+    <row r="491" spans="1:14" ht="15.75" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="7"/>
@@ -6001,7 +5417,7 @@
       <c r="J491" s="1"/>
       <c r="N491" s="1"/>
     </row>
-    <row r="492" customHeight="1" spans="1:14">
+    <row r="492" spans="1:14" ht="15.75" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="7"/>
@@ -6009,7 +5425,7 @@
       <c r="J492" s="1"/>
       <c r="N492" s="1"/>
     </row>
-    <row r="493" customHeight="1" spans="1:14">
+    <row r="493" spans="1:14" ht="15.75" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="7"/>
@@ -6017,7 +5433,7 @@
       <c r="J493" s="1"/>
       <c r="N493" s="1"/>
     </row>
-    <row r="494" customHeight="1" spans="1:14">
+    <row r="494" spans="1:14" ht="15.75" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="7"/>
@@ -6025,7 +5441,7 @@
       <c r="J494" s="1"/>
       <c r="N494" s="1"/>
     </row>
-    <row r="495" customHeight="1" spans="1:14">
+    <row r="495" spans="1:14" ht="15.75" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="7"/>
@@ -6033,7 +5449,7 @@
       <c r="J495" s="1"/>
       <c r="N495" s="1"/>
     </row>
-    <row r="496" customHeight="1" spans="1:14">
+    <row r="496" spans="1:14" ht="15.75" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="7"/>
@@ -6041,7 +5457,7 @@
       <c r="J496" s="1"/>
       <c r="N496" s="1"/>
     </row>
-    <row r="497" customHeight="1" spans="1:14">
+    <row r="497" spans="1:14" ht="15.75" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="7"/>
@@ -6049,7 +5465,7 @@
       <c r="J497" s="1"/>
       <c r="N497" s="1"/>
     </row>
-    <row r="498" customHeight="1" spans="1:14">
+    <row r="498" spans="1:14" ht="15.75" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="7"/>
@@ -6057,7 +5473,7 @@
       <c r="J498" s="1"/>
       <c r="N498" s="1"/>
     </row>
-    <row r="499" customHeight="1" spans="1:14">
+    <row r="499" spans="1:14" ht="15.75" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="7"/>
@@ -6065,7 +5481,7 @@
       <c r="J499" s="1"/>
       <c r="N499" s="1"/>
     </row>
-    <row r="500" customHeight="1" spans="1:14">
+    <row r="500" spans="1:14" ht="15.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="7"/>
@@ -6073,7 +5489,7 @@
       <c r="J500" s="1"/>
       <c r="N500" s="1"/>
     </row>
-    <row r="501" customHeight="1" spans="1:14">
+    <row r="501" spans="1:14" ht="15.75" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="7"/>
@@ -6081,7 +5497,7 @@
       <c r="J501" s="1"/>
       <c r="N501" s="1"/>
     </row>
-    <row r="502" customHeight="1" spans="1:14">
+    <row r="502" spans="1:14" ht="15.75" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="7"/>
@@ -6089,7 +5505,7 @@
       <c r="J502" s="1"/>
       <c r="N502" s="1"/>
     </row>
-    <row r="503" customHeight="1" spans="1:14">
+    <row r="503" spans="1:14" ht="15.75" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="7"/>
@@ -6097,7 +5513,7 @@
       <c r="J503" s="1"/>
       <c r="N503" s="1"/>
     </row>
-    <row r="504" customHeight="1" spans="1:14">
+    <row r="504" spans="1:14" ht="15.75" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="7"/>
@@ -6105,7 +5521,7 @@
       <c r="J504" s="1"/>
       <c r="N504" s="1"/>
     </row>
-    <row r="505" customHeight="1" spans="1:14">
+    <row r="505" spans="1:14" ht="15.75" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="7"/>
@@ -6113,7 +5529,7 @@
       <c r="J505" s="1"/>
       <c r="N505" s="1"/>
     </row>
-    <row r="506" customHeight="1" spans="1:14">
+    <row r="506" spans="1:14" ht="15.75" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="7"/>
@@ -6121,7 +5537,7 @@
       <c r="J506" s="1"/>
       <c r="N506" s="1"/>
     </row>
-    <row r="507" customHeight="1" spans="1:14">
+    <row r="507" spans="1:14" ht="15.75" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="7"/>
@@ -6129,7 +5545,7 @@
       <c r="J507" s="1"/>
       <c r="N507" s="1"/>
     </row>
-    <row r="508" customHeight="1" spans="1:14">
+    <row r="508" spans="1:14" ht="15.75" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="7"/>
@@ -6137,7 +5553,7 @@
       <c r="J508" s="1"/>
       <c r="N508" s="1"/>
     </row>
-    <row r="509" customHeight="1" spans="1:14">
+    <row r="509" spans="1:14" ht="15.75" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="7"/>
@@ -6145,7 +5561,7 @@
       <c r="J509" s="1"/>
       <c r="N509" s="1"/>
     </row>
-    <row r="510" customHeight="1" spans="1:14">
+    <row r="510" spans="1:14" ht="15.75" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="7"/>
@@ -6153,7 +5569,7 @@
       <c r="J510" s="1"/>
       <c r="N510" s="1"/>
     </row>
-    <row r="511" customHeight="1" spans="1:14">
+    <row r="511" spans="1:14" ht="15.75" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="7"/>
@@ -6161,7 +5577,7 @@
       <c r="J511" s="1"/>
       <c r="N511" s="1"/>
     </row>
-    <row r="512" customHeight="1" spans="1:14">
+    <row r="512" spans="1:14" ht="15.75" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="7"/>
@@ -6169,7 +5585,7 @@
       <c r="J512" s="1"/>
       <c r="N512" s="1"/>
     </row>
-    <row r="513" customHeight="1" spans="1:14">
+    <row r="513" spans="1:14" ht="15.75" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="7"/>
@@ -6177,7 +5593,7 @@
       <c r="J513" s="1"/>
       <c r="N513" s="1"/>
     </row>
-    <row r="514" customHeight="1" spans="1:14">
+    <row r="514" spans="1:14" ht="15.75" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="7"/>
@@ -6185,7 +5601,7 @@
       <c r="J514" s="1"/>
       <c r="N514" s="1"/>
     </row>
-    <row r="515" customHeight="1" spans="1:14">
+    <row r="515" spans="1:14" ht="15.75" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="7"/>
@@ -6193,7 +5609,7 @@
       <c r="J515" s="1"/>
       <c r="N515" s="1"/>
     </row>
-    <row r="516" customHeight="1" spans="1:14">
+    <row r="516" spans="1:14" ht="15.75" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="7"/>
@@ -6201,7 +5617,7 @@
       <c r="J516" s="1"/>
       <c r="N516" s="1"/>
     </row>
-    <row r="517" customHeight="1" spans="1:14">
+    <row r="517" spans="1:14" ht="15.75" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="7"/>
@@ -6209,7 +5625,7 @@
       <c r="J517" s="1"/>
       <c r="N517" s="1"/>
     </row>
-    <row r="518" customHeight="1" spans="1:14">
+    <row r="518" spans="1:14" ht="15.75" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="7"/>
@@ -6217,7 +5633,7 @@
       <c r="J518" s="1"/>
       <c r="N518" s="1"/>
     </row>
-    <row r="519" customHeight="1" spans="1:14">
+    <row r="519" spans="1:14" ht="15.75" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="7"/>
@@ -6225,7 +5641,7 @@
       <c r="J519" s="1"/>
       <c r="N519" s="1"/>
     </row>
-    <row r="520" customHeight="1" spans="1:14">
+    <row r="520" spans="1:14" ht="15.75" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="7"/>
@@ -6233,7 +5649,7 @@
       <c r="J520" s="1"/>
       <c r="N520" s="1"/>
     </row>
-    <row r="521" customHeight="1" spans="1:14">
+    <row r="521" spans="1:14" ht="15.75" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="7"/>
@@ -6241,7 +5657,7 @@
       <c r="J521" s="1"/>
       <c r="N521" s="1"/>
     </row>
-    <row r="522" customHeight="1" spans="1:14">
+    <row r="522" spans="1:14" ht="15.75" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="7"/>
@@ -6249,7 +5665,7 @@
       <c r="J522" s="1"/>
       <c r="N522" s="1"/>
     </row>
-    <row r="523" customHeight="1" spans="1:14">
+    <row r="523" spans="1:14" ht="15.75" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="7"/>
@@ -6257,7 +5673,7 @@
       <c r="J523" s="1"/>
       <c r="N523" s="1"/>
     </row>
-    <row r="524" customHeight="1" spans="1:14">
+    <row r="524" spans="1:14" ht="15.75" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="7"/>
@@ -6265,7 +5681,7 @@
       <c r="J524" s="1"/>
       <c r="N524" s="1"/>
     </row>
-    <row r="525" customHeight="1" spans="1:14">
+    <row r="525" spans="1:14" ht="15.75" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="7"/>
@@ -6273,7 +5689,7 @@
       <c r="J525" s="1"/>
       <c r="N525" s="1"/>
     </row>
-    <row r="526" customHeight="1" spans="1:14">
+    <row r="526" spans="1:14" ht="15.75" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="7"/>
@@ -6281,7 +5697,7 @@
       <c r="J526" s="1"/>
       <c r="N526" s="1"/>
     </row>
-    <row r="527" customHeight="1" spans="1:14">
+    <row r="527" spans="1:14" ht="15.75" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="7"/>
@@ -6289,7 +5705,7 @@
       <c r="J527" s="1"/>
       <c r="N527" s="1"/>
     </row>
-    <row r="528" customHeight="1" spans="1:14">
+    <row r="528" spans="1:14" ht="15.75" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="7"/>
@@ -6297,7 +5713,7 @@
       <c r="J528" s="1"/>
       <c r="N528" s="1"/>
     </row>
-    <row r="529" customHeight="1" spans="1:14">
+    <row r="529" spans="1:14" ht="15.75" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="7"/>
@@ -6305,7 +5721,7 @@
       <c r="J529" s="1"/>
       <c r="N529" s="1"/>
     </row>
-    <row r="530" customHeight="1" spans="1:14">
+    <row r="530" spans="1:14" ht="15.75" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="7"/>
@@ -6313,7 +5729,7 @@
       <c r="J530" s="1"/>
       <c r="N530" s="1"/>
     </row>
-    <row r="531" customHeight="1" spans="1:14">
+    <row r="531" spans="1:14" ht="15.75" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="7"/>
@@ -6321,7 +5737,7 @@
       <c r="J531" s="1"/>
       <c r="N531" s="1"/>
     </row>
-    <row r="532" customHeight="1" spans="1:14">
+    <row r="532" spans="1:14" ht="15.75" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="7"/>
@@ -6329,7 +5745,7 @@
       <c r="J532" s="1"/>
       <c r="N532" s="1"/>
     </row>
-    <row r="533" customHeight="1" spans="1:14">
+    <row r="533" spans="1:14" ht="15.75" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="7"/>
@@ -6337,7 +5753,7 @@
       <c r="J533" s="1"/>
       <c r="N533" s="1"/>
     </row>
-    <row r="534" customHeight="1" spans="1:14">
+    <row r="534" spans="1:14" ht="15.75" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="7"/>
@@ -6345,7 +5761,7 @@
       <c r="J534" s="1"/>
       <c r="N534" s="1"/>
     </row>
-    <row r="535" customHeight="1" spans="1:14">
+    <row r="535" spans="1:14" ht="15.75" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="7"/>
@@ -6353,7 +5769,7 @@
       <c r="J535" s="1"/>
       <c r="N535" s="1"/>
     </row>
-    <row r="536" customHeight="1" spans="1:14">
+    <row r="536" spans="1:14" ht="15.75" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="7"/>
@@ -6361,7 +5777,7 @@
       <c r="J536" s="1"/>
       <c r="N536" s="1"/>
     </row>
-    <row r="537" customHeight="1" spans="1:14">
+    <row r="537" spans="1:14" ht="15.75" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="7"/>
@@ -6369,7 +5785,7 @@
       <c r="J537" s="1"/>
       <c r="N537" s="1"/>
     </row>
-    <row r="538" customHeight="1" spans="1:14">
+    <row r="538" spans="1:14" ht="15.75" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="7"/>
@@ -6377,7 +5793,7 @@
       <c r="J538" s="1"/>
       <c r="N538" s="1"/>
     </row>
-    <row r="539" customHeight="1" spans="1:14">
+    <row r="539" spans="1:14" ht="15.75" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="7"/>
@@ -6385,7 +5801,7 @@
       <c r="J539" s="1"/>
       <c r="N539" s="1"/>
     </row>
-    <row r="540" customHeight="1" spans="1:14">
+    <row r="540" spans="1:14" ht="15.75" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="7"/>
@@ -6393,7 +5809,7 @@
       <c r="J540" s="1"/>
       <c r="N540" s="1"/>
     </row>
-    <row r="541" customHeight="1" spans="1:14">
+    <row r="541" spans="1:14" ht="15.75" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="7"/>
@@ -6401,7 +5817,7 @@
       <c r="J541" s="1"/>
       <c r="N541" s="1"/>
     </row>
-    <row r="542" customHeight="1" spans="1:14">
+    <row r="542" spans="1:14" ht="15.75" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="7"/>
@@ -6409,7 +5825,7 @@
       <c r="J542" s="1"/>
       <c r="N542" s="1"/>
     </row>
-    <row r="543" customHeight="1" spans="1:14">
+    <row r="543" spans="1:14" ht="15.75" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="7"/>
@@ -6417,7 +5833,7 @@
       <c r="J543" s="1"/>
       <c r="N543" s="1"/>
     </row>
-    <row r="544" customHeight="1" spans="1:14">
+    <row r="544" spans="1:14" ht="15.75" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="7"/>
@@ -6425,7 +5841,7 @@
       <c r="J544" s="1"/>
       <c r="N544" s="1"/>
     </row>
-    <row r="545" customHeight="1" spans="1:14">
+    <row r="545" spans="1:14" ht="15.75" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="7"/>
@@ -6433,7 +5849,7 @@
       <c r="J545" s="1"/>
       <c r="N545" s="1"/>
     </row>
-    <row r="546" customHeight="1" spans="1:14">
+    <row r="546" spans="1:14" ht="15.75" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="7"/>
@@ -6441,7 +5857,7 @@
       <c r="J546" s="1"/>
       <c r="N546" s="1"/>
     </row>
-    <row r="547" customHeight="1" spans="1:14">
+    <row r="547" spans="1:14" ht="15.75" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="7"/>
@@ -6449,7 +5865,7 @@
       <c r="J547" s="1"/>
       <c r="N547" s="1"/>
     </row>
-    <row r="548" customHeight="1" spans="1:14">
+    <row r="548" spans="1:14" ht="15.75" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="7"/>
@@ -6457,7 +5873,7 @@
       <c r="J548" s="1"/>
       <c r="N548" s="1"/>
     </row>
-    <row r="549" customHeight="1" spans="1:14">
+    <row r="549" spans="1:14" ht="15.75" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="7"/>
@@ -6465,7 +5881,7 @@
       <c r="J549" s="1"/>
       <c r="N549" s="1"/>
     </row>
-    <row r="550" customHeight="1" spans="1:14">
+    <row r="550" spans="1:14" ht="15.75" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="7"/>
@@ -6473,7 +5889,7 @@
       <c r="J550" s="1"/>
       <c r="N550" s="1"/>
     </row>
-    <row r="551" customHeight="1" spans="1:14">
+    <row r="551" spans="1:14" ht="15.75" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="7"/>
@@ -6481,7 +5897,7 @@
       <c r="J551" s="1"/>
       <c r="N551" s="1"/>
     </row>
-    <row r="552" customHeight="1" spans="1:14">
+    <row r="552" spans="1:14" ht="15.75" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="7"/>
@@ -6489,7 +5905,7 @@
       <c r="J552" s="1"/>
       <c r="N552" s="1"/>
     </row>
-    <row r="553" customHeight="1" spans="1:14">
+    <row r="553" spans="1:14" ht="15.75" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="7"/>
@@ -6497,7 +5913,7 @@
       <c r="J553" s="1"/>
       <c r="N553" s="1"/>
     </row>
-    <row r="554" customHeight="1" spans="1:14">
+    <row r="554" spans="1:14" ht="15.75" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="7"/>
@@ -6505,7 +5921,7 @@
       <c r="J554" s="1"/>
       <c r="N554" s="1"/>
     </row>
-    <row r="555" customHeight="1" spans="1:14">
+    <row r="555" spans="1:14" ht="15.75" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="7"/>
@@ -6513,7 +5929,7 @@
       <c r="J555" s="1"/>
       <c r="N555" s="1"/>
     </row>
-    <row r="556" customHeight="1" spans="1:14">
+    <row r="556" spans="1:14" ht="15.75" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="7"/>
@@ -6521,7 +5937,7 @@
       <c r="J556" s="1"/>
       <c r="N556" s="1"/>
     </row>
-    <row r="557" customHeight="1" spans="1:14">
+    <row r="557" spans="1:14" ht="15.75" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="7"/>
@@ -6529,7 +5945,7 @@
       <c r="J557" s="1"/>
       <c r="N557" s="1"/>
     </row>
-    <row r="558" customHeight="1" spans="1:14">
+    <row r="558" spans="1:14" ht="15.75" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="7"/>
@@ -6537,7 +5953,7 @@
       <c r="J558" s="1"/>
       <c r="N558" s="1"/>
     </row>
-    <row r="559" customHeight="1" spans="1:14">
+    <row r="559" spans="1:14" ht="15.75" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="7"/>
@@ -6545,7 +5961,7 @@
       <c r="J559" s="1"/>
       <c r="N559" s="1"/>
     </row>
-    <row r="560" customHeight="1" spans="1:14">
+    <row r="560" spans="1:14" ht="15.75" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="7"/>
@@ -6553,7 +5969,7 @@
       <c r="J560" s="1"/>
       <c r="N560" s="1"/>
     </row>
-    <row r="561" customHeight="1" spans="1:14">
+    <row r="561" spans="1:14" ht="15.75" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="7"/>
@@ -6561,7 +5977,7 @@
       <c r="J561" s="1"/>
       <c r="N561" s="1"/>
     </row>
-    <row r="562" customHeight="1" spans="1:14">
+    <row r="562" spans="1:14" ht="15.75" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="7"/>
@@ -6569,7 +5985,7 @@
       <c r="J562" s="1"/>
       <c r="N562" s="1"/>
     </row>
-    <row r="563" customHeight="1" spans="1:14">
+    <row r="563" spans="1:14" ht="15.75" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="7"/>
@@ -6577,7 +5993,7 @@
       <c r="J563" s="1"/>
       <c r="N563" s="1"/>
     </row>
-    <row r="564" customHeight="1" spans="1:14">
+    <row r="564" spans="1:14" ht="15.75" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="7"/>
@@ -6585,7 +6001,7 @@
       <c r="J564" s="1"/>
       <c r="N564" s="1"/>
     </row>
-    <row r="565" customHeight="1" spans="1:14">
+    <row r="565" spans="1:14" ht="15.75" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="7"/>
@@ -6593,7 +6009,7 @@
       <c r="J565" s="1"/>
       <c r="N565" s="1"/>
     </row>
-    <row r="566" customHeight="1" spans="1:14">
+    <row r="566" spans="1:14" ht="15.75" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="7"/>
@@ -6601,7 +6017,7 @@
       <c r="J566" s="1"/>
       <c r="N566" s="1"/>
     </row>
-    <row r="567" customHeight="1" spans="1:14">
+    <row r="567" spans="1:14" ht="15.75" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="7"/>
@@ -6609,7 +6025,7 @@
       <c r="J567" s="1"/>
       <c r="N567" s="1"/>
     </row>
-    <row r="568" customHeight="1" spans="1:14">
+    <row r="568" spans="1:14" ht="15.75" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="7"/>
@@ -6617,7 +6033,7 @@
       <c r="J568" s="1"/>
       <c r="N568" s="1"/>
     </row>
-    <row r="569" customHeight="1" spans="1:14">
+    <row r="569" spans="1:14" ht="15.75" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="7"/>
@@ -6625,7 +6041,7 @@
       <c r="J569" s="1"/>
       <c r="N569" s="1"/>
     </row>
-    <row r="570" customHeight="1" spans="1:14">
+    <row r="570" spans="1:14" ht="15.75" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="7"/>
@@ -6633,7 +6049,7 @@
       <c r="J570" s="1"/>
       <c r="N570" s="1"/>
     </row>
-    <row r="571" customHeight="1" spans="1:14">
+    <row r="571" spans="1:14" ht="15.75" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="7"/>
@@ -6641,7 +6057,7 @@
       <c r="J571" s="1"/>
       <c r="N571" s="1"/>
     </row>
-    <row r="572" customHeight="1" spans="1:14">
+    <row r="572" spans="1:14" ht="15.75" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="7"/>
@@ -6649,7 +6065,7 @@
       <c r="J572" s="1"/>
       <c r="N572" s="1"/>
     </row>
-    <row r="573" customHeight="1" spans="1:14">
+    <row r="573" spans="1:14" ht="15.75" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="7"/>
@@ -6657,7 +6073,7 @@
       <c r="J573" s="1"/>
       <c r="N573" s="1"/>
     </row>
-    <row r="574" customHeight="1" spans="1:14">
+    <row r="574" spans="1:14" ht="15.75" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="7"/>
@@ -6665,7 +6081,7 @@
       <c r="J574" s="1"/>
       <c r="N574" s="1"/>
     </row>
-    <row r="575" customHeight="1" spans="1:14">
+    <row r="575" spans="1:14" ht="15.75" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="7"/>
@@ -6673,7 +6089,7 @@
       <c r="J575" s="1"/>
       <c r="N575" s="1"/>
     </row>
-    <row r="576" customHeight="1" spans="1:14">
+    <row r="576" spans="1:14" ht="15.75" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="7"/>
@@ -6681,7 +6097,7 @@
       <c r="J576" s="1"/>
       <c r="N576" s="1"/>
     </row>
-    <row r="577" customHeight="1" spans="1:14">
+    <row r="577" spans="1:14" ht="15.75" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="7"/>
@@ -6689,7 +6105,7 @@
       <c r="J577" s="1"/>
       <c r="N577" s="1"/>
     </row>
-    <row r="578" customHeight="1" spans="1:14">
+    <row r="578" spans="1:14" ht="15.75" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="7"/>
@@ -6697,7 +6113,7 @@
       <c r="J578" s="1"/>
       <c r="N578" s="1"/>
     </row>
-    <row r="579" customHeight="1" spans="1:14">
+    <row r="579" spans="1:14" ht="15.75" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="7"/>
@@ -6705,7 +6121,7 @@
       <c r="J579" s="1"/>
       <c r="N579" s="1"/>
     </row>
-    <row r="580" customHeight="1" spans="1:14">
+    <row r="580" spans="1:14" ht="15.75" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="7"/>
@@ -6713,7 +6129,7 @@
       <c r="J580" s="1"/>
       <c r="N580" s="1"/>
     </row>
-    <row r="581" customHeight="1" spans="1:14">
+    <row r="581" spans="1:14" ht="15.75" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="7"/>
@@ -6721,7 +6137,7 @@
       <c r="J581" s="1"/>
       <c r="N581" s="1"/>
     </row>
-    <row r="582" customHeight="1" spans="1:14">
+    <row r="582" spans="1:14" ht="15.75" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="7"/>
@@ -6729,7 +6145,7 @@
       <c r="J582" s="1"/>
       <c r="N582" s="1"/>
     </row>
-    <row r="583" customHeight="1" spans="1:14">
+    <row r="583" spans="1:14" ht="15.75" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="7"/>
@@ -6737,7 +6153,7 @@
       <c r="J583" s="1"/>
       <c r="N583" s="1"/>
     </row>
-    <row r="584" customHeight="1" spans="1:14">
+    <row r="584" spans="1:14" ht="15.75" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="7"/>
@@ -6745,7 +6161,7 @@
       <c r="J584" s="1"/>
       <c r="N584" s="1"/>
     </row>
-    <row r="585" customHeight="1" spans="1:14">
+    <row r="585" spans="1:14" ht="15.75" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="7"/>
@@ -6753,7 +6169,7 @@
       <c r="J585" s="1"/>
       <c r="N585" s="1"/>
     </row>
-    <row r="586" customHeight="1" spans="1:14">
+    <row r="586" spans="1:14" ht="15.75" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="7"/>
@@ -6761,7 +6177,7 @@
       <c r="J586" s="1"/>
       <c r="N586" s="1"/>
     </row>
-    <row r="587" customHeight="1" spans="1:14">
+    <row r="587" spans="1:14" ht="15.75" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="7"/>
@@ -6769,7 +6185,7 @@
       <c r="J587" s="1"/>
       <c r="N587" s="1"/>
     </row>
-    <row r="588" customHeight="1" spans="1:14">
+    <row r="588" spans="1:14" ht="15.75" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="7"/>
@@ -6777,7 +6193,7 @@
       <c r="J588" s="1"/>
       <c r="N588" s="1"/>
     </row>
-    <row r="589" customHeight="1" spans="1:14">
+    <row r="589" spans="1:14" ht="15.75" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="7"/>
@@ -6785,7 +6201,7 @@
       <c r="J589" s="1"/>
       <c r="N589" s="1"/>
     </row>
-    <row r="590" customHeight="1" spans="1:14">
+    <row r="590" spans="1:14" ht="15.75" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="7"/>
@@ -6793,7 +6209,7 @@
       <c r="J590" s="1"/>
       <c r="N590" s="1"/>
     </row>
-    <row r="591" customHeight="1" spans="1:14">
+    <row r="591" spans="1:14" ht="15.75" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="7"/>
@@ -6801,7 +6217,7 @@
       <c r="J591" s="1"/>
       <c r="N591" s="1"/>
     </row>
-    <row r="592" customHeight="1" spans="1:14">
+    <row r="592" spans="1:14" ht="15.75" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="7"/>
@@ -6809,7 +6225,7 @@
       <c r="J592" s="1"/>
       <c r="N592" s="1"/>
     </row>
-    <row r="593" customHeight="1" spans="1:14">
+    <row r="593" spans="1:14" ht="15.75" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="7"/>
@@ -6817,7 +6233,7 @@
       <c r="J593" s="1"/>
       <c r="N593" s="1"/>
     </row>
-    <row r="594" customHeight="1" spans="1:14">
+    <row r="594" spans="1:14" ht="15.75" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="7"/>
@@ -6825,7 +6241,7 @@
       <c r="J594" s="1"/>
       <c r="N594" s="1"/>
     </row>
-    <row r="595" customHeight="1" spans="1:14">
+    <row r="595" spans="1:14" ht="15.75" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="7"/>
@@ -6833,7 +6249,7 @@
       <c r="J595" s="1"/>
       <c r="N595" s="1"/>
     </row>
-    <row r="596" customHeight="1" spans="1:14">
+    <row r="596" spans="1:14" ht="15.75" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="7"/>
@@ -6841,7 +6257,7 @@
       <c r="J596" s="1"/>
       <c r="N596" s="1"/>
     </row>
-    <row r="597" customHeight="1" spans="1:14">
+    <row r="597" spans="1:14" ht="15.75" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="7"/>
@@ -6849,7 +6265,7 @@
       <c r="J597" s="1"/>
       <c r="N597" s="1"/>
     </row>
-    <row r="598" customHeight="1" spans="1:14">
+    <row r="598" spans="1:14" ht="15.75" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="7"/>
@@ -6857,7 +6273,7 @@
       <c r="J598" s="1"/>
       <c r="N598" s="1"/>
     </row>
-    <row r="599" customHeight="1" spans="1:14">
+    <row r="599" spans="1:14" ht="15.75" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="7"/>
@@ -6865,7 +6281,7 @@
       <c r="J599" s="1"/>
       <c r="N599" s="1"/>
     </row>
-    <row r="600" customHeight="1" spans="1:14">
+    <row r="600" spans="1:14" ht="15.75" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="7"/>
@@ -6873,7 +6289,7 @@
       <c r="J600" s="1"/>
       <c r="N600" s="1"/>
     </row>
-    <row r="601" customHeight="1" spans="1:14">
+    <row r="601" spans="1:14" ht="15.75" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="7"/>
@@ -6881,7 +6297,7 @@
       <c r="J601" s="1"/>
       <c r="N601" s="1"/>
     </row>
-    <row r="602" customHeight="1" spans="1:14">
+    <row r="602" spans="1:14" ht="15.75" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="7"/>
@@ -6889,7 +6305,7 @@
       <c r="J602" s="1"/>
       <c r="N602" s="1"/>
     </row>
-    <row r="603" customHeight="1" spans="1:14">
+    <row r="603" spans="1:14" ht="15.75" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="7"/>
@@ -6897,7 +6313,7 @@
       <c r="J603" s="1"/>
       <c r="N603" s="1"/>
     </row>
-    <row r="604" customHeight="1" spans="1:14">
+    <row r="604" spans="1:14" ht="15.75" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="7"/>
@@ -6905,7 +6321,7 @@
       <c r="J604" s="1"/>
       <c r="N604" s="1"/>
     </row>
-    <row r="605" customHeight="1" spans="1:14">
+    <row r="605" spans="1:14" ht="15.75" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="7"/>
@@ -6913,7 +6329,7 @@
       <c r="J605" s="1"/>
       <c r="N605" s="1"/>
     </row>
-    <row r="606" customHeight="1" spans="1:14">
+    <row r="606" spans="1:14" ht="15.75" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="7"/>
@@ -6921,7 +6337,7 @@
       <c r="J606" s="1"/>
       <c r="N606" s="1"/>
     </row>
-    <row r="607" customHeight="1" spans="1:14">
+    <row r="607" spans="1:14" ht="15.75" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="7"/>
@@ -6929,7 +6345,7 @@
       <c r="J607" s="1"/>
       <c r="N607" s="1"/>
     </row>
-    <row r="608" customHeight="1" spans="1:14">
+    <row r="608" spans="1:14" ht="15.75" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="7"/>
@@ -6937,7 +6353,7 @@
       <c r="J608" s="1"/>
       <c r="N608" s="1"/>
     </row>
-    <row r="609" customHeight="1" spans="1:14">
+    <row r="609" spans="1:14" ht="15.75" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="7"/>
@@ -6945,7 +6361,7 @@
       <c r="J609" s="1"/>
       <c r="N609" s="1"/>
     </row>
-    <row r="610" customHeight="1" spans="1:14">
+    <row r="610" spans="1:14" ht="15.75" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="7"/>
@@ -6953,7 +6369,7 @@
       <c r="J610" s="1"/>
       <c r="N610" s="1"/>
     </row>
-    <row r="611" customHeight="1" spans="1:14">
+    <row r="611" spans="1:14" ht="15.75" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="7"/>
@@ -6961,7 +6377,7 @@
       <c r="J611" s="1"/>
       <c r="N611" s="1"/>
     </row>
-    <row r="612" customHeight="1" spans="1:14">
+    <row r="612" spans="1:14" ht="15.75" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="7"/>
@@ -6969,7 +6385,7 @@
       <c r="J612" s="1"/>
       <c r="N612" s="1"/>
     </row>
-    <row r="613" customHeight="1" spans="1:14">
+    <row r="613" spans="1:14" ht="15.75" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="7"/>
@@ -6977,7 +6393,7 @@
       <c r="J613" s="1"/>
       <c r="N613" s="1"/>
     </row>
-    <row r="614" customHeight="1" spans="1:14">
+    <row r="614" spans="1:14" ht="15.75" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="7"/>
@@ -6985,7 +6401,7 @@
       <c r="J614" s="1"/>
       <c r="N614" s="1"/>
     </row>
-    <row r="615" customHeight="1" spans="1:14">
+    <row r="615" spans="1:14" ht="15.75" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="7"/>
@@ -6993,7 +6409,7 @@
       <c r="J615" s="1"/>
       <c r="N615" s="1"/>
     </row>
-    <row r="616" customHeight="1" spans="1:14">
+    <row r="616" spans="1:14" ht="15.75" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="7"/>
@@ -7001,7 +6417,7 @@
       <c r="J616" s="1"/>
       <c r="N616" s="1"/>
     </row>
-    <row r="617" customHeight="1" spans="1:14">
+    <row r="617" spans="1:14" ht="15.75" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="7"/>
@@ -7009,7 +6425,7 @@
       <c r="J617" s="1"/>
       <c r="N617" s="1"/>
     </row>
-    <row r="618" customHeight="1" spans="1:14">
+    <row r="618" spans="1:14" ht="15.75" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="7"/>
@@ -7017,7 +6433,7 @@
       <c r="J618" s="1"/>
       <c r="N618" s="1"/>
     </row>
-    <row r="619" customHeight="1" spans="1:14">
+    <row r="619" spans="1:14" ht="15.75" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="7"/>
@@ -7025,7 +6441,7 @@
       <c r="J619" s="1"/>
       <c r="N619" s="1"/>
     </row>
-    <row r="620" customHeight="1" spans="1:14">
+    <row r="620" spans="1:14" ht="15.75" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="7"/>
@@ -7033,7 +6449,7 @@
       <c r="J620" s="1"/>
       <c r="N620" s="1"/>
     </row>
-    <row r="621" customHeight="1" spans="1:14">
+    <row r="621" spans="1:14" ht="15.75" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="7"/>
@@ -7041,7 +6457,7 @@
       <c r="J621" s="1"/>
       <c r="N621" s="1"/>
     </row>
-    <row r="622" customHeight="1" spans="1:14">
+    <row r="622" spans="1:14" ht="15.75" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="7"/>
@@ -7049,7 +6465,7 @@
       <c r="J622" s="1"/>
       <c r="N622" s="1"/>
     </row>
-    <row r="623" customHeight="1" spans="1:14">
+    <row r="623" spans="1:14" ht="15.75" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="7"/>
@@ -7057,7 +6473,7 @@
       <c r="J623" s="1"/>
       <c r="N623" s="1"/>
     </row>
-    <row r="624" customHeight="1" spans="1:14">
+    <row r="624" spans="1:14" ht="15.75" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="7"/>
@@ -7065,7 +6481,7 @@
       <c r="J624" s="1"/>
       <c r="N624" s="1"/>
     </row>
-    <row r="625" customHeight="1" spans="1:14">
+    <row r="625" spans="1:14" ht="15.75" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="7"/>
@@ -7073,7 +6489,7 @@
       <c r="J625" s="1"/>
       <c r="N625" s="1"/>
     </row>
-    <row r="626" customHeight="1" spans="1:14">
+    <row r="626" spans="1:14" ht="15.75" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="7"/>
@@ -7081,7 +6497,7 @@
       <c r="J626" s="1"/>
       <c r="N626" s="1"/>
     </row>
-    <row r="627" customHeight="1" spans="1:14">
+    <row r="627" spans="1:14" ht="15.75" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="7"/>
@@ -7089,7 +6505,7 @@
       <c r="J627" s="1"/>
       <c r="N627" s="1"/>
     </row>
-    <row r="628" customHeight="1" spans="1:14">
+    <row r="628" spans="1:14" ht="15.75" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="7"/>
@@ -7097,7 +6513,7 @@
       <c r="J628" s="1"/>
       <c r="N628" s="1"/>
     </row>
-    <row r="629" customHeight="1" spans="1:14">
+    <row r="629" spans="1:14" ht="15.75" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="7"/>
@@ -7105,7 +6521,7 @@
       <c r="J629" s="1"/>
       <c r="N629" s="1"/>
     </row>
-    <row r="630" customHeight="1" spans="1:14">
+    <row r="630" spans="1:14" ht="15.75" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="7"/>
@@ -7113,7 +6529,7 @@
       <c r="J630" s="1"/>
       <c r="N630" s="1"/>
     </row>
-    <row r="631" customHeight="1" spans="1:14">
+    <row r="631" spans="1:14" ht="15.75" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="7"/>
@@ -7121,7 +6537,7 @@
       <c r="J631" s="1"/>
       <c r="N631" s="1"/>
     </row>
-    <row r="632" customHeight="1" spans="1:14">
+    <row r="632" spans="1:14" ht="15.75" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="7"/>
@@ -7129,7 +6545,7 @@
       <c r="J632" s="1"/>
       <c r="N632" s="1"/>
     </row>
-    <row r="633" customHeight="1" spans="1:14">
+    <row r="633" spans="1:14" ht="15.75" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="7"/>
@@ -7137,7 +6553,7 @@
       <c r="J633" s="1"/>
       <c r="N633" s="1"/>
     </row>
-    <row r="634" customHeight="1" spans="1:14">
+    <row r="634" spans="1:14" ht="15.75" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="7"/>
@@ -7145,7 +6561,7 @@
       <c r="J634" s="1"/>
       <c r="N634" s="1"/>
     </row>
-    <row r="635" customHeight="1" spans="1:14">
+    <row r="635" spans="1:14" ht="15.75" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="7"/>
@@ -7153,7 +6569,7 @@
       <c r="J635" s="1"/>
       <c r="N635" s="1"/>
     </row>
-    <row r="636" customHeight="1" spans="1:14">
+    <row r="636" spans="1:14" ht="15.75" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="7"/>
@@ -7161,7 +6577,7 @@
       <c r="J636" s="1"/>
       <c r="N636" s="1"/>
     </row>
-    <row r="637" customHeight="1" spans="1:14">
+    <row r="637" spans="1:14" ht="15.75" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="7"/>
@@ -7169,7 +6585,7 @@
       <c r="J637" s="1"/>
       <c r="N637" s="1"/>
     </row>
-    <row r="638" customHeight="1" spans="1:14">
+    <row r="638" spans="1:14" ht="15.75" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="7"/>
@@ -7177,7 +6593,7 @@
       <c r="J638" s="1"/>
       <c r="N638" s="1"/>
     </row>
-    <row r="639" customHeight="1" spans="1:14">
+    <row r="639" spans="1:14" ht="15.75" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="7"/>
@@ -7185,7 +6601,7 @@
       <c r="J639" s="1"/>
       <c r="N639" s="1"/>
     </row>
-    <row r="640" customHeight="1" spans="1:14">
+    <row r="640" spans="1:14" ht="15.75" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="7"/>
@@ -7193,7 +6609,7 @@
       <c r="J640" s="1"/>
       <c r="N640" s="1"/>
     </row>
-    <row r="641" customHeight="1" spans="1:14">
+    <row r="641" spans="1:14" ht="15.75" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="7"/>
@@ -7201,7 +6617,7 @@
       <c r="J641" s="1"/>
       <c r="N641" s="1"/>
     </row>
-    <row r="642" customHeight="1" spans="1:14">
+    <row r="642" spans="1:14" ht="15.75" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="7"/>
@@ -7209,7 +6625,7 @@
       <c r="J642" s="1"/>
       <c r="N642" s="1"/>
     </row>
-    <row r="643" customHeight="1" spans="1:14">
+    <row r="643" spans="1:14" ht="15.75" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="7"/>
@@ -7217,7 +6633,7 @@
       <c r="J643" s="1"/>
       <c r="N643" s="1"/>
     </row>
-    <row r="644" customHeight="1" spans="1:14">
+    <row r="644" spans="1:14" ht="15.75" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="7"/>
@@ -7225,7 +6641,7 @@
       <c r="J644" s="1"/>
       <c r="N644" s="1"/>
     </row>
-    <row r="645" customHeight="1" spans="1:14">
+    <row r="645" spans="1:14" ht="15.75" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="7"/>
@@ -7233,7 +6649,7 @@
       <c r="J645" s="1"/>
       <c r="N645" s="1"/>
     </row>
-    <row r="646" customHeight="1" spans="1:14">
+    <row r="646" spans="1:14" ht="15.75" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="7"/>
@@ -7241,7 +6657,7 @@
       <c r="J646" s="1"/>
       <c r="N646" s="1"/>
     </row>
-    <row r="647" customHeight="1" spans="1:14">
+    <row r="647" spans="1:14" ht="15.75" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="7"/>
@@ -7249,7 +6665,7 @@
       <c r="J647" s="1"/>
       <c r="N647" s="1"/>
     </row>
-    <row r="648" customHeight="1" spans="1:14">
+    <row r="648" spans="1:14" ht="15.75" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="7"/>
@@ -7257,7 +6673,7 @@
       <c r="J648" s="1"/>
       <c r="N648" s="1"/>
     </row>
-    <row r="649" customHeight="1" spans="1:14">
+    <row r="649" spans="1:14" ht="15.75" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="7"/>
@@ -7265,7 +6681,7 @@
       <c r="J649" s="1"/>
       <c r="N649" s="1"/>
     </row>
-    <row r="650" customHeight="1" spans="1:14">
+    <row r="650" spans="1:14" ht="15.75" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="7"/>
@@ -7273,7 +6689,7 @@
       <c r="J650" s="1"/>
       <c r="N650" s="1"/>
     </row>
-    <row r="651" customHeight="1" spans="1:14">
+    <row r="651" spans="1:14" ht="15.75" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="7"/>
@@ -7281,7 +6697,7 @@
       <c r="J651" s="1"/>
       <c r="N651" s="1"/>
     </row>
-    <row r="652" customHeight="1" spans="1:14">
+    <row r="652" spans="1:14" ht="15.75" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="7"/>
@@ -7289,7 +6705,7 @@
       <c r="J652" s="1"/>
       <c r="N652" s="1"/>
     </row>
-    <row r="653" customHeight="1" spans="1:14">
+    <row r="653" spans="1:14" ht="15.75" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="7"/>
@@ -7297,7 +6713,7 @@
       <c r="J653" s="1"/>
       <c r="N653" s="1"/>
     </row>
-    <row r="654" customHeight="1" spans="1:14">
+    <row r="654" spans="1:14" ht="15.75" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="7"/>
@@ -7305,7 +6721,7 @@
       <c r="J654" s="1"/>
       <c r="N654" s="1"/>
     </row>
-    <row r="655" customHeight="1" spans="1:14">
+    <row r="655" spans="1:14" ht="15.75" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="7"/>
@@ -7313,7 +6729,7 @@
       <c r="J655" s="1"/>
       <c r="N655" s="1"/>
     </row>
-    <row r="656" customHeight="1" spans="1:14">
+    <row r="656" spans="1:14" ht="15.75" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="7"/>
@@ -7321,7 +6737,7 @@
       <c r="J656" s="1"/>
       <c r="N656" s="1"/>
     </row>
-    <row r="657" customHeight="1" spans="1:14">
+    <row r="657" spans="1:14" ht="15.75" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="7"/>
@@ -7329,7 +6745,7 @@
       <c r="J657" s="1"/>
       <c r="N657" s="1"/>
     </row>
-    <row r="658" customHeight="1" spans="1:14">
+    <row r="658" spans="1:14" ht="15.75" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="7"/>
@@ -7337,7 +6753,7 @@
       <c r="J658" s="1"/>
       <c r="N658" s="1"/>
     </row>
-    <row r="659" customHeight="1" spans="1:14">
+    <row r="659" spans="1:14" ht="15.75" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="7"/>
@@ -7345,7 +6761,7 @@
       <c r="J659" s="1"/>
       <c r="N659" s="1"/>
     </row>
-    <row r="660" customHeight="1" spans="1:14">
+    <row r="660" spans="1:14" ht="15.75" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="7"/>
@@ -7353,7 +6769,7 @@
       <c r="J660" s="1"/>
       <c r="N660" s="1"/>
     </row>
-    <row r="661" customHeight="1" spans="1:14">
+    <row r="661" spans="1:14" ht="15.75" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="7"/>
@@ -7361,7 +6777,7 @@
       <c r="J661" s="1"/>
       <c r="N661" s="1"/>
     </row>
-    <row r="662" customHeight="1" spans="1:14">
+    <row r="662" spans="1:14" ht="15.75" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="7"/>
@@ -7369,7 +6785,7 @@
       <c r="J662" s="1"/>
       <c r="N662" s="1"/>
     </row>
-    <row r="663" customHeight="1" spans="1:14">
+    <row r="663" spans="1:14" ht="15.75" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="7"/>
@@ -7377,7 +6793,7 @@
       <c r="J663" s="1"/>
       <c r="N663" s="1"/>
     </row>
-    <row r="664" customHeight="1" spans="1:14">
+    <row r="664" spans="1:14" ht="15.75" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="7"/>
@@ -7385,7 +6801,7 @@
       <c r="J664" s="1"/>
       <c r="N664" s="1"/>
     </row>
-    <row r="665" customHeight="1" spans="1:14">
+    <row r="665" spans="1:14" ht="15.75" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="7"/>
@@ -7393,7 +6809,7 @@
       <c r="J665" s="1"/>
       <c r="N665" s="1"/>
     </row>
-    <row r="666" customHeight="1" spans="1:14">
+    <row r="666" spans="1:14" ht="15.75" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="7"/>
@@ -7401,7 +6817,7 @@
       <c r="J666" s="1"/>
       <c r="N666" s="1"/>
     </row>
-    <row r="667" customHeight="1" spans="1:14">
+    <row r="667" spans="1:14" ht="15.75" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="7"/>
@@ -7409,7 +6825,7 @@
       <c r="J667" s="1"/>
       <c r="N667" s="1"/>
     </row>
-    <row r="668" customHeight="1" spans="1:14">
+    <row r="668" spans="1:14" ht="15.75" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="7"/>
@@ -7417,7 +6833,7 @@
       <c r="J668" s="1"/>
       <c r="N668" s="1"/>
     </row>
-    <row r="669" customHeight="1" spans="1:14">
+    <row r="669" spans="1:14" ht="15.75" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="7"/>
@@ -7425,7 +6841,7 @@
       <c r="J669" s="1"/>
       <c r="N669" s="1"/>
     </row>
-    <row r="670" customHeight="1" spans="1:14">
+    <row r="670" spans="1:14" ht="15.75" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="7"/>
@@ -7433,7 +6849,7 @@
       <c r="J670" s="1"/>
       <c r="N670" s="1"/>
     </row>
-    <row r="671" customHeight="1" spans="1:14">
+    <row r="671" spans="1:14" ht="15.75" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="7"/>
@@ -7441,7 +6857,7 @@
       <c r="J671" s="1"/>
       <c r="N671" s="1"/>
     </row>
-    <row r="672" customHeight="1" spans="1:14">
+    <row r="672" spans="1:14" ht="15.75" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="7"/>
@@ -7449,7 +6865,7 @@
       <c r="J672" s="1"/>
       <c r="N672" s="1"/>
     </row>
-    <row r="673" customHeight="1" spans="1:14">
+    <row r="673" spans="1:14" ht="15.75" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="7"/>
@@ -7457,7 +6873,7 @@
       <c r="J673" s="1"/>
       <c r="N673" s="1"/>
     </row>
-    <row r="674" customHeight="1" spans="1:14">
+    <row r="674" spans="1:14" ht="15.75" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="7"/>
@@ -7465,7 +6881,7 @@
       <c r="J674" s="1"/>
       <c r="N674" s="1"/>
     </row>
-    <row r="675" customHeight="1" spans="1:14">
+    <row r="675" spans="1:14" ht="15.75" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="7"/>
@@ -7473,7 +6889,7 @@
       <c r="J675" s="1"/>
       <c r="N675" s="1"/>
     </row>
-    <row r="676" customHeight="1" spans="1:14">
+    <row r="676" spans="1:14" ht="15.75" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="7"/>
@@ -7481,7 +6897,7 @@
       <c r="J676" s="1"/>
       <c r="N676" s="1"/>
     </row>
-    <row r="677" customHeight="1" spans="1:14">
+    <row r="677" spans="1:14" ht="15.75" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="7"/>
@@ -7489,7 +6905,7 @@
       <c r="J677" s="1"/>
       <c r="N677" s="1"/>
     </row>
-    <row r="678" customHeight="1" spans="1:14">
+    <row r="678" spans="1:14" ht="15.75" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="7"/>
@@ -7497,7 +6913,7 @@
       <c r="J678" s="1"/>
       <c r="N678" s="1"/>
     </row>
-    <row r="679" customHeight="1" spans="1:14">
+    <row r="679" spans="1:14" ht="15.75" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="7"/>
@@ -7505,7 +6921,7 @@
       <c r="J679" s="1"/>
       <c r="N679" s="1"/>
     </row>
-    <row r="680" customHeight="1" spans="1:14">
+    <row r="680" spans="1:14" ht="15.75" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="7"/>
@@ -7513,7 +6929,7 @@
       <c r="J680" s="1"/>
       <c r="N680" s="1"/>
     </row>
-    <row r="681" customHeight="1" spans="1:14">
+    <row r="681" spans="1:14" ht="15.75" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="7"/>
@@ -7521,7 +6937,7 @@
       <c r="J681" s="1"/>
       <c r="N681" s="1"/>
     </row>
-    <row r="682" customHeight="1" spans="1:14">
+    <row r="682" spans="1:14" ht="15.75" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="7"/>
@@ -7529,7 +6945,7 @@
       <c r="J682" s="1"/>
       <c r="N682" s="1"/>
     </row>
-    <row r="683" customHeight="1" spans="1:14">
+    <row r="683" spans="1:14" ht="15.75" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="7"/>
@@ -7537,7 +6953,7 @@
       <c r="J683" s="1"/>
       <c r="N683" s="1"/>
     </row>
-    <row r="684" customHeight="1" spans="1:14">
+    <row r="684" spans="1:14" ht="15.75" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="7"/>
@@ -7545,7 +6961,7 @@
       <c r="J684" s="1"/>
       <c r="N684" s="1"/>
     </row>
-    <row r="685" customHeight="1" spans="1:14">
+    <row r="685" spans="1:14" ht="15.75" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="7"/>
@@ -7553,7 +6969,7 @@
       <c r="J685" s="1"/>
       <c r="N685" s="1"/>
     </row>
-    <row r="686" customHeight="1" spans="1:14">
+    <row r="686" spans="1:14" ht="15.75" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="7"/>
@@ -7561,7 +6977,7 @@
       <c r="J686" s="1"/>
       <c r="N686" s="1"/>
     </row>
-    <row r="687" customHeight="1" spans="1:14">
+    <row r="687" spans="1:14" ht="15.75" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="7"/>
@@ -7569,7 +6985,7 @@
       <c r="J687" s="1"/>
       <c r="N687" s="1"/>
     </row>
-    <row r="688" customHeight="1" spans="1:14">
+    <row r="688" spans="1:14" ht="15.75" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="7"/>
@@ -7577,7 +6993,7 @@
       <c r="J688" s="1"/>
       <c r="N688" s="1"/>
     </row>
-    <row r="689" customHeight="1" spans="1:14">
+    <row r="689" spans="1:14" ht="15.75" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="7"/>
@@ -7585,7 +7001,7 @@
       <c r="J689" s="1"/>
       <c r="N689" s="1"/>
     </row>
-    <row r="690" customHeight="1" spans="1:14">
+    <row r="690" spans="1:14" ht="15.75" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="7"/>
@@ -7593,7 +7009,7 @@
       <c r="J690" s="1"/>
       <c r="N690" s="1"/>
     </row>
-    <row r="691" customHeight="1" spans="1:14">
+    <row r="691" spans="1:14" ht="15.75" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="7"/>
@@ -7601,7 +7017,7 @@
       <c r="J691" s="1"/>
       <c r="N691" s="1"/>
     </row>
-    <row r="692" customHeight="1" spans="1:14">
+    <row r="692" spans="1:14" ht="15.75" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="7"/>
@@ -7609,7 +7025,7 @@
       <c r="J692" s="1"/>
       <c r="N692" s="1"/>
     </row>
-    <row r="693" customHeight="1" spans="1:14">
+    <row r="693" spans="1:14" ht="15.75" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="7"/>
@@ -7617,7 +7033,7 @@
       <c r="J693" s="1"/>
       <c r="N693" s="1"/>
     </row>
-    <row r="694" customHeight="1" spans="1:14">
+    <row r="694" spans="1:14" ht="15.75" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="7"/>
@@ -7625,7 +7041,7 @@
       <c r="J694" s="1"/>
       <c r="N694" s="1"/>
     </row>
-    <row r="695" customHeight="1" spans="1:14">
+    <row r="695" spans="1:14" ht="15.75" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="7"/>
@@ -7633,7 +7049,7 @@
       <c r="J695" s="1"/>
       <c r="N695" s="1"/>
     </row>
-    <row r="696" customHeight="1" spans="1:14">
+    <row r="696" spans="1:14" ht="15.75" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="7"/>
@@ -7641,7 +7057,7 @@
       <c r="J696" s="1"/>
       <c r="N696" s="1"/>
     </row>
-    <row r="697" customHeight="1" spans="1:14">
+    <row r="697" spans="1:14" ht="15.75" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="7"/>
@@ -7649,7 +7065,7 @@
       <c r="J697" s="1"/>
       <c r="N697" s="1"/>
     </row>
-    <row r="698" customHeight="1" spans="1:14">
+    <row r="698" spans="1:14" ht="15.75" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="7"/>
@@ -7657,7 +7073,7 @@
       <c r="J698" s="1"/>
       <c r="N698" s="1"/>
     </row>
-    <row r="699" customHeight="1" spans="1:14">
+    <row r="699" spans="1:14" ht="15.75" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="7"/>
@@ -7665,7 +7081,7 @@
       <c r="J699" s="1"/>
       <c r="N699" s="1"/>
     </row>
-    <row r="700" customHeight="1" spans="1:14">
+    <row r="700" spans="1:14" ht="15.75" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="7"/>
@@ -7673,7 +7089,7 @@
       <c r="J700" s="1"/>
       <c r="N700" s="1"/>
     </row>
-    <row r="701" customHeight="1" spans="1:14">
+    <row r="701" spans="1:14" ht="15.75" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="7"/>
@@ -7681,7 +7097,7 @@
       <c r="J701" s="1"/>
       <c r="N701" s="1"/>
     </row>
-    <row r="702" customHeight="1" spans="1:14">
+    <row r="702" spans="1:14" ht="15.75" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="7"/>
@@ -7689,7 +7105,7 @@
       <c r="J702" s="1"/>
       <c r="N702" s="1"/>
     </row>
-    <row r="703" customHeight="1" spans="1:14">
+    <row r="703" spans="1:14" ht="15.75" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="7"/>
@@ -7697,7 +7113,7 @@
       <c r="J703" s="1"/>
       <c r="N703" s="1"/>
     </row>
-    <row r="704" customHeight="1" spans="1:14">
+    <row r="704" spans="1:14" ht="15.75" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="7"/>
@@ -7705,7 +7121,7 @@
       <c r="J704" s="1"/>
       <c r="N704" s="1"/>
     </row>
-    <row r="705" customHeight="1" spans="1:14">
+    <row r="705" spans="1:14" ht="15.75" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="7"/>
@@ -7713,7 +7129,7 @@
       <c r="J705" s="1"/>
       <c r="N705" s="1"/>
     </row>
-    <row r="706" customHeight="1" spans="1:14">
+    <row r="706" spans="1:14" ht="15.75" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="7"/>
@@ -7721,7 +7137,7 @@
       <c r="J706" s="1"/>
       <c r="N706" s="1"/>
     </row>
-    <row r="707" customHeight="1" spans="1:14">
+    <row r="707" spans="1:14" ht="15.75" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="7"/>
@@ -7729,7 +7145,7 @@
       <c r="J707" s="1"/>
       <c r="N707" s="1"/>
     </row>
-    <row r="708" customHeight="1" spans="1:14">
+    <row r="708" spans="1:14" ht="15.75" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="7"/>
@@ -7737,7 +7153,7 @@
       <c r="J708" s="1"/>
       <c r="N708" s="1"/>
     </row>
-    <row r="709" customHeight="1" spans="1:14">
+    <row r="709" spans="1:14" ht="15.75" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="7"/>
@@ -7745,7 +7161,7 @@
       <c r="J709" s="1"/>
       <c r="N709" s="1"/>
     </row>
-    <row r="710" customHeight="1" spans="1:14">
+    <row r="710" spans="1:14" ht="15.75" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="7"/>
@@ -7753,7 +7169,7 @@
       <c r="J710" s="1"/>
       <c r="N710" s="1"/>
     </row>
-    <row r="711" customHeight="1" spans="1:14">
+    <row r="711" spans="1:14" ht="15.75" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="7"/>
@@ -7761,7 +7177,7 @@
       <c r="J711" s="1"/>
       <c r="N711" s="1"/>
     </row>
-    <row r="712" customHeight="1" spans="1:14">
+    <row r="712" spans="1:14" ht="15.75" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="7"/>
@@ -7769,7 +7185,7 @@
       <c r="J712" s="1"/>
       <c r="N712" s="1"/>
     </row>
-    <row r="713" customHeight="1" spans="1:14">
+    <row r="713" spans="1:14" ht="15.75" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="7"/>
@@ -7777,7 +7193,7 @@
       <c r="J713" s="1"/>
       <c r="N713" s="1"/>
     </row>
-    <row r="714" customHeight="1" spans="1:14">
+    <row r="714" spans="1:14" ht="15.75" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="7"/>
@@ -7785,7 +7201,7 @@
       <c r="J714" s="1"/>
       <c r="N714" s="1"/>
     </row>
-    <row r="715" customHeight="1" spans="1:14">
+    <row r="715" spans="1:14" ht="15.75" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="7"/>
@@ -7793,7 +7209,7 @@
       <c r="J715" s="1"/>
       <c r="N715" s="1"/>
     </row>
-    <row r="716" customHeight="1" spans="1:14">
+    <row r="716" spans="1:14" ht="15.75" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="7"/>
@@ -7801,7 +7217,7 @@
       <c r="J716" s="1"/>
       <c r="N716" s="1"/>
     </row>
-    <row r="717" customHeight="1" spans="1:14">
+    <row r="717" spans="1:14" ht="15.75" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="7"/>
@@ -7809,7 +7225,7 @@
       <c r="J717" s="1"/>
       <c r="N717" s="1"/>
     </row>
-    <row r="718" customHeight="1" spans="1:14">
+    <row r="718" spans="1:14" ht="15.75" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="7"/>
@@ -7817,7 +7233,7 @@
       <c r="J718" s="1"/>
       <c r="N718" s="1"/>
     </row>
-    <row r="719" customHeight="1" spans="1:14">
+    <row r="719" spans="1:14" ht="15.75" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="7"/>
@@ -7825,7 +7241,7 @@
       <c r="J719" s="1"/>
       <c r="N719" s="1"/>
     </row>
-    <row r="720" customHeight="1" spans="1:14">
+    <row r="720" spans="1:14" ht="15.75" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="7"/>
@@ -7833,7 +7249,7 @@
       <c r="J720" s="1"/>
       <c r="N720" s="1"/>
     </row>
-    <row r="721" customHeight="1" spans="1:14">
+    <row r="721" spans="1:14" ht="15.75" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="7"/>
@@ -7841,7 +7257,7 @@
       <c r="J721" s="1"/>
       <c r="N721" s="1"/>
     </row>
-    <row r="722" customHeight="1" spans="1:14">
+    <row r="722" spans="1:14" ht="15.75" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="7"/>
@@ -7849,7 +7265,7 @@
       <c r="J722" s="1"/>
       <c r="N722" s="1"/>
     </row>
-    <row r="723" customHeight="1" spans="1:14">
+    <row r="723" spans="1:14" ht="15.75" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="7"/>
@@ -7857,7 +7273,7 @@
       <c r="J723" s="1"/>
       <c r="N723" s="1"/>
     </row>
-    <row r="724" customHeight="1" spans="1:14">
+    <row r="724" spans="1:14" ht="15.75" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="7"/>
@@ -7865,7 +7281,7 @@
       <c r="J724" s="1"/>
       <c r="N724" s="1"/>
     </row>
-    <row r="725" customHeight="1" spans="1:14">
+    <row r="725" spans="1:14" ht="15.75" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="7"/>
@@ -7873,7 +7289,7 @@
       <c r="J725" s="1"/>
       <c r="N725" s="1"/>
     </row>
-    <row r="726" customHeight="1" spans="1:14">
+    <row r="726" spans="1:14" ht="15.75" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="7"/>
@@ -7881,7 +7297,7 @@
       <c r="J726" s="1"/>
       <c r="N726" s="1"/>
     </row>
-    <row r="727" customHeight="1" spans="1:14">
+    <row r="727" spans="1:14" ht="15.75" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="7"/>
@@ -7889,7 +7305,7 @@
       <c r="J727" s="1"/>
       <c r="N727" s="1"/>
     </row>
-    <row r="728" customHeight="1" spans="1:14">
+    <row r="728" spans="1:14" ht="15.75" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="7"/>
@@ -7897,7 +7313,7 @@
       <c r="J728" s="1"/>
       <c r="N728" s="1"/>
     </row>
-    <row r="729" customHeight="1" spans="1:14">
+    <row r="729" spans="1:14" ht="15.75" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="7"/>
@@ -7905,7 +7321,7 @@
       <c r="J729" s="1"/>
       <c r="N729" s="1"/>
     </row>
-    <row r="730" customHeight="1" spans="1:14">
+    <row r="730" spans="1:14" ht="15.75" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="7"/>
@@ -7913,7 +7329,7 @@
       <c r="J730" s="1"/>
       <c r="N730" s="1"/>
     </row>
-    <row r="731" customHeight="1" spans="1:14">
+    <row r="731" spans="1:14" ht="15.75" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="7"/>
@@ -7921,7 +7337,7 @@
       <c r="J731" s="1"/>
       <c r="N731" s="1"/>
     </row>
-    <row r="732" customHeight="1" spans="1:14">
+    <row r="732" spans="1:14" ht="15.75" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="7"/>
@@ -7929,7 +7345,7 @@
       <c r="J732" s="1"/>
       <c r="N732" s="1"/>
     </row>
-    <row r="733" customHeight="1" spans="1:14">
+    <row r="733" spans="1:14" ht="15.75" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="7"/>
@@ -7937,7 +7353,7 @@
       <c r="J733" s="1"/>
       <c r="N733" s="1"/>
     </row>
-    <row r="734" customHeight="1" spans="1:14">
+    <row r="734" spans="1:14" ht="15.75" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="7"/>
@@ -7945,7 +7361,7 @@
       <c r="J734" s="1"/>
       <c r="N734" s="1"/>
     </row>
-    <row r="735" customHeight="1" spans="1:14">
+    <row r="735" spans="1:14" ht="15.75" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="7"/>
@@ -7953,7 +7369,7 @@
       <c r="J735" s="1"/>
       <c r="N735" s="1"/>
     </row>
-    <row r="736" customHeight="1" spans="1:14">
+    <row r="736" spans="1:14" ht="15.75" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="7"/>
@@ -7961,7 +7377,7 @@
       <c r="J736" s="1"/>
       <c r="N736" s="1"/>
     </row>
-    <row r="737" customHeight="1" spans="1:14">
+    <row r="737" spans="1:14" ht="15.75" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="7"/>
@@ -7969,7 +7385,7 @@
       <c r="J737" s="1"/>
       <c r="N737" s="1"/>
     </row>
-    <row r="738" customHeight="1" spans="1:14">
+    <row r="738" spans="1:14" ht="15.75" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="7"/>
@@ -7977,7 +7393,7 @@
       <c r="J738" s="1"/>
       <c r="N738" s="1"/>
     </row>
-    <row r="739" customHeight="1" spans="1:14">
+    <row r="739" spans="1:14" ht="15.75" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="7"/>
@@ -7985,7 +7401,7 @@
       <c r="J739" s="1"/>
       <c r="N739" s="1"/>
     </row>
-    <row r="740" customHeight="1" spans="1:14">
+    <row r="740" spans="1:14" ht="15.75" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="7"/>
@@ -7993,7 +7409,7 @@
       <c r="J740" s="1"/>
       <c r="N740" s="1"/>
     </row>
-    <row r="741" customHeight="1" spans="1:14">
+    <row r="741" spans="1:14" ht="15.75" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="7"/>
@@ -8001,7 +7417,7 @@
       <c r="J741" s="1"/>
       <c r="N741" s="1"/>
     </row>
-    <row r="742" customHeight="1" spans="1:14">
+    <row r="742" spans="1:14" ht="15.75" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="7"/>
@@ -8009,7 +7425,7 @@
       <c r="J742" s="1"/>
       <c r="N742" s="1"/>
     </row>
-    <row r="743" customHeight="1" spans="1:14">
+    <row r="743" spans="1:14" ht="15.75" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="7"/>
@@ -8017,7 +7433,7 @@
       <c r="J743" s="1"/>
       <c r="N743" s="1"/>
     </row>
-    <row r="744" customHeight="1" spans="1:14">
+    <row r="744" spans="1:14" ht="15.75" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="7"/>
@@ -8025,7 +7441,7 @@
       <c r="J744" s="1"/>
       <c r="N744" s="1"/>
     </row>
-    <row r="745" customHeight="1" spans="1:14">
+    <row r="745" spans="1:14" ht="15.75" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="7"/>
@@ -8033,7 +7449,7 @@
       <c r="J745" s="1"/>
       <c r="N745" s="1"/>
     </row>
-    <row r="746" customHeight="1" spans="1:14">
+    <row r="746" spans="1:14" ht="15.75" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="7"/>
@@ -8041,7 +7457,7 @@
       <c r="J746" s="1"/>
       <c r="N746" s="1"/>
     </row>
-    <row r="747" customHeight="1" spans="1:14">
+    <row r="747" spans="1:14" ht="15.75" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="7"/>
@@ -8049,7 +7465,7 @@
       <c r="J747" s="1"/>
       <c r="N747" s="1"/>
     </row>
-    <row r="748" customHeight="1" spans="1:14">
+    <row r="748" spans="1:14" ht="15.75" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="7"/>
@@ -8057,7 +7473,7 @@
       <c r="J748" s="1"/>
       <c r="N748" s="1"/>
     </row>
-    <row r="749" customHeight="1" spans="1:14">
+    <row r="749" spans="1:14" ht="15.75" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="7"/>
@@ -8065,7 +7481,7 @@
       <c r="J749" s="1"/>
       <c r="N749" s="1"/>
     </row>
-    <row r="750" customHeight="1" spans="1:14">
+    <row r="750" spans="1:14" ht="15.75" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="7"/>
@@ -8073,7 +7489,7 @@
       <c r="J750" s="1"/>
       <c r="N750" s="1"/>
     </row>
-    <row r="751" customHeight="1" spans="1:14">
+    <row r="751" spans="1:14" ht="15.75" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="7"/>
@@ -8081,7 +7497,7 @@
       <c r="J751" s="1"/>
       <c r="N751" s="1"/>
     </row>
-    <row r="752" customHeight="1" spans="1:14">
+    <row r="752" spans="1:14" ht="15.75" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="7"/>
@@ -8089,7 +7505,7 @@
       <c r="J752" s="1"/>
       <c r="N752" s="1"/>
     </row>
-    <row r="753" customHeight="1" spans="1:14">
+    <row r="753" spans="1:14" ht="15.75" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="7"/>
@@ -8097,7 +7513,7 @@
       <c r="J753" s="1"/>
       <c r="N753" s="1"/>
     </row>
-    <row r="754" customHeight="1" spans="1:14">
+    <row r="754" spans="1:14" ht="15.75" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="7"/>
@@ -8105,7 +7521,7 @@
       <c r="J754" s="1"/>
       <c r="N754" s="1"/>
     </row>
-    <row r="755" customHeight="1" spans="1:14">
+    <row r="755" spans="1:14" ht="15.75" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="7"/>
@@ -8113,7 +7529,7 @@
       <c r="J755" s="1"/>
       <c r="N755" s="1"/>
     </row>
-    <row r="756" customHeight="1" spans="1:14">
+    <row r="756" spans="1:14" ht="15.75" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="7"/>
@@ -8121,7 +7537,7 @@
       <c r="J756" s="1"/>
       <c r="N756" s="1"/>
     </row>
-    <row r="757" customHeight="1" spans="1:14">
+    <row r="757" spans="1:14" ht="15.75" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="7"/>
@@ -8129,7 +7545,7 @@
       <c r="J757" s="1"/>
       <c r="N757" s="1"/>
     </row>
-    <row r="758" customHeight="1" spans="1:14">
+    <row r="758" spans="1:14" ht="15.75" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="7"/>
@@ -8137,7 +7553,7 @@
       <c r="J758" s="1"/>
       <c r="N758" s="1"/>
     </row>
-    <row r="759" customHeight="1" spans="1:14">
+    <row r="759" spans="1:14" ht="15.75" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="7"/>
@@ -8145,7 +7561,7 @@
       <c r="J759" s="1"/>
       <c r="N759" s="1"/>
     </row>
-    <row r="760" customHeight="1" spans="1:14">
+    <row r="760" spans="1:14" ht="15.75" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="7"/>
@@ -8153,7 +7569,7 @@
       <c r="J760" s="1"/>
       <c r="N760" s="1"/>
     </row>
-    <row r="761" customHeight="1" spans="1:14">
+    <row r="761" spans="1:14" ht="15.75" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="7"/>
@@ -8161,7 +7577,7 @@
       <c r="J761" s="1"/>
       <c r="N761" s="1"/>
     </row>
-    <row r="762" customHeight="1" spans="1:14">
+    <row r="762" spans="1:14" ht="15.75" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="7"/>
@@ -8169,7 +7585,7 @@
       <c r="J762" s="1"/>
       <c r="N762" s="1"/>
     </row>
-    <row r="763" customHeight="1" spans="1:14">
+    <row r="763" spans="1:14" ht="15.75" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="7"/>
@@ -8177,7 +7593,7 @@
       <c r="J763" s="1"/>
       <c r="N763" s="1"/>
     </row>
-    <row r="764" customHeight="1" spans="1:14">
+    <row r="764" spans="1:14" ht="15.75" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="7"/>
@@ -8185,7 +7601,7 @@
       <c r="J764" s="1"/>
       <c r="N764" s="1"/>
     </row>
-    <row r="765" customHeight="1" spans="1:14">
+    <row r="765" spans="1:14" ht="15.75" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="7"/>
@@ -8193,7 +7609,7 @@
       <c r="J765" s="1"/>
       <c r="N765" s="1"/>
     </row>
-    <row r="766" customHeight="1" spans="1:14">
+    <row r="766" spans="1:14" ht="15.75" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="7"/>
@@ -8201,7 +7617,7 @@
       <c r="J766" s="1"/>
       <c r="N766" s="1"/>
     </row>
-    <row r="767" customHeight="1" spans="1:14">
+    <row r="767" spans="1:14" ht="15.75" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="7"/>
@@ -8209,7 +7625,7 @@
       <c r="J767" s="1"/>
       <c r="N767" s="1"/>
     </row>
-    <row r="768" customHeight="1" spans="1:14">
+    <row r="768" spans="1:14" ht="15.75" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="7"/>
@@ -8217,7 +7633,7 @@
       <c r="J768" s="1"/>
       <c r="N768" s="1"/>
     </row>
-    <row r="769" customHeight="1" spans="1:14">
+    <row r="769" spans="1:14" ht="15.75" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="7"/>
@@ -8225,7 +7641,7 @@
       <c r="J769" s="1"/>
       <c r="N769" s="1"/>
     </row>
-    <row r="770" customHeight="1" spans="1:14">
+    <row r="770" spans="1:14" ht="15.75" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="7"/>
@@ -8233,7 +7649,7 @@
       <c r="J770" s="1"/>
       <c r="N770" s="1"/>
     </row>
-    <row r="771" customHeight="1" spans="1:14">
+    <row r="771" spans="1:14" ht="15.75" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="7"/>
@@ -8241,7 +7657,7 @@
       <c r="J771" s="1"/>
       <c r="N771" s="1"/>
     </row>
-    <row r="772" customHeight="1" spans="1:14">
+    <row r="772" spans="1:14" ht="15.75" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="7"/>
@@ -8249,7 +7665,7 @@
       <c r="J772" s="1"/>
       <c r="N772" s="1"/>
     </row>
-    <row r="773" customHeight="1" spans="1:14">
+    <row r="773" spans="1:14" ht="15.75" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="7"/>
@@ -8257,7 +7673,7 @@
       <c r="J773" s="1"/>
       <c r="N773" s="1"/>
     </row>
-    <row r="774" customHeight="1" spans="1:14">
+    <row r="774" spans="1:14" ht="15.75" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="7"/>
@@ -8265,7 +7681,7 @@
       <c r="J774" s="1"/>
       <c r="N774" s="1"/>
     </row>
-    <row r="775" customHeight="1" spans="1:14">
+    <row r="775" spans="1:14" ht="15.75" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="7"/>
@@ -8273,7 +7689,7 @@
       <c r="J775" s="1"/>
       <c r="N775" s="1"/>
     </row>
-    <row r="776" customHeight="1" spans="1:14">
+    <row r="776" spans="1:14" ht="15.75" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="7"/>
@@ -8281,7 +7697,7 @@
       <c r="J776" s="1"/>
       <c r="N776" s="1"/>
     </row>
-    <row r="777" customHeight="1" spans="1:14">
+    <row r="777" spans="1:14" ht="15.75" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="7"/>
@@ -8289,7 +7705,7 @@
       <c r="J777" s="1"/>
       <c r="N777" s="1"/>
     </row>
-    <row r="778" customHeight="1" spans="1:14">
+    <row r="778" spans="1:14" ht="15.75" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="7"/>
@@ -8297,7 +7713,7 @@
       <c r="J778" s="1"/>
       <c r="N778" s="1"/>
     </row>
-    <row r="779" customHeight="1" spans="1:14">
+    <row r="779" spans="1:14" ht="15.75" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="7"/>
@@ -8305,7 +7721,7 @@
       <c r="J779" s="1"/>
       <c r="N779" s="1"/>
     </row>
-    <row r="780" customHeight="1" spans="1:14">
+    <row r="780" spans="1:14" ht="15.75" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="7"/>
@@ -8313,7 +7729,7 @@
       <c r="J780" s="1"/>
       <c r="N780" s="1"/>
     </row>
-    <row r="781" customHeight="1" spans="1:14">
+    <row r="781" spans="1:14" ht="15.75" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="7"/>
@@ -8321,7 +7737,7 @@
       <c r="J781" s="1"/>
       <c r="N781" s="1"/>
     </row>
-    <row r="782" customHeight="1" spans="1:14">
+    <row r="782" spans="1:14" ht="15.75" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="7"/>
@@ -8329,7 +7745,7 @@
       <c r="J782" s="1"/>
       <c r="N782" s="1"/>
     </row>
-    <row r="783" customHeight="1" spans="1:14">
+    <row r="783" spans="1:14" ht="15.75" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="7"/>
@@ -8337,7 +7753,7 @@
       <c r="J783" s="1"/>
       <c r="N783" s="1"/>
     </row>
-    <row r="784" customHeight="1" spans="1:14">
+    <row r="784" spans="1:14" ht="15.75" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="7"/>
@@ -8345,7 +7761,7 @@
       <c r="J784" s="1"/>
       <c r="N784" s="1"/>
     </row>
-    <row r="785" customHeight="1" spans="1:14">
+    <row r="785" spans="1:14" ht="15.75" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="7"/>
@@ -8353,7 +7769,7 @@
       <c r="J785" s="1"/>
       <c r="N785" s="1"/>
     </row>
-    <row r="786" customHeight="1" spans="1:14">
+    <row r="786" spans="1:14" ht="15.75" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="7"/>
@@ -8361,7 +7777,7 @@
       <c r="J786" s="1"/>
       <c r="N786" s="1"/>
     </row>
-    <row r="787" customHeight="1" spans="1:14">
+    <row r="787" spans="1:14" ht="15.75" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="7"/>
@@ -8369,7 +7785,7 @@
       <c r="J787" s="1"/>
       <c r="N787" s="1"/>
     </row>
-    <row r="788" customHeight="1" spans="1:14">
+    <row r="788" spans="1:14" ht="15.75" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="7"/>
@@ -8377,7 +7793,7 @@
       <c r="J788" s="1"/>
       <c r="N788" s="1"/>
     </row>
-    <row r="789" customHeight="1" spans="1:14">
+    <row r="789" spans="1:14" ht="15.75" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="7"/>
@@ -8385,7 +7801,7 @@
       <c r="J789" s="1"/>
       <c r="N789" s="1"/>
     </row>
-    <row r="790" customHeight="1" spans="1:14">
+    <row r="790" spans="1:14" ht="15.75" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="7"/>
@@ -8393,7 +7809,7 @@
       <c r="J790" s="1"/>
       <c r="N790" s="1"/>
     </row>
-    <row r="791" customHeight="1" spans="1:14">
+    <row r="791" spans="1:14" ht="15.75" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="7"/>
@@ -8401,7 +7817,7 @@
       <c r="J791" s="1"/>
       <c r="N791" s="1"/>
     </row>
-    <row r="792" customHeight="1" spans="1:14">
+    <row r="792" spans="1:14" ht="15.75" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="7"/>
@@ -8409,7 +7825,7 @@
       <c r="J792" s="1"/>
       <c r="N792" s="1"/>
     </row>
-    <row r="793" customHeight="1" spans="1:14">
+    <row r="793" spans="1:14" ht="15.75" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="7"/>
@@ -8417,7 +7833,7 @@
       <c r="J793" s="1"/>
       <c r="N793" s="1"/>
     </row>
-    <row r="794" customHeight="1" spans="1:14">
+    <row r="794" spans="1:14" ht="15.75" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="7"/>
@@ -8425,7 +7841,7 @@
       <c r="J794" s="1"/>
       <c r="N794" s="1"/>
     </row>
-    <row r="795" customHeight="1" spans="1:14">
+    <row r="795" spans="1:14" ht="15.75" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="7"/>
@@ -8433,7 +7849,7 @@
       <c r="J795" s="1"/>
       <c r="N795" s="1"/>
     </row>
-    <row r="796" customHeight="1" spans="1:14">
+    <row r="796" spans="1:14" ht="15.75" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="7"/>
@@ -8441,7 +7857,7 @@
       <c r="J796" s="1"/>
       <c r="N796" s="1"/>
     </row>
-    <row r="797" customHeight="1" spans="1:14">
+    <row r="797" spans="1:14" ht="15.75" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="7"/>
@@ -8449,7 +7865,7 @@
       <c r="J797" s="1"/>
       <c r="N797" s="1"/>
     </row>
-    <row r="798" customHeight="1" spans="1:14">
+    <row r="798" spans="1:14" ht="15.75" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="7"/>
@@ -8457,7 +7873,7 @@
       <c r="J798" s="1"/>
       <c r="N798" s="1"/>
     </row>
-    <row r="799" customHeight="1" spans="1:14">
+    <row r="799" spans="1:14" ht="15.75" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="7"/>
@@ -8465,7 +7881,7 @@
       <c r="J799" s="1"/>
       <c r="N799" s="1"/>
     </row>
-    <row r="800" customHeight="1" spans="1:14">
+    <row r="800" spans="1:14" ht="15.75" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="7"/>
@@ -8473,7 +7889,7 @@
       <c r="J800" s="1"/>
       <c r="N800" s="1"/>
     </row>
-    <row r="801" customHeight="1" spans="1:14">
+    <row r="801" spans="1:14" ht="15.75" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="7"/>
@@ -8481,7 +7897,7 @@
       <c r="J801" s="1"/>
       <c r="N801" s="1"/>
     </row>
-    <row r="802" customHeight="1" spans="1:14">
+    <row r="802" spans="1:14" ht="15.75" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="7"/>
@@ -8489,7 +7905,7 @@
       <c r="J802" s="1"/>
       <c r="N802" s="1"/>
     </row>
-    <row r="803" customHeight="1" spans="1:14">
+    <row r="803" spans="1:14" ht="15.75" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="7"/>
@@ -8497,7 +7913,7 @@
       <c r="J803" s="1"/>
       <c r="N803" s="1"/>
     </row>
-    <row r="804" customHeight="1" spans="1:14">
+    <row r="804" spans="1:14" ht="15.75" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="7"/>
@@ -8505,7 +7921,7 @@
       <c r="J804" s="1"/>
       <c r="N804" s="1"/>
     </row>
-    <row r="805" customHeight="1" spans="1:14">
+    <row r="805" spans="1:14" ht="15.75" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="7"/>
@@ -8513,7 +7929,7 @@
       <c r="J805" s="1"/>
       <c r="N805" s="1"/>
     </row>
-    <row r="806" customHeight="1" spans="1:14">
+    <row r="806" spans="1:14" ht="15.75" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="7"/>
@@ -8521,7 +7937,7 @@
       <c r="J806" s="1"/>
       <c r="N806" s="1"/>
     </row>
-    <row r="807" customHeight="1" spans="1:14">
+    <row r="807" spans="1:14" ht="15.75" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="7"/>
@@ -8529,7 +7945,7 @@
       <c r="J807" s="1"/>
       <c r="N807" s="1"/>
     </row>
-    <row r="808" customHeight="1" spans="1:14">
+    <row r="808" spans="1:14" ht="15.75" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="7"/>
@@ -8537,7 +7953,7 @@
       <c r="J808" s="1"/>
       <c r="N808" s="1"/>
     </row>
-    <row r="809" customHeight="1" spans="1:14">
+    <row r="809" spans="1:14" ht="15.75" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="7"/>
@@ -8545,7 +7961,7 @@
       <c r="J809" s="1"/>
       <c r="N809" s="1"/>
     </row>
-    <row r="810" customHeight="1" spans="1:14">
+    <row r="810" spans="1:14" ht="15.75" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="7"/>
@@ -8553,7 +7969,7 @@
       <c r="J810" s="1"/>
       <c r="N810" s="1"/>
     </row>
-    <row r="811" customHeight="1" spans="1:14">
+    <row r="811" spans="1:14" ht="15.75" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="7"/>
@@ -8561,7 +7977,7 @@
       <c r="J811" s="1"/>
       <c r="N811" s="1"/>
     </row>
-    <row r="812" customHeight="1" spans="1:14">
+    <row r="812" spans="1:14" ht="15.75" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="7"/>
@@ -8569,7 +7985,7 @@
       <c r="J812" s="1"/>
       <c r="N812" s="1"/>
     </row>
-    <row r="813" customHeight="1" spans="1:14">
+    <row r="813" spans="1:14" ht="15.75" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="7"/>
@@ -8577,7 +7993,7 @@
       <c r="J813" s="1"/>
       <c r="N813" s="1"/>
     </row>
-    <row r="814" customHeight="1" spans="1:14">
+    <row r="814" spans="1:14" ht="15.75" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="7"/>
@@ -8585,7 +8001,7 @@
       <c r="J814" s="1"/>
       <c r="N814" s="1"/>
     </row>
-    <row r="815" customHeight="1" spans="1:14">
+    <row r="815" spans="1:14" ht="15.75" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="7"/>
@@ -8593,7 +8009,7 @@
       <c r="J815" s="1"/>
       <c r="N815" s="1"/>
     </row>
-    <row r="816" customHeight="1" spans="1:14">
+    <row r="816" spans="1:14" ht="15.75" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="7"/>
@@ -8601,7 +8017,7 @@
       <c r="J816" s="1"/>
       <c r="N816" s="1"/>
     </row>
-    <row r="817" customHeight="1" spans="1:14">
+    <row r="817" spans="1:14" ht="15.75" customHeight="1">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="7"/>
@@ -8609,7 +8025,7 @@
       <c r="J817" s="1"/>
       <c r="N817" s="1"/>
     </row>
-    <row r="818" customHeight="1" spans="1:14">
+    <row r="818" spans="1:14" ht="15.75" customHeight="1">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="7"/>
@@ -8617,7 +8033,7 @@
       <c r="J818" s="1"/>
       <c r="N818" s="1"/>
     </row>
-    <row r="819" customHeight="1" spans="1:14">
+    <row r="819" spans="1:14" ht="15.75" customHeight="1">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="7"/>
@@ -8625,7 +8041,7 @@
       <c r="J819" s="1"/>
       <c r="N819" s="1"/>
     </row>
-    <row r="820" customHeight="1" spans="1:14">
+    <row r="820" spans="1:14" ht="15.75" customHeight="1">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="7"/>
@@ -8633,7 +8049,7 @@
       <c r="J820" s="1"/>
       <c r="N820" s="1"/>
     </row>
-    <row r="821" customHeight="1" spans="1:14">
+    <row r="821" spans="1:14" ht="15.75" customHeight="1">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="7"/>
@@ -8641,7 +8057,7 @@
       <c r="J821" s="1"/>
       <c r="N821" s="1"/>
     </row>
-    <row r="822" customHeight="1" spans="1:14">
+    <row r="822" spans="1:14" ht="15.75" customHeight="1">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="7"/>
@@ -8649,7 +8065,7 @@
       <c r="J822" s="1"/>
       <c r="N822" s="1"/>
     </row>
-    <row r="823" customHeight="1" spans="1:14">
+    <row r="823" spans="1:14" ht="15.75" customHeight="1">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="7"/>
@@ -8657,7 +8073,7 @@
       <c r="J823" s="1"/>
       <c r="N823" s="1"/>
     </row>
-    <row r="824" customHeight="1" spans="1:14">
+    <row r="824" spans="1:14" ht="15.75" customHeight="1">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="7"/>
@@ -8665,7 +8081,7 @@
       <c r="J824" s="1"/>
       <c r="N824" s="1"/>
     </row>
-    <row r="825" customHeight="1" spans="1:14">
+    <row r="825" spans="1:14" ht="15.75" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="7"/>
@@ -8673,7 +8089,7 @@
       <c r="J825" s="1"/>
       <c r="N825" s="1"/>
     </row>
-    <row r="826" customHeight="1" spans="1:14">
+    <row r="826" spans="1:14" ht="15.75" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="7"/>
@@ -8681,7 +8097,7 @@
       <c r="J826" s="1"/>
       <c r="N826" s="1"/>
     </row>
-    <row r="827" customHeight="1" spans="1:14">
+    <row r="827" spans="1:14" ht="15.75" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="7"/>
@@ -8689,7 +8105,7 @@
       <c r="J827" s="1"/>
       <c r="N827" s="1"/>
     </row>
-    <row r="828" customHeight="1" spans="1:14">
+    <row r="828" spans="1:14" ht="15.75" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="7"/>
@@ -8697,7 +8113,7 @@
       <c r="J828" s="1"/>
       <c r="N828" s="1"/>
     </row>
-    <row r="829" customHeight="1" spans="1:14">
+    <row r="829" spans="1:14" ht="15.75" customHeight="1">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="7"/>
@@ -8705,7 +8121,7 @@
       <c r="J829" s="1"/>
       <c r="N829" s="1"/>
     </row>
-    <row r="830" customHeight="1" spans="1:14">
+    <row r="830" spans="1:14" ht="15.75" customHeight="1">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="7"/>
@@ -8713,7 +8129,7 @@
       <c r="J830" s="1"/>
       <c r="N830" s="1"/>
     </row>
-    <row r="831" customHeight="1" spans="1:14">
+    <row r="831" spans="1:14" ht="15.75" customHeight="1">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="7"/>
@@ -8721,7 +8137,7 @@
       <c r="J831" s="1"/>
       <c r="N831" s="1"/>
     </row>
-    <row r="832" customHeight="1" spans="1:14">
+    <row r="832" spans="1:14" ht="15.75" customHeight="1">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="7"/>
@@ -8729,7 +8145,7 @@
       <c r="J832" s="1"/>
       <c r="N832" s="1"/>
     </row>
-    <row r="833" customHeight="1" spans="1:14">
+    <row r="833" spans="1:14" ht="15.75" customHeight="1">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="7"/>
@@ -8737,7 +8153,7 @@
       <c r="J833" s="1"/>
       <c r="N833" s="1"/>
     </row>
-    <row r="834" customHeight="1" spans="1:14">
+    <row r="834" spans="1:14" ht="15.75" customHeight="1">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="7"/>
@@ -8745,7 +8161,7 @@
       <c r="J834" s="1"/>
       <c r="N834" s="1"/>
     </row>
-    <row r="835" customHeight="1" spans="1:14">
+    <row r="835" spans="1:14" ht="15.75" customHeight="1">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="7"/>
@@ -8753,7 +8169,7 @@
       <c r="J835" s="1"/>
       <c r="N835" s="1"/>
     </row>
-    <row r="836" customHeight="1" spans="1:14">
+    <row r="836" spans="1:14" ht="15.75" customHeight="1">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="7"/>
@@ -8761,7 +8177,7 @@
       <c r="J836" s="1"/>
       <c r="N836" s="1"/>
     </row>
-    <row r="837" customHeight="1" spans="1:14">
+    <row r="837" spans="1:14" ht="15.75" customHeight="1">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="7"/>
@@ -8769,7 +8185,7 @@
       <c r="J837" s="1"/>
       <c r="N837" s="1"/>
     </row>
-    <row r="838" customHeight="1" spans="1:14">
+    <row r="838" spans="1:14" ht="15.75" customHeight="1">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="7"/>
@@ -8777,7 +8193,7 @@
       <c r="J838" s="1"/>
       <c r="N838" s="1"/>
     </row>
-    <row r="839" customHeight="1" spans="1:14">
+    <row r="839" spans="1:14" ht="15.75" customHeight="1">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="7"/>
@@ -8785,7 +8201,7 @@
       <c r="J839" s="1"/>
       <c r="N839" s="1"/>
     </row>
-    <row r="840" customHeight="1" spans="1:14">
+    <row r="840" spans="1:14" ht="15.75" customHeight="1">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="7"/>
@@ -8793,7 +8209,7 @@
       <c r="J840" s="1"/>
       <c r="N840" s="1"/>
     </row>
-    <row r="841" customHeight="1" spans="1:14">
+    <row r="841" spans="1:14" ht="15.75" customHeight="1">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="7"/>
@@ -8801,7 +8217,7 @@
       <c r="J841" s="1"/>
       <c r="N841" s="1"/>
     </row>
-    <row r="842" customHeight="1" spans="1:14">
+    <row r="842" spans="1:14" ht="15.75" customHeight="1">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="7"/>
@@ -8809,7 +8225,7 @@
       <c r="J842" s="1"/>
       <c r="N842" s="1"/>
     </row>
-    <row r="843" customHeight="1" spans="1:14">
+    <row r="843" spans="1:14" ht="15.75" customHeight="1">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="7"/>
@@ -8817,7 +8233,7 @@
       <c r="J843" s="1"/>
       <c r="N843" s="1"/>
     </row>
-    <row r="844" customHeight="1" spans="1:14">
+    <row r="844" spans="1:14" ht="15.75" customHeight="1">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="7"/>
@@ -8825,7 +8241,7 @@
       <c r="J844" s="1"/>
       <c r="N844" s="1"/>
     </row>
-    <row r="845" customHeight="1" spans="1:14">
+    <row r="845" spans="1:14" ht="15.75" customHeight="1">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="7"/>
@@ -8833,7 +8249,7 @@
       <c r="J845" s="1"/>
       <c r="N845" s="1"/>
     </row>
-    <row r="846" customHeight="1" spans="1:14">
+    <row r="846" spans="1:14" ht="15.75" customHeight="1">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="7"/>
@@ -8841,7 +8257,7 @@
       <c r="J846" s="1"/>
       <c r="N846" s="1"/>
     </row>
-    <row r="847" customHeight="1" spans="1:14">
+    <row r="847" spans="1:14" ht="15.75" customHeight="1">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="7"/>
@@ -8849,7 +8265,7 @@
       <c r="J847" s="1"/>
       <c r="N847" s="1"/>
     </row>
-    <row r="848" customHeight="1" spans="1:14">
+    <row r="848" spans="1:14" ht="15.75" customHeight="1">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="7"/>
@@ -8857,7 +8273,7 @@
       <c r="J848" s="1"/>
       <c r="N848" s="1"/>
     </row>
-    <row r="849" customHeight="1" spans="1:14">
+    <row r="849" spans="1:14" ht="15.75" customHeight="1">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="7"/>
@@ -8865,7 +8281,7 @@
       <c r="J849" s="1"/>
       <c r="N849" s="1"/>
     </row>
-    <row r="850" customHeight="1" spans="1:14">
+    <row r="850" spans="1:14" ht="15.75" customHeight="1">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="7"/>
@@ -8873,7 +8289,7 @@
       <c r="J850" s="1"/>
       <c r="N850" s="1"/>
     </row>
-    <row r="851" customHeight="1" spans="1:14">
+    <row r="851" spans="1:14" ht="15.75" customHeight="1">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="7"/>
@@ -8881,7 +8297,7 @@
       <c r="J851" s="1"/>
       <c r="N851" s="1"/>
     </row>
-    <row r="852" customHeight="1" spans="1:14">
+    <row r="852" spans="1:14" ht="15.75" customHeight="1">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="7"/>
@@ -8889,7 +8305,7 @@
       <c r="J852" s="1"/>
       <c r="N852" s="1"/>
     </row>
-    <row r="853" customHeight="1" spans="1:14">
+    <row r="853" spans="1:14" ht="15.75" customHeight="1">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="7"/>
@@ -8897,7 +8313,7 @@
       <c r="J853" s="1"/>
       <c r="N853" s="1"/>
     </row>
-    <row r="854" customHeight="1" spans="1:14">
+    <row r="854" spans="1:14" ht="15.75" customHeight="1">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="7"/>
@@ -8905,7 +8321,7 @@
       <c r="J854" s="1"/>
       <c r="N854" s="1"/>
     </row>
-    <row r="855" customHeight="1" spans="1:14">
+    <row r="855" spans="1:14" ht="15.75" customHeight="1">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="7"/>
@@ -8913,7 +8329,7 @@
       <c r="J855" s="1"/>
       <c r="N855" s="1"/>
     </row>
-    <row r="856" customHeight="1" spans="1:14">
+    <row r="856" spans="1:14" ht="15.75" customHeight="1">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="7"/>
@@ -8921,7 +8337,7 @@
       <c r="J856" s="1"/>
       <c r="N856" s="1"/>
     </row>
-    <row r="857" customHeight="1" spans="1:14">
+    <row r="857" spans="1:14" ht="15.75" customHeight="1">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="7"/>
@@ -8929,7 +8345,7 @@
       <c r="J857" s="1"/>
       <c r="N857" s="1"/>
     </row>
-    <row r="858" customHeight="1" spans="1:14">
+    <row r="858" spans="1:14" ht="15.75" customHeight="1">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="7"/>
@@ -8937,7 +8353,7 @@
       <c r="J858" s="1"/>
       <c r="N858" s="1"/>
     </row>
-    <row r="859" customHeight="1" spans="1:14">
+    <row r="859" spans="1:14" ht="15.75" customHeight="1">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="7"/>
@@ -8945,7 +8361,7 @@
       <c r="J859" s="1"/>
       <c r="N859" s="1"/>
     </row>
-    <row r="860" customHeight="1" spans="1:14">
+    <row r="860" spans="1:14" ht="15.75" customHeight="1">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="7"/>
@@ -8953,7 +8369,7 @@
       <c r="J860" s="1"/>
       <c r="N860" s="1"/>
     </row>
-    <row r="861" customHeight="1" spans="1:14">
+    <row r="861" spans="1:14" ht="15.75" customHeight="1">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="7"/>
@@ -8961,7 +8377,7 @@
       <c r="J861" s="1"/>
       <c r="N861" s="1"/>
     </row>
-    <row r="862" customHeight="1" spans="1:14">
+    <row r="862" spans="1:14" ht="15.75" customHeight="1">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="7"/>
@@ -8969,7 +8385,7 @@
       <c r="J862" s="1"/>
       <c r="N862" s="1"/>
     </row>
-    <row r="863" customHeight="1" spans="1:14">
+    <row r="863" spans="1:14" ht="15.75" customHeight="1">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="7"/>
@@ -8977,7 +8393,7 @@
       <c r="J863" s="1"/>
       <c r="N863" s="1"/>
     </row>
-    <row r="864" customHeight="1" spans="1:14">
+    <row r="864" spans="1:14" ht="15.75" customHeight="1">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="7"/>
@@ -8985,7 +8401,7 @@
       <c r="J864" s="1"/>
       <c r="N864" s="1"/>
     </row>
-    <row r="865" customHeight="1" spans="1:14">
+    <row r="865" spans="1:14" ht="15.75" customHeight="1">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="7"/>
@@ -8993,7 +8409,7 @@
       <c r="J865" s="1"/>
       <c r="N865" s="1"/>
     </row>
-    <row r="866" customHeight="1" spans="1:14">
+    <row r="866" spans="1:14" ht="15.75" customHeight="1">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="7"/>
@@ -9001,7 +8417,7 @@
       <c r="J866" s="1"/>
       <c r="N866" s="1"/>
     </row>
-    <row r="867" customHeight="1" spans="1:14">
+    <row r="867" spans="1:14" ht="15.75" customHeight="1">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="7"/>
@@ -9009,7 +8425,7 @@
       <c r="J867" s="1"/>
       <c r="N867" s="1"/>
     </row>
-    <row r="868" customHeight="1" spans="1:14">
+    <row r="868" spans="1:14" ht="15.75" customHeight="1">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="7"/>
@@ -9017,7 +8433,7 @@
       <c r="J868" s="1"/>
       <c r="N868" s="1"/>
     </row>
-    <row r="869" customHeight="1" spans="1:14">
+    <row r="869" spans="1:14" ht="15.75" customHeight="1">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="7"/>
@@ -9025,7 +8441,7 @@
       <c r="J869" s="1"/>
       <c r="N869" s="1"/>
     </row>
-    <row r="870" customHeight="1" spans="1:14">
+    <row r="870" spans="1:14" ht="15.75" customHeight="1">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="7"/>
@@ -9033,7 +8449,7 @@
       <c r="J870" s="1"/>
       <c r="N870" s="1"/>
     </row>
-    <row r="871" customHeight="1" spans="1:14">
+    <row r="871" spans="1:14" ht="15.75" customHeight="1">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="7"/>
@@ -9041,7 +8457,7 @@
       <c r="J871" s="1"/>
       <c r="N871" s="1"/>
     </row>
-    <row r="872" customHeight="1" spans="1:14">
+    <row r="872" spans="1:14" ht="15.75" customHeight="1">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="7"/>
@@ -9049,7 +8465,7 @@
       <c r="J872" s="1"/>
       <c r="N872" s="1"/>
     </row>
-    <row r="873" customHeight="1" spans="1:14">
+    <row r="873" spans="1:14" ht="15.75" customHeight="1">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="7"/>
@@ -9057,7 +8473,7 @@
       <c r="J873" s="1"/>
       <c r="N873" s="1"/>
     </row>
-    <row r="874" customHeight="1" spans="1:14">
+    <row r="874" spans="1:14" ht="15.75" customHeight="1">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="7"/>
@@ -9065,7 +8481,7 @@
       <c r="J874" s="1"/>
       <c r="N874" s="1"/>
     </row>
-    <row r="875" customHeight="1" spans="1:14">
+    <row r="875" spans="1:14" ht="15.75" customHeight="1">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="7"/>
@@ -9073,7 +8489,7 @@
       <c r="J875" s="1"/>
       <c r="N875" s="1"/>
     </row>
-    <row r="876" customHeight="1" spans="1:14">
+    <row r="876" spans="1:14" ht="15.75" customHeight="1">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="7"/>
@@ -9081,7 +8497,7 @@
       <c r="J876" s="1"/>
       <c r="N876" s="1"/>
     </row>
-    <row r="877" customHeight="1" spans="1:14">
+    <row r="877" spans="1:14" ht="15.75" customHeight="1">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="7"/>
@@ -9089,7 +8505,7 @@
       <c r="J877" s="1"/>
       <c r="N877" s="1"/>
     </row>
-    <row r="878" customHeight="1" spans="1:14">
+    <row r="878" spans="1:14" ht="15.75" customHeight="1">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="7"/>
@@ -9097,7 +8513,7 @@
       <c r="J878" s="1"/>
       <c r="N878" s="1"/>
     </row>
-    <row r="879" customHeight="1" spans="1:14">
+    <row r="879" spans="1:14" ht="15.75" customHeight="1">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="7"/>
@@ -9105,7 +8521,7 @@
       <c r="J879" s="1"/>
       <c r="N879" s="1"/>
     </row>
-    <row r="880" customHeight="1" spans="1:14">
+    <row r="880" spans="1:14" ht="15.75" customHeight="1">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="7"/>
@@ -9113,7 +8529,7 @@
       <c r="J880" s="1"/>
       <c r="N880" s="1"/>
     </row>
-    <row r="881" customHeight="1" spans="1:14">
+    <row r="881" spans="1:14" ht="15.75" customHeight="1">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="7"/>
@@ -9121,7 +8537,7 @@
       <c r="J881" s="1"/>
       <c r="N881" s="1"/>
     </row>
-    <row r="882" customHeight="1" spans="1:14">
+    <row r="882" spans="1:14" ht="15.75" customHeight="1">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="7"/>
@@ -9129,7 +8545,7 @@
       <c r="J882" s="1"/>
       <c r="N882" s="1"/>
     </row>
-    <row r="883" customHeight="1" spans="1:14">
+    <row r="883" spans="1:14" ht="15.75" customHeight="1">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="7"/>
@@ -9137,7 +8553,7 @@
       <c r="J883" s="1"/>
       <c r="N883" s="1"/>
     </row>
-    <row r="884" customHeight="1" spans="1:14">
+    <row r="884" spans="1:14" ht="15.75" customHeight="1">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="7"/>
@@ -9145,7 +8561,7 @@
       <c r="J884" s="1"/>
       <c r="N884" s="1"/>
     </row>
-    <row r="885" customHeight="1" spans="1:14">
+    <row r="885" spans="1:14" ht="15.75" customHeight="1">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="7"/>
@@ -9153,7 +8569,7 @@
       <c r="J885" s="1"/>
       <c r="N885" s="1"/>
     </row>
-    <row r="886" customHeight="1" spans="1:14">
+    <row r="886" spans="1:14" ht="15.75" customHeight="1">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="7"/>
@@ -9161,7 +8577,7 @@
       <c r="J886" s="1"/>
       <c r="N886" s="1"/>
     </row>
-    <row r="887" customHeight="1" spans="1:14">
+    <row r="887" spans="1:14" ht="15.75" customHeight="1">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="7"/>
@@ -9169,7 +8585,7 @@
       <c r="J887" s="1"/>
       <c r="N887" s="1"/>
     </row>
-    <row r="888" customHeight="1" spans="1:14">
+    <row r="888" spans="1:14" ht="15.75" customHeight="1">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="7"/>
@@ -9177,7 +8593,7 @@
       <c r="J888" s="1"/>
       <c r="N888" s="1"/>
     </row>
-    <row r="889" customHeight="1" spans="1:14">
+    <row r="889" spans="1:14" ht="15.75" customHeight="1">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="7"/>
@@ -9185,7 +8601,7 @@
       <c r="J889" s="1"/>
       <c r="N889" s="1"/>
     </row>
-    <row r="890" customHeight="1" spans="1:14">
+    <row r="890" spans="1:14" ht="15.75" customHeight="1">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="7"/>
@@ -9193,7 +8609,7 @@
       <c r="J890" s="1"/>
       <c r="N890" s="1"/>
     </row>
-    <row r="891" customHeight="1" spans="1:14">
+    <row r="891" spans="1:14" ht="15.75" customHeight="1">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="7"/>
@@ -9201,7 +8617,7 @@
       <c r="J891" s="1"/>
       <c r="N891" s="1"/>
     </row>
-    <row r="892" customHeight="1" spans="1:14">
+    <row r="892" spans="1:14" ht="15.75" customHeight="1">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="7"/>
@@ -9209,7 +8625,7 @@
       <c r="J892" s="1"/>
       <c r="N892" s="1"/>
     </row>
-    <row r="893" customHeight="1" spans="1:14">
+    <row r="893" spans="1:14" ht="15.75" customHeight="1">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="7"/>
@@ -9217,7 +8633,7 @@
       <c r="J893" s="1"/>
       <c r="N893" s="1"/>
     </row>
-    <row r="894" customHeight="1" spans="1:14">
+    <row r="894" spans="1:14" ht="15.75" customHeight="1">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="7"/>
@@ -9225,7 +8641,7 @@
       <c r="J894" s="1"/>
       <c r="N894" s="1"/>
     </row>
-    <row r="895" customHeight="1" spans="1:14">
+    <row r="895" spans="1:14" ht="15.75" customHeight="1">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="7"/>
@@ -9233,7 +8649,7 @@
       <c r="J895" s="1"/>
       <c r="N895" s="1"/>
     </row>
-    <row r="896" customHeight="1" spans="1:14">
+    <row r="896" spans="1:14" ht="15.75" customHeight="1">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="7"/>
@@ -9241,7 +8657,7 @@
       <c r="J896" s="1"/>
       <c r="N896" s="1"/>
     </row>
-    <row r="897" customHeight="1" spans="1:14">
+    <row r="897" spans="1:14" ht="15.75" customHeight="1">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="7"/>
@@ -9249,7 +8665,7 @@
       <c r="J897" s="1"/>
       <c r="N897" s="1"/>
     </row>
-    <row r="898" customHeight="1" spans="1:14">
+    <row r="898" spans="1:14" ht="15.75" customHeight="1">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="7"/>
@@ -9257,7 +8673,7 @@
       <c r="J898" s="1"/>
       <c r="N898" s="1"/>
     </row>
-    <row r="899" customHeight="1" spans="1:14">
+    <row r="899" spans="1:14" ht="15.75" customHeight="1">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="7"/>
@@ -9265,7 +8681,7 @@
       <c r="J899" s="1"/>
       <c r="N899" s="1"/>
     </row>
-    <row r="900" customHeight="1" spans="1:14">
+    <row r="900" spans="1:14" ht="15.75" customHeight="1">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="7"/>
@@ -9273,7 +8689,7 @@
       <c r="J900" s="1"/>
       <c r="N900" s="1"/>
     </row>
-    <row r="901" customHeight="1" spans="1:14">
+    <row r="901" spans="1:14" ht="15.75" customHeight="1">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="7"/>
@@ -9281,7 +8697,7 @@
       <c r="J901" s="1"/>
       <c r="N901" s="1"/>
     </row>
-    <row r="902" customHeight="1" spans="1:14">
+    <row r="902" spans="1:14" ht="15.75" customHeight="1">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="7"/>
@@ -9289,7 +8705,7 @@
       <c r="J902" s="1"/>
       <c r="N902" s="1"/>
     </row>
-    <row r="903" customHeight="1" spans="1:14">
+    <row r="903" spans="1:14" ht="15.75" customHeight="1">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="7"/>
@@ -9297,7 +8713,7 @@
       <c r="J903" s="1"/>
       <c r="N903" s="1"/>
     </row>
-    <row r="904" customHeight="1" spans="1:14">
+    <row r="904" spans="1:14" ht="15.75" customHeight="1">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="7"/>
@@ -9305,7 +8721,7 @@
       <c r="J904" s="1"/>
       <c r="N904" s="1"/>
     </row>
-    <row r="905" customHeight="1" spans="1:14">
+    <row r="905" spans="1:14" ht="15.75" customHeight="1">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="7"/>
@@ -9313,7 +8729,7 @@
       <c r="J905" s="1"/>
       <c r="N905" s="1"/>
     </row>
-    <row r="906" customHeight="1" spans="1:14">
+    <row r="906" spans="1:14" ht="15.75" customHeight="1">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="7"/>
@@ -9321,7 +8737,7 @@
       <c r="J906" s="1"/>
       <c r="N906" s="1"/>
     </row>
-    <row r="907" customHeight="1" spans="1:14">
+    <row r="907" spans="1:14" ht="15.75" customHeight="1">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="7"/>
@@ -9329,7 +8745,7 @@
       <c r="J907" s="1"/>
       <c r="N907" s="1"/>
     </row>
-    <row r="908" customHeight="1" spans="1:14">
+    <row r="908" spans="1:14" ht="15.75" customHeight="1">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="7"/>
@@ -9337,7 +8753,7 @@
       <c r="J908" s="1"/>
       <c r="N908" s="1"/>
     </row>
-    <row r="909" customHeight="1" spans="1:14">
+    <row r="909" spans="1:14" ht="15.75" customHeight="1">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="7"/>
@@ -9345,7 +8761,7 @@
       <c r="J909" s="1"/>
       <c r="N909" s="1"/>
     </row>
-    <row r="910" customHeight="1" spans="1:14">
+    <row r="910" spans="1:14" ht="15.75" customHeight="1">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="7"/>
@@ -9353,7 +8769,7 @@
       <c r="J910" s="1"/>
       <c r="N910" s="1"/>
     </row>
-    <row r="911" customHeight="1" spans="1:14">
+    <row r="911" spans="1:14" ht="15.75" customHeight="1">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="7"/>
@@ -9361,7 +8777,7 @@
       <c r="J911" s="1"/>
       <c r="N911" s="1"/>
     </row>
-    <row r="912" customHeight="1" spans="1:14">
+    <row r="912" spans="1:14" ht="15.75" customHeight="1">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="7"/>
@@ -9369,7 +8785,7 @@
       <c r="J912" s="1"/>
       <c r="N912" s="1"/>
     </row>
-    <row r="913" customHeight="1" spans="1:14">
+    <row r="913" spans="1:14" ht="15.75" customHeight="1">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="7"/>
@@ -9377,7 +8793,7 @@
       <c r="J913" s="1"/>
       <c r="N913" s="1"/>
     </row>
-    <row r="914" customHeight="1" spans="1:14">
+    <row r="914" spans="1:14" ht="15.75" customHeight="1">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="7"/>
@@ -9385,7 +8801,7 @@
       <c r="J914" s="1"/>
       <c r="N914" s="1"/>
     </row>
-    <row r="915" customHeight="1" spans="1:14">
+    <row r="915" spans="1:14" ht="15.75" customHeight="1">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="7"/>
@@ -9393,7 +8809,7 @@
       <c r="J915" s="1"/>
       <c r="N915" s="1"/>
     </row>
-    <row r="916" customHeight="1" spans="1:14">
+    <row r="916" spans="1:14" ht="15.75" customHeight="1">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="7"/>
@@ -9401,7 +8817,7 @@
       <c r="J916" s="1"/>
       <c r="N916" s="1"/>
     </row>
-    <row r="917" customHeight="1" spans="1:14">
+    <row r="917" spans="1:14" ht="15.75" customHeight="1">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="7"/>
@@ -9409,7 +8825,7 @@
       <c r="J917" s="1"/>
       <c r="N917" s="1"/>
     </row>
-    <row r="918" customHeight="1" spans="1:14">
+    <row r="918" spans="1:14" ht="15.75" customHeight="1">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="7"/>
@@ -9417,7 +8833,7 @@
       <c r="J918" s="1"/>
       <c r="N918" s="1"/>
     </row>
-    <row r="919" customHeight="1" spans="1:14">
+    <row r="919" spans="1:14" ht="15.75" customHeight="1">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="7"/>
@@ -9425,7 +8841,7 @@
       <c r="J919" s="1"/>
       <c r="N919" s="1"/>
     </row>
-    <row r="920" customHeight="1" spans="1:14">
+    <row r="920" spans="1:14" ht="15.75" customHeight="1">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="7"/>
@@ -9433,7 +8849,7 @@
       <c r="J920" s="1"/>
       <c r="N920" s="1"/>
     </row>
-    <row r="921" customHeight="1" spans="1:14">
+    <row r="921" spans="1:14" ht="15.75" customHeight="1">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="7"/>
@@ -9441,7 +8857,7 @@
       <c r="J921" s="1"/>
       <c r="N921" s="1"/>
     </row>
-    <row r="922" customHeight="1" spans="1:14">
+    <row r="922" spans="1:14" ht="15.75" customHeight="1">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="7"/>
@@ -9449,7 +8865,7 @@
       <c r="J922" s="1"/>
       <c r="N922" s="1"/>
     </row>
-    <row r="923" customHeight="1" spans="1:14">
+    <row r="923" spans="1:14" ht="15.75" customHeight="1">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="7"/>
@@ -9457,7 +8873,7 @@
       <c r="J923" s="1"/>
       <c r="N923" s="1"/>
     </row>
-    <row r="924" customHeight="1" spans="1:14">
+    <row r="924" spans="1:14" ht="15.75" customHeight="1">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="7"/>
@@ -9465,7 +8881,7 @@
       <c r="J924" s="1"/>
       <c r="N924" s="1"/>
     </row>
-    <row r="925" customHeight="1" spans="1:14">
+    <row r="925" spans="1:14" ht="15.75" customHeight="1">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="7"/>
@@ -9473,7 +8889,7 @@
       <c r="J925" s="1"/>
       <c r="N925" s="1"/>
     </row>
-    <row r="926" customHeight="1" spans="1:14">
+    <row r="926" spans="1:14" ht="15.75" customHeight="1">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="7"/>
@@ -9481,7 +8897,7 @@
       <c r="J926" s="1"/>
       <c r="N926" s="1"/>
     </row>
-    <row r="927" customHeight="1" spans="1:14">
+    <row r="927" spans="1:14" ht="15.75" customHeight="1">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="7"/>
@@ -9489,7 +8905,7 @@
       <c r="J927" s="1"/>
       <c r="N927" s="1"/>
     </row>
-    <row r="928" customHeight="1" spans="1:14">
+    <row r="928" spans="1:14" ht="15.75" customHeight="1">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="7"/>
@@ -9497,7 +8913,7 @@
       <c r="J928" s="1"/>
       <c r="N928" s="1"/>
     </row>
-    <row r="929" customHeight="1" spans="1:14">
+    <row r="929" spans="1:14" ht="15.75" customHeight="1">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="7"/>
@@ -9505,7 +8921,7 @@
       <c r="J929" s="1"/>
       <c r="N929" s="1"/>
     </row>
-    <row r="930" customHeight="1" spans="1:14">
+    <row r="930" spans="1:14" ht="15.75" customHeight="1">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="7"/>
@@ -9513,7 +8929,7 @@
       <c r="J930" s="1"/>
       <c r="N930" s="1"/>
     </row>
-    <row r="931" customHeight="1" spans="1:14">
+    <row r="931" spans="1:14" ht="15.75" customHeight="1">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="7"/>
@@ -9521,7 +8937,7 @@
       <c r="J931" s="1"/>
       <c r="N931" s="1"/>
     </row>
-    <row r="932" customHeight="1" spans="1:14">
+    <row r="932" spans="1:14" ht="15.75" customHeight="1">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="7"/>
@@ -9529,7 +8945,7 @@
       <c r="J932" s="1"/>
       <c r="N932" s="1"/>
     </row>
-    <row r="933" customHeight="1" spans="1:14">
+    <row r="933" spans="1:14" ht="15.75" customHeight="1">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="7"/>
@@ -9537,7 +8953,7 @@
       <c r="J933" s="1"/>
       <c r="N933" s="1"/>
     </row>
-    <row r="934" customHeight="1" spans="1:14">
+    <row r="934" spans="1:14" ht="15.75" customHeight="1">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="7"/>
@@ -9545,7 +8961,7 @@
       <c r="J934" s="1"/>
       <c r="N934" s="1"/>
     </row>
-    <row r="935" customHeight="1" spans="1:14">
+    <row r="935" spans="1:14" ht="15.75" customHeight="1">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="7"/>
@@ -9553,7 +8969,7 @@
       <c r="J935" s="1"/>
       <c r="N935" s="1"/>
     </row>
-    <row r="936" customHeight="1" spans="1:14">
+    <row r="936" spans="1:14" ht="15.75" customHeight="1">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="7"/>
@@ -9561,7 +8977,7 @@
       <c r="J936" s="1"/>
       <c r="N936" s="1"/>
     </row>
-    <row r="937" customHeight="1" spans="1:14">
+    <row r="937" spans="1:14" ht="15.75" customHeight="1">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="7"/>
@@ -9569,7 +8985,7 @@
       <c r="J937" s="1"/>
       <c r="N937" s="1"/>
     </row>
-    <row r="938" customHeight="1" spans="1:14">
+    <row r="938" spans="1:14" ht="15.75" customHeight="1">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="7"/>
@@ -9577,7 +8993,7 @@
       <c r="J938" s="1"/>
       <c r="N938" s="1"/>
     </row>
-    <row r="939" customHeight="1" spans="1:14">
+    <row r="939" spans="1:14" ht="15.75" customHeight="1">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="7"/>
@@ -9585,7 +9001,7 @@
       <c r="J939" s="1"/>
       <c r="N939" s="1"/>
     </row>
-    <row r="940" customHeight="1" spans="1:14">
+    <row r="940" spans="1:14" ht="15.75" customHeight="1">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="7"/>
@@ -9593,7 +9009,7 @@
       <c r="J940" s="1"/>
       <c r="N940" s="1"/>
     </row>
-    <row r="941" customHeight="1" spans="1:14">
+    <row r="941" spans="1:14" ht="15.75" customHeight="1">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="7"/>
@@ -9601,7 +9017,7 @@
       <c r="J941" s="1"/>
       <c r="N941" s="1"/>
     </row>
-    <row r="942" customHeight="1" spans="1:14">
+    <row r="942" spans="1:14" ht="15.75" customHeight="1">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="7"/>
@@ -9609,7 +9025,7 @@
       <c r="J942" s="1"/>
       <c r="N942" s="1"/>
     </row>
-    <row r="943" customHeight="1" spans="1:14">
+    <row r="943" spans="1:14" ht="15.75" customHeight="1">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="7"/>
@@ -9617,7 +9033,7 @@
       <c r="J943" s="1"/>
       <c r="N943" s="1"/>
     </row>
-    <row r="944" customHeight="1" spans="1:14">
+    <row r="944" spans="1:14" ht="15.75" customHeight="1">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="7"/>
@@ -9625,7 +9041,7 @@
       <c r="J944" s="1"/>
       <c r="N944" s="1"/>
     </row>
-    <row r="945" customHeight="1" spans="1:14">
+    <row r="945" spans="1:14" ht="15.75" customHeight="1">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="7"/>
@@ -9633,7 +9049,7 @@
       <c r="J945" s="1"/>
       <c r="N945" s="1"/>
     </row>
-    <row r="946" customHeight="1" spans="1:14">
+    <row r="946" spans="1:14" ht="15.75" customHeight="1">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="7"/>
@@ -9641,7 +9057,7 @@
       <c r="J946" s="1"/>
       <c r="N946" s="1"/>
     </row>
-    <row r="947" customHeight="1" spans="1:14">
+    <row r="947" spans="1:14" ht="15.75" customHeight="1">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="7"/>
@@ -9649,7 +9065,7 @@
       <c r="J947" s="1"/>
       <c r="N947" s="1"/>
     </row>
-    <row r="948" customHeight="1" spans="1:14">
+    <row r="948" spans="1:14" ht="15.75" customHeight="1">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="7"/>
@@ -9657,7 +9073,7 @@
       <c r="J948" s="1"/>
       <c r="N948" s="1"/>
     </row>
-    <row r="949" customHeight="1" spans="1:14">
+    <row r="949" spans="1:14" ht="15.75" customHeight="1">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="7"/>
@@ -9665,7 +9081,7 @@
       <c r="J949" s="1"/>
       <c r="N949" s="1"/>
     </row>
-    <row r="950" customHeight="1" spans="1:14">
+    <row r="950" spans="1:14" ht="15.75" customHeight="1">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="7"/>
@@ -9673,7 +9089,7 @@
       <c r="J950" s="1"/>
       <c r="N950" s="1"/>
     </row>
-    <row r="951" customHeight="1" spans="1:14">
+    <row r="951" spans="1:14" ht="15.75" customHeight="1">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="7"/>
@@ -9681,7 +9097,7 @@
       <c r="J951" s="1"/>
       <c r="N951" s="1"/>
     </row>
-    <row r="952" customHeight="1" spans="1:14">
+    <row r="952" spans="1:14" ht="15.75" customHeight="1">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="7"/>
@@ -9689,7 +9105,7 @@
       <c r="J952" s="1"/>
       <c r="N952" s="1"/>
     </row>
-    <row r="953" customHeight="1" spans="1:14">
+    <row r="953" spans="1:14" ht="15.75" customHeight="1">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="7"/>
@@ -9697,7 +9113,7 @@
       <c r="J953" s="1"/>
       <c r="N953" s="1"/>
     </row>
-    <row r="954" customHeight="1" spans="1:14">
+    <row r="954" spans="1:14" ht="15.75" customHeight="1">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="7"/>
@@ -9705,7 +9121,7 @@
       <c r="J954" s="1"/>
       <c r="N954" s="1"/>
     </row>
-    <row r="955" customHeight="1" spans="1:14">
+    <row r="955" spans="1:14" ht="15.75" customHeight="1">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="7"/>
@@ -9713,7 +9129,7 @@
       <c r="J955" s="1"/>
       <c r="N955" s="1"/>
     </row>
-    <row r="956" customHeight="1" spans="1:14">
+    <row r="956" spans="1:14" ht="15.75" customHeight="1">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="7"/>
@@ -9721,7 +9137,7 @@
       <c r="J956" s="1"/>
       <c r="N956" s="1"/>
     </row>
-    <row r="957" customHeight="1" spans="1:14">
+    <row r="957" spans="1:14" ht="15.75" customHeight="1">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="7"/>
@@ -9729,7 +9145,7 @@
       <c r="J957" s="1"/>
       <c r="N957" s="1"/>
     </row>
-    <row r="958" customHeight="1" spans="1:14">
+    <row r="958" spans="1:14" ht="15.75" customHeight="1">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="7"/>
@@ -9737,7 +9153,7 @@
       <c r="J958" s="1"/>
       <c r="N958" s="1"/>
     </row>
-    <row r="959" customHeight="1" spans="1:14">
+    <row r="959" spans="1:14" ht="15.75" customHeight="1">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="7"/>
@@ -9745,7 +9161,7 @@
       <c r="J959" s="1"/>
       <c r="N959" s="1"/>
     </row>
-    <row r="960" customHeight="1" spans="1:14">
+    <row r="960" spans="1:14" ht="15.75" customHeight="1">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="7"/>
@@ -9753,7 +9169,7 @@
       <c r="J960" s="1"/>
       <c r="N960" s="1"/>
     </row>
-    <row r="961" customHeight="1" spans="1:14">
+    <row r="961" spans="1:14" ht="15.75" customHeight="1">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="7"/>
@@ -9761,7 +9177,7 @@
       <c r="J961" s="1"/>
       <c r="N961" s="1"/>
     </row>
-    <row r="962" customHeight="1" spans="1:14">
+    <row r="962" spans="1:14" ht="15.75" customHeight="1">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="7"/>
@@ -9769,7 +9185,7 @@
       <c r="J962" s="1"/>
       <c r="N962" s="1"/>
     </row>
-    <row r="963" customHeight="1" spans="1:14">
+    <row r="963" spans="1:14" ht="15.75" customHeight="1">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="7"/>
@@ -9777,7 +9193,7 @@
       <c r="J963" s="1"/>
       <c r="N963" s="1"/>
     </row>
-    <row r="964" customHeight="1" spans="1:14">
+    <row r="964" spans="1:14" ht="15.75" customHeight="1">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="7"/>
@@ -9785,7 +9201,7 @@
       <c r="J964" s="1"/>
       <c r="N964" s="1"/>
     </row>
-    <row r="965" customHeight="1" spans="1:14">
+    <row r="965" spans="1:14" ht="15.75" customHeight="1">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="7"/>
@@ -9793,7 +9209,7 @@
       <c r="J965" s="1"/>
       <c r="N965" s="1"/>
     </row>
-    <row r="966" customHeight="1" spans="1:14">
+    <row r="966" spans="1:14" ht="15.75" customHeight="1">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="7"/>
@@ -9801,7 +9217,7 @@
       <c r="J966" s="1"/>
       <c r="N966" s="1"/>
     </row>
-    <row r="967" customHeight="1" spans="1:14">
+    <row r="967" spans="1:14" ht="15.75" customHeight="1">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="7"/>
@@ -9809,7 +9225,7 @@
       <c r="J967" s="1"/>
       <c r="N967" s="1"/>
     </row>
-    <row r="968" customHeight="1" spans="1:14">
+    <row r="968" spans="1:14" ht="15.75" customHeight="1">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="7"/>
@@ -9817,7 +9233,7 @@
       <c r="J968" s="1"/>
       <c r="N968" s="1"/>
     </row>
-    <row r="969" customHeight="1" spans="1:14">
+    <row r="969" spans="1:14" ht="15.75" customHeight="1">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="7"/>
@@ -9825,7 +9241,7 @@
       <c r="J969" s="1"/>
       <c r="N969" s="1"/>
     </row>
-    <row r="970" customHeight="1" spans="1:14">
+    <row r="970" spans="1:14" ht="15.75" customHeight="1">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="7"/>
@@ -9833,7 +9249,7 @@
       <c r="J970" s="1"/>
       <c r="N970" s="1"/>
     </row>
-    <row r="971" customHeight="1" spans="1:14">
+    <row r="971" spans="1:14" ht="15.75" customHeight="1">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="7"/>
@@ -9841,7 +9257,7 @@
       <c r="J971" s="1"/>
       <c r="N971" s="1"/>
     </row>
-    <row r="972" customHeight="1" spans="1:14">
+    <row r="972" spans="1:14" ht="15.75" customHeight="1">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="7"/>
@@ -9849,7 +9265,7 @@
       <c r="J972" s="1"/>
       <c r="N972" s="1"/>
     </row>
-    <row r="973" customHeight="1" spans="1:14">
+    <row r="973" spans="1:14" ht="15.75" customHeight="1">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="7"/>
@@ -9857,7 +9273,7 @@
       <c r="J973" s="1"/>
       <c r="N973" s="1"/>
     </row>
-    <row r="974" customHeight="1" spans="1:14">
+    <row r="974" spans="1:14" ht="15.75" customHeight="1">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="7"/>
@@ -9865,7 +9281,7 @@
       <c r="J974" s="1"/>
       <c r="N974" s="1"/>
     </row>
-    <row r="975" customHeight="1" spans="1:14">
+    <row r="975" spans="1:14" ht="15.75" customHeight="1">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="7"/>
@@ -9873,7 +9289,7 @@
       <c r="J975" s="1"/>
       <c r="N975" s="1"/>
     </row>
-    <row r="976" customHeight="1" spans="1:14">
+    <row r="976" spans="1:14" ht="15.75" customHeight="1">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="7"/>
@@ -9881,7 +9297,7 @@
       <c r="J976" s="1"/>
       <c r="N976" s="1"/>
     </row>
-    <row r="977" customHeight="1" spans="1:14">
+    <row r="977" spans="1:14" ht="15.75" customHeight="1">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="7"/>
@@ -9889,7 +9305,7 @@
       <c r="J977" s="1"/>
       <c r="N977" s="1"/>
     </row>
-    <row r="978" customHeight="1" spans="1:14">
+    <row r="978" spans="1:14" ht="15.75" customHeight="1">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="7"/>
@@ -9897,7 +9313,7 @@
       <c r="J978" s="1"/>
       <c r="N978" s="1"/>
     </row>
-    <row r="979" customHeight="1" spans="1:14">
+    <row r="979" spans="1:14" ht="15.75" customHeight="1">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="7"/>
@@ -9905,7 +9321,7 @@
       <c r="J979" s="1"/>
       <c r="N979" s="1"/>
     </row>
-    <row r="980" customHeight="1" spans="1:14">
+    <row r="980" spans="1:14" ht="15.75" customHeight="1">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="7"/>
@@ -9913,7 +9329,7 @@
       <c r="J980" s="1"/>
       <c r="N980" s="1"/>
     </row>
-    <row r="981" customHeight="1" spans="1:14">
+    <row r="981" spans="1:14" ht="15.75" customHeight="1">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="7"/>
@@ -9921,7 +9337,7 @@
       <c r="J981" s="1"/>
       <c r="N981" s="1"/>
     </row>
-    <row r="982" customHeight="1" spans="1:14">
+    <row r="982" spans="1:14" ht="15.75" customHeight="1">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="7"/>
@@ -9929,7 +9345,7 @@
       <c r="J982" s="1"/>
       <c r="N982" s="1"/>
     </row>
-    <row r="983" customHeight="1" spans="1:14">
+    <row r="983" spans="1:14" ht="15.75" customHeight="1">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="7"/>
@@ -9937,7 +9353,7 @@
       <c r="J983" s="1"/>
       <c r="N983" s="1"/>
     </row>
-    <row r="984" customHeight="1" spans="1:14">
+    <row r="984" spans="1:14" ht="15.75" customHeight="1">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="7"/>
@@ -9945,7 +9361,7 @@
       <c r="J984" s="1"/>
       <c r="N984" s="1"/>
     </row>
-    <row r="985" customHeight="1" spans="1:14">
+    <row r="985" spans="1:14" ht="15.75" customHeight="1">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="7"/>
@@ -9953,7 +9369,7 @@
       <c r="J985" s="1"/>
       <c r="N985" s="1"/>
     </row>
-    <row r="986" customHeight="1" spans="1:14">
+    <row r="986" spans="1:14" ht="15.75" customHeight="1">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="7"/>
@@ -9961,7 +9377,7 @@
       <c r="J986" s="1"/>
       <c r="N986" s="1"/>
     </row>
-    <row r="987" customHeight="1" spans="1:14">
+    <row r="987" spans="1:14" ht="15.75" customHeight="1">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="7"/>
@@ -9969,7 +9385,7 @@
       <c r="J987" s="1"/>
       <c r="N987" s="1"/>
     </row>
-    <row r="988" customHeight="1" spans="1:14">
+    <row r="988" spans="1:14" ht="15.75" customHeight="1">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="7"/>
@@ -9977,7 +9393,7 @@
       <c r="J988" s="1"/>
       <c r="N988" s="1"/>
     </row>
-    <row r="989" customHeight="1" spans="1:14">
+    <row r="989" spans="1:14" ht="15.75" customHeight="1">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="7"/>
@@ -9985,7 +9401,7 @@
       <c r="J989" s="1"/>
       <c r="N989" s="1"/>
     </row>
-    <row r="990" customHeight="1" spans="1:14">
+    <row r="990" spans="1:14" ht="15.75" customHeight="1">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="7"/>
@@ -9993,7 +9409,7 @@
       <c r="J990" s="1"/>
       <c r="N990" s="1"/>
     </row>
-    <row r="991" customHeight="1" spans="1:14">
+    <row r="991" spans="1:14" ht="15.75" customHeight="1">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="7"/>
@@ -10001,7 +9417,7 @@
       <c r="J991" s="1"/>
       <c r="N991" s="1"/>
     </row>
-    <row r="992" customHeight="1" spans="1:14">
+    <row r="992" spans="1:14" ht="15.75" customHeight="1">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="7"/>
@@ -10009,7 +9425,7 @@
       <c r="J992" s="1"/>
       <c r="N992" s="1"/>
     </row>
-    <row r="993" customHeight="1" spans="1:14">
+    <row r="993" spans="1:14" ht="15.75" customHeight="1">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="7"/>
@@ -10017,7 +9433,7 @@
       <c r="J993" s="1"/>
       <c r="N993" s="1"/>
     </row>
-    <row r="994" customHeight="1" spans="1:14">
+    <row r="994" spans="1:14" ht="15.75" customHeight="1">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="7"/>
@@ -10025,7 +9441,7 @@
       <c r="J994" s="1"/>
       <c r="N994" s="1"/>
     </row>
-    <row r="995" customHeight="1" spans="1:14">
+    <row r="995" spans="1:14" ht="15.75" customHeight="1">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="7"/>
@@ -10033,7 +9449,7 @@
       <c r="J995" s="1"/>
       <c r="N995" s="1"/>
     </row>
-    <row r="996" customHeight="1" spans="1:14">
+    <row r="996" spans="1:14" ht="15.75" customHeight="1">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="7"/>
@@ -10041,7 +9457,7 @@
       <c r="J996" s="1"/>
       <c r="N996" s="1"/>
     </row>
-    <row r="997" customHeight="1" spans="1:14">
+    <row r="997" spans="1:14" ht="15.75" customHeight="1">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="7"/>
@@ -10049,7 +9465,7 @@
       <c r="J997" s="1"/>
       <c r="N997" s="1"/>
     </row>
-    <row r="998" customHeight="1" spans="1:14">
+    <row r="998" spans="1:14" ht="15.75" customHeight="1">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="7"/>
@@ -10057,7 +9473,7 @@
       <c r="J998" s="1"/>
       <c r="N998" s="1"/>
     </row>
-    <row r="999" customHeight="1" spans="1:14">
+    <row r="999" spans="1:14" ht="15.75" customHeight="1">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="7"/>
@@ -10065,7 +9481,7 @@
       <c r="J999" s="1"/>
       <c r="N999" s="1"/>
     </row>
-    <row r="1000" customHeight="1" spans="1:14">
+    <row r="1000" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="7"/>
@@ -10073,7 +9489,7 @@
       <c r="J1000" s="1"/>
       <c r="N1000" s="1"/>
     </row>
-    <row r="1001" customHeight="1" spans="1:14">
+    <row r="1001" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="7"/>
@@ -10081,7 +9497,7 @@
       <c r="J1001" s="1"/>
       <c r="N1001" s="1"/>
     </row>
-    <row r="1002" customHeight="1" spans="3:3">
+    <row r="1002" spans="1:14" ht="15.75" customHeight="1">
       <c r="C1002" s="7"/>
     </row>
   </sheetData>
@@ -10089,32 +9505,27 @@
     <sortState ref="A2:A1001">
       <sortCondition ref="A2:A1001"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Y1" r:id="rId1" display="yellow.ai"/>
-    <hyperlink ref="M4" r:id="rId2" display="Media.net"/>
-    <hyperlink ref="S9" r:id="rId3" display="Shaadi.com"/>
+    <hyperlink ref="Y1" r:id="rId1"/>
+    <hyperlink ref="M4" r:id="rId2"/>
+    <hyperlink ref="S9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>